--- a/output/StructureDefinition-rv-biological-sex.xlsx
+++ b/output/StructureDefinition-rv-biological-sex.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T11:27:05+01:00</t>
+    <t>2023-03-23T14:41:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-rv-biological-sex.xlsx
+++ b/output/StructureDefinition-rv-biological-sex.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T14:41:29+01:00</t>
+    <t>2023-03-27T14:34:38+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -5308,7 +5308,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>92</v>
@@ -6760,7 +6760,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>92</v>
@@ -8212,7 +8212,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>92</v>

--- a/output/StructureDefinition-rv-biological-sex.xlsx
+++ b/output/StructureDefinition-rv-biological-sex.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T14:13:32+02:00</t>
+    <t>2023-03-28T16:37:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-rv-biological-sex.xlsx
+++ b/output/StructureDefinition-rv-biological-sex.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T22:15:03+02:00</t>
+    <t>2023-03-28T23:17:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-rv-biological-sex.xlsx
+++ b/output/StructureDefinition-rv-biological-sex.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$175</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$180</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6769" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6964" uniqueCount="710">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T23:17:42+02:00</t>
+    <t>2023-03-29T13:43:15+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1328,6 +1328,10 @@
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
     <t>ele-1
 obs-7</t>
   </si>
@@ -1342,6 +1346,12 @@
   </si>
   <si>
     <t>363714003 |Interprets|</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
   </si>
   <si>
     <t>Observation.dataAbsentReason</t>
@@ -1844,10 +1854,6 @@
     <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
     <t>closed</t>
   </si>
   <si>
@@ -1855,9 +1861,6 @@
   </si>
   <si>
     <t>Observation.component.value[x]:valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
   </si>
   <si>
     <t>http://hl7.org/de/ValueSet/vs-biological-gender</t>
@@ -2034,23 +2037,29 @@
     <t>Observation.component:male.value[x]</t>
   </si>
   <si>
+    <t>Observation.component:male.value[x]:valueInteger</t>
+  </si>
+  <si>
+    <t>valueInteger</t>
+  </si>
+  <si>
     <t xml:space="preserve">integer
 </t>
   </si>
   <si>
-    <t>Observation.component:male.value[x].id</t>
+    <t>Observation.component:male.value[x]:valueInteger.id</t>
   </si>
   <si>
     <t>Observation.component.value[x].id</t>
   </si>
   <si>
-    <t>Observation.component:male.value[x].extension</t>
+    <t>Observation.component:male.value[x]:valueInteger.extension</t>
   </si>
   <si>
     <t>Observation.component.value[x].extension</t>
   </si>
   <si>
-    <t>Observation.component:male.value[x].value</t>
+    <t>Observation.component:male.value[x]:valueInteger.value</t>
   </si>
   <si>
     <t>Observation.component.value[x].value</t>
@@ -2066,6 +2075,9 @@
   </si>
   <si>
     <t>integer.value</t>
+  </si>
+  <si>
+    <t>Observation.component:male.value[x]:valueCodeableConcept</t>
   </si>
   <si>
     <t>Observation.component:male.dataAbsentReason</t>
@@ -2180,16 +2192,22 @@
     <t>Observation.component:female.value[x]</t>
   </si>
   <si>
-    <t>Observation.component:female.value[x].id</t>
-  </si>
-  <si>
-    <t>Observation.component:female.value[x].extension</t>
-  </si>
-  <si>
-    <t>Observation.component:female.value[x].value</t>
+    <t>Observation.component:female.value[x]:valueInteger</t>
+  </si>
+  <si>
+    <t>Observation.component:female.value[x]:valueInteger.id</t>
+  </si>
+  <si>
+    <t>Observation.component:female.value[x]:valueInteger.extension</t>
+  </si>
+  <si>
+    <t>Observation.component:female.value[x]:valueInteger.value</t>
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>Observation.component:female.value[x]:valueCodeableConcept</t>
   </si>
   <si>
     <t>Observation.component:female.dataAbsentReason</t>
@@ -2518,7 +2536,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP175"/>
+  <dimension ref="A1:AP180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -12447,16 +12465,14 @@
         <v>82</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="AC82" s="2"/>
       <c r="AD82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>418</v>
@@ -12468,7 +12484,7 @@
         <v>92</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>105</v>
@@ -12477,29 +12493,31 @@
         <v>82</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="C83" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="C83" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="D83" t="s" s="2">
         <v>82</v>
       </c>
@@ -12508,7 +12526,7 @@
         <v>80</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>82</v>
@@ -12517,22 +12535,22 @@
         <v>82</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K83" t="s" s="2">
         <v>198</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>82</v>
@@ -12557,13 +12575,13 @@
         <v>82</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>434</v>
+        <v>82</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>435</v>
+        <v>82</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>436</v>
+        <v>82</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>82</v>
@@ -12581,7 +12599,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12590,7 +12608,7 @@
         <v>92</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>105</v>
@@ -12599,38 +12617,38 @@
         <v>82</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>82</v>
+        <v>426</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>106</v>
+        <v>427</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP83" t="s" s="2">
-        <v>82</v>
+        <v>429</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>440</v>
+        <v>82</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>82</v>
@@ -12645,16 +12663,16 @@
         <v>198</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>82</v>
@@ -12679,13 +12697,13 @@
         <v>82</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>82</v>
@@ -12703,16 +12721,16 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>104</v>
+        <v>440</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>105</v>
@@ -12721,31 +12739,31 @@
         <v>82</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>447</v>
+        <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>448</v>
+        <v>106</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP84" t="s" s="2">
-        <v>450</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>82</v>
+        <v>443</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -12764,19 +12782,19 @@
         <v>82</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>452</v>
+        <v>198</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>82</v>
@@ -12801,13 +12819,13 @@
         <v>82</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>82</v>
+        <v>437</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>82</v>
+        <v>448</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>82</v>
+        <v>449</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>82</v>
@@ -12825,7 +12843,7 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12843,27 +12861,27 @@
         <v>82</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>82</v>
+        <v>450</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP85" t="s" s="2">
-        <v>82</v>
+        <v>453</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12874,7 +12892,7 @@
         <v>80</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>82</v>
@@ -12886,18 +12904,20 @@
         <v>82</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>198</v>
+        <v>455</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="O86" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
       </c>
@@ -12921,13 +12941,13 @@
         <v>82</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>341</v>
+        <v>82</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>463</v>
+        <v>82</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>464</v>
+        <v>82</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>82</v>
@@ -12945,13 +12965,13 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>104</v>
@@ -12963,27 +12983,27 @@
         <v>82</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>465</v>
+        <v>82</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP86" t="s" s="2">
-        <v>468</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -13009,17 +13029,15 @@
         <v>198</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>473</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>82</v>
       </c>
@@ -13046,10 +13064,10 @@
         <v>341</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>82</v>
@@ -13067,7 +13085,7 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -13085,27 +13103,27 @@
         <v>82</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>82</v>
+        <v>468</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP87" t="s" s="2">
-        <v>82</v>
+        <v>471</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13128,18 +13146,20 @@
         <v>82</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>479</v>
+        <v>198</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="O88" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="P88" t="s" s="2">
         <v>82</v>
       </c>
@@ -13163,13 +13183,13 @@
         <v>82</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>82</v>
+        <v>341</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>82</v>
+        <v>477</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>82</v>
+        <v>478</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>82</v>
@@ -13187,7 +13207,7 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -13199,33 +13219,33 @@
         <v>104</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>483</v>
+        <v>82</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP88" t="s" s="2">
-        <v>486</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13248,16 +13268,16 @@
         <v>82</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -13307,7 +13327,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -13325,27 +13345,27 @@
         <v>82</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP89" t="s" s="2">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13356,7 +13376,7 @@
         <v>80</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>82</v>
@@ -13368,20 +13388,18 @@
         <v>82</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>501</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>82</v>
       </c>
@@ -13429,45 +13447,45 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>502</v>
+        <v>170</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>82</v>
+        <v>495</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP90" t="s" s="2">
-        <v>82</v>
+        <v>498</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13478,7 +13496,7 @@
         <v>80</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>82</v>
@@ -13490,16 +13508,20 @@
         <v>82</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>215</v>
+        <v>500</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>216</v>
+        <v>501</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
+        <v>502</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>504</v>
+      </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
       </c>
@@ -13547,19 +13569,19 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>218</v>
+        <v>499</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>82</v>
+        <v>505</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>82</v>
@@ -13568,10 +13590,10 @@
         <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>82</v>
+        <v>506</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>113</v>
+        <v>507</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>82</v>
@@ -13582,21 +13604,21 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>82</v>
@@ -13608,17 +13630,15 @@
         <v>82</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N92" s="2"/>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>82</v>
@@ -13655,31 +13675,31 @@
         <v>82</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC92" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>82</v>
@@ -13691,7 +13711,7 @@
         <v>82</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>82</v>
@@ -13702,14 +13722,14 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>508</v>
+        <v>139</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -13722,26 +13742,24 @@
         <v>82</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K93" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>509</v>
+        <v>141</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>510</v>
+        <v>221</v>
       </c>
       <c r="N93" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="O93" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>82</v>
       </c>
@@ -13777,19 +13795,19 @@
         <v>82</v>
       </c>
       <c r="AB93" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC93" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>511</v>
+        <v>222</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13824,44 +13842,46 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>82</v>
+        <v>511</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="L94" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>515</v>
-      </c>
       <c r="N94" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="O94" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P94" t="s" s="2">
         <v>82</v>
       </c>
@@ -13909,19 +13929,19 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>517</v>
+        <v>104</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>518</v>
+        <v>148</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>82</v>
@@ -13930,10 +13950,10 @@
         <v>82</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>519</v>
+        <v>82</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>520</v>
+        <v>106</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>82</v>
@@ -13944,10 +13964,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13970,16 +13990,16 @@
         <v>82</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -14029,20 +14049,20 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="AG95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>518</v>
-      </c>
       <c r="AK95" t="s" s="2">
         <v>82</v>
       </c>
@@ -14050,10 +14070,10 @@
         <v>82</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>82</v>
@@ -14064,10 +14084,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14090,20 +14110,18 @@
         <v>82</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>198</v>
+        <v>516</v>
       </c>
       <c r="L96" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="M96" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="M96" t="s" s="2">
-        <v>527</v>
-      </c>
       <c r="N96" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>529</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>82</v>
       </c>
@@ -14127,13 +14145,13 @@
         <v>82</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>530</v>
+        <v>82</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>531</v>
+        <v>82</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>82</v>
@@ -14151,7 +14169,7 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -14160,22 +14178,22 @@
         <v>92</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>104</v>
+        <v>520</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>105</v>
+        <v>521</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>532</v>
+        <v>82</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>449</v>
+        <v>527</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>82</v>
@@ -14186,10 +14204,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14200,7 +14218,7 @@
         <v>80</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>82</v>
@@ -14215,16 +14233,16 @@
         <v>198</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>82</v>
@@ -14249,13 +14267,13 @@
         <v>82</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>341</v>
+        <v>119</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>82</v>
@@ -14273,13 +14291,13 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>104</v>
@@ -14291,13 +14309,13 @@
         <v>82</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>82</v>
@@ -14308,10 +14326,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14322,7 +14340,7 @@
         <v>80</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>82</v>
@@ -14334,19 +14352,19 @@
         <v>82</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>542</v>
+        <v>198</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14371,13 +14389,13 @@
         <v>82</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>82</v>
+        <v>341</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>82</v>
+        <v>542</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>82</v>
+        <v>543</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>82</v>
@@ -14395,31 +14413,31 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>547</v>
+        <v>105</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>82</v>
+        <v>535</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>549</v>
+        <v>452</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>82</v>
@@ -14430,10 +14448,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14456,18 +14474,20 @@
         <v>82</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>215</v>
+        <v>545</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O99" s="2"/>
+        <v>548</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>549</v>
+      </c>
       <c r="P99" t="s" s="2">
         <v>82</v>
       </c>
@@ -14515,7 +14535,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14527,7 +14547,7 @@
         <v>104</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>105</v>
+        <v>550</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>82</v>
@@ -14536,10 +14556,10 @@
         <v>82</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>519</v>
+        <v>551</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>82</v>
@@ -14550,10 +14570,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14564,7 +14584,7 @@
         <v>80</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>82</v>
@@ -14573,19 +14593,19 @@
         <v>82</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K100" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="M100" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="L100" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>557</v>
-      </c>
       <c r="N100" t="s" s="2">
-        <v>558</v>
+        <v>259</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -14635,19 +14655,19 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>82</v>
@@ -14656,10 +14676,10 @@
         <v>82</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>559</v>
+        <v>522</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>82</v>
@@ -14670,10 +14690,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14696,16 +14716,16 @@
         <v>93</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14755,7 +14775,7 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14776,10 +14796,10 @@
         <v>82</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>82</v>
@@ -14790,10 +14810,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14804,10 +14824,10 @@
         <v>80</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H102" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I102" t="s" s="2">
         <v>82</v>
@@ -14816,20 +14836,18 @@
         <v>93</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="L102" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="N102" t="s" s="2">
         <v>568</v>
       </c>
-      <c r="M102" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>571</v>
-      </c>
+      <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>82</v>
       </c>
@@ -14865,19 +14883,19 @@
         <v>82</v>
       </c>
       <c r="AB102" t="s" s="2">
-        <v>572</v>
+        <v>82</v>
       </c>
       <c r="AC102" t="s" s="2">
-        <v>573</v>
+        <v>82</v>
       </c>
       <c r="AD102" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14889,7 +14907,7 @@
         <v>104</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>82</v>
@@ -14898,10 +14916,10 @@
         <v>82</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>82</v>
@@ -14912,10 +14930,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14929,25 +14947,29 @@
         <v>92</v>
       </c>
       <c r="H103" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I103" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>215</v>
+        <v>500</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>216</v>
+        <v>571</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N103" s="2"/>
-      <c r="O103" s="2"/>
+        <v>572</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>574</v>
+      </c>
       <c r="P103" t="s" s="2">
         <v>82</v>
       </c>
@@ -14983,31 +15005,31 @@
         <v>82</v>
       </c>
       <c r="AB103" t="s" s="2">
-        <v>82</v>
+        <v>575</v>
       </c>
       <c r="AC103" t="s" s="2">
-        <v>82</v>
+        <v>576</v>
       </c>
       <c r="AD103" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>218</v>
+        <v>570</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>82</v>
@@ -15016,10 +15038,10 @@
         <v>82</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>82</v>
+        <v>577</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>113</v>
+        <v>578</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>82</v>
@@ -15030,21 +15052,21 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>82</v>
@@ -15056,17 +15078,15 @@
         <v>82</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N104" s="2"/>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
         <v>82</v>
@@ -15103,31 +15123,31 @@
         <v>82</v>
       </c>
       <c r="AB104" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC104" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD104" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>82</v>
@@ -15139,7 +15159,7 @@
         <v>82</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>82</v>
@@ -15150,14 +15170,14 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>508</v>
+        <v>139</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -15170,26 +15190,24 @@
         <v>82</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K105" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>509</v>
+        <v>141</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>510</v>
+        <v>221</v>
       </c>
       <c r="N105" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="O105" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
         <v>82</v>
       </c>
@@ -15225,19 +15243,19 @@
         <v>82</v>
       </c>
       <c r="AB105" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC105" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD105" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>511</v>
+        <v>222</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15272,45 +15290,45 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>82</v>
+        <v>511</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J106" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>580</v>
+        <v>512</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>581</v>
+        <v>513</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>582</v>
+        <v>143</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>340</v>
+        <v>152</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>82</v>
@@ -15335,13 +15353,13 @@
         <v>82</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>341</v>
+        <v>82</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>342</v>
+        <v>82</v>
       </c>
       <c r="Z106" t="s" s="2">
-        <v>343</v>
+        <v>82</v>
       </c>
       <c r="AA106" t="s" s="2">
         <v>82</v>
@@ -15359,34 +15377,34 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>579</v>
+        <v>514</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>583</v>
+        <v>82</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>346</v>
+        <v>82</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>347</v>
+        <v>106</v>
       </c>
       <c r="AO106" t="s" s="2">
-        <v>348</v>
+        <v>82</v>
       </c>
       <c r="AP106" t="s" s="2">
         <v>82</v>
@@ -15394,10 +15412,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15423,16 +15441,16 @@
         <v>198</v>
       </c>
       <c r="L107" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="N107" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="M107" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>586</v>
-      </c>
       <c r="O107" t="s" s="2">
-        <v>423</v>
+        <v>340</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>82</v>
@@ -15457,32 +15475,34 @@
         <v>82</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>82</v>
+        <v>341</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>82</v>
+        <v>342</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>82</v>
+        <v>343</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB107" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="AC107" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD107" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>588</v>
+        <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>92</v>
@@ -15497,31 +15517,29 @@
         <v>82</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>426</v>
+        <v>346</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>427</v>
+        <v>347</v>
       </c>
       <c r="AO107" t="s" s="2">
-        <v>82</v>
+        <v>348</v>
       </c>
       <c r="AP107" t="s" s="2">
-        <v>428</v>
+        <v>82</v>
       </c>
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="C108" t="s" s="2">
-        <v>591</v>
-      </c>
+        <v>587</v>
+      </c>
+      <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
         <v>82</v>
       </c>
@@ -15533,7 +15551,7 @@
         <v>92</v>
       </c>
       <c r="H108" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I108" t="s" s="2">
         <v>82</v>
@@ -15545,13 +15563,13 @@
         <v>198</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="M108" t="s" s="2">
         <v>421</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>423</v>
@@ -15579,29 +15597,29 @@
         <v>82</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="Y108" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z108" t="s" s="2">
-        <v>592</v>
+        <v>82</v>
       </c>
       <c r="AA108" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="AC108" s="2"/>
       <c r="AD108" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>82</v>
+        <v>590</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15619,35 +15637,37 @@
         <v>82</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP108" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="C109" s="2"/>
+        <v>587</v>
+      </c>
+      <c r="C109" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="D109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>92</v>
@@ -15659,22 +15679,22 @@
         <v>82</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K109" t="s" s="2">
         <v>198</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>595</v>
+        <v>421</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>82</v>
@@ -15703,7 +15723,7 @@
       </c>
       <c r="Y109" s="2"/>
       <c r="Z109" t="s" s="2">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>82</v>
@@ -15721,7 +15741,7 @@
         <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -15730,7 +15750,7 @@
         <v>92</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>437</v>
+        <v>104</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>105</v>
@@ -15739,41 +15759,41 @@
         <v>82</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>82</v>
+        <v>591</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>106</v>
+        <v>427</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP109" t="s" s="2">
-        <v>82</v>
+        <v>429</v>
       </c>
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>440</v>
+        <v>82</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H110" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I110" t="s" s="2">
         <v>82</v>
@@ -15785,16 +15805,16 @@
         <v>198</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>441</v>
+        <v>595</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>442</v>
+        <v>596</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>443</v>
+        <v>597</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>82</v>
@@ -15819,13 +15839,11 @@
         <v>82</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="Y110" t="s" s="2">
-        <v>445</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="Y110" s="2"/>
       <c r="Z110" t="s" s="2">
-        <v>446</v>
+        <v>598</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>82</v>
@@ -15843,16 +15861,16 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>104</v>
+        <v>440</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>105</v>
@@ -15861,19 +15879,19 @@
         <v>82</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>447</v>
+        <v>82</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>448</v>
+        <v>106</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP110" t="s" s="2">
-        <v>450</v>
+        <v>82</v>
       </c>
     </row>
     <row r="111" hidden="true">
@@ -15885,7 +15903,7 @@
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>82</v>
+        <v>443</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
@@ -15904,19 +15922,19 @@
         <v>82</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>83</v>
+        <v>198</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>600</v>
+        <v>444</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>601</v>
+        <v>445</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>500</v>
+        <v>446</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>501</v>
+        <v>447</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>82</v>
@@ -15941,13 +15959,13 @@
         <v>82</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>82</v>
+        <v>437</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>82</v>
+        <v>448</v>
       </c>
       <c r="Z111" t="s" s="2">
-        <v>82</v>
+        <v>449</v>
       </c>
       <c r="AA111" t="s" s="2">
         <v>82</v>
@@ -15974,40 +15992,38 @@
         <v>81</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>82</v>
+        <v>450</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>503</v>
+        <v>451</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>504</v>
+        <v>452</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP111" t="s" s="2">
-        <v>82</v>
+        <v>453</v>
       </c>
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="C112" t="s" s="2">
-        <v>603</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
         <v>82</v>
       </c>
@@ -16016,7 +16032,7 @@
         <v>80</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>82</v>
@@ -16025,22 +16041,22 @@
         <v>82</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>497</v>
+        <v>83</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>568</v>
+        <v>601</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>569</v>
+        <v>602</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>570</v>
+        <v>503</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>571</v>
+        <v>504</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>82</v>
@@ -16089,7 +16105,7 @@
         <v>82</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>567</v>
+        <v>600</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
@@ -16098,7 +16114,7 @@
         <v>81</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>82</v>
@@ -16110,10 +16126,10 @@
         <v>82</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>574</v>
+        <v>506</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>575</v>
+        <v>507</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>82</v>
@@ -16124,12 +16140,14 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="C113" t="s" s="2">
         <v>604</v>
       </c>
-      <c r="B113" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
         <v>82</v>
       </c>
@@ -16147,19 +16165,23 @@
         <v>82</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>215</v>
+        <v>500</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>216</v>
+        <v>571</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N113" s="2"/>
-      <c r="O113" s="2"/>
+        <v>572</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="O113" t="s" s="2">
+        <v>574</v>
+      </c>
       <c r="P113" t="s" s="2">
         <v>82</v>
       </c>
@@ -16207,16 +16229,16 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>218</v>
+        <v>570</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>82</v>
@@ -16228,10 +16250,10 @@
         <v>82</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>82</v>
+        <v>577</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>113</v>
+        <v>578</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>82</v>
@@ -16245,18 +16267,18 @@
         <v>605</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G114" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H114" t="s" s="2">
         <v>82</v>
@@ -16268,17 +16290,15 @@
         <v>82</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N114" s="2"/>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
         <v>82</v>
@@ -16315,31 +16335,31 @@
         <v>82</v>
       </c>
       <c r="AB114" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC114" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD114" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>82</v>
@@ -16351,7 +16371,7 @@
         <v>82</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>82</v>
@@ -16365,11 +16385,11 @@
         <v>606</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
-        <v>508</v>
+        <v>139</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
@@ -16382,26 +16402,24 @@
         <v>82</v>
       </c>
       <c r="I115" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K115" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>509</v>
+        <v>141</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>510</v>
+        <v>221</v>
       </c>
       <c r="N115" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="O115" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
         <v>82</v>
       </c>
@@ -16437,19 +16455,19 @@
         <v>82</v>
       </c>
       <c r="AB115" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC115" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD115" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>511</v>
+        <v>222</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16487,42 +16505,42 @@
         <v>607</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
-        <v>608</v>
+        <v>511</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G116" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H116" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I116" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J116" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>609</v>
+        <v>512</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>610</v>
+        <v>513</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>611</v>
+        <v>143</v>
       </c>
       <c r="O116" t="s" s="2">
-        <v>340</v>
+        <v>152</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>82</v>
@@ -16547,13 +16565,13 @@
         <v>82</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>341</v>
+        <v>82</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>342</v>
+        <v>82</v>
       </c>
       <c r="Z116" t="s" s="2">
-        <v>343</v>
+        <v>82</v>
       </c>
       <c r="AA116" t="s" s="2">
         <v>82</v>
@@ -16571,34 +16589,34 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>579</v>
+        <v>514</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI116" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>583</v>
+        <v>82</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>346</v>
+        <v>82</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>347</v>
+        <v>106</v>
       </c>
       <c r="AO116" t="s" s="2">
-        <v>348</v>
+        <v>82</v>
       </c>
       <c r="AP116" t="s" s="2">
         <v>82</v>
@@ -16606,18 +16624,18 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>613</v>
+        <v>582</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
-        <v>82</v>
+        <v>609</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>92</v>
@@ -16629,19 +16647,23 @@
         <v>82</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>216</v>
+        <v>610</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N117" s="2"/>
-      <c r="O117" s="2"/>
+        <v>611</v>
+      </c>
+      <c r="N117" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="O117" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="P117" t="s" s="2">
         <v>82</v>
       </c>
@@ -16665,13 +16687,13 @@
         <v>82</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>82</v>
+        <v>341</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>82</v>
+        <v>342</v>
       </c>
       <c r="Z117" t="s" s="2">
-        <v>82</v>
+        <v>343</v>
       </c>
       <c r="AA117" t="s" s="2">
         <v>82</v>
@@ -16689,16 +16711,16 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>218</v>
+        <v>582</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>82</v>
@@ -16707,16 +16729,16 @@
         <v>82</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>82</v>
+        <v>586</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>82</v>
+        <v>346</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>113</v>
+        <v>347</v>
       </c>
       <c r="AO117" t="s" s="2">
-        <v>82</v>
+        <v>348</v>
       </c>
       <c r="AP117" t="s" s="2">
         <v>82</v>
@@ -16724,21 +16746,21 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="B118" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="B118" t="s" s="2">
-        <v>615</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G118" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H118" t="s" s="2">
         <v>82</v>
@@ -16750,17 +16772,15 @@
         <v>82</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N118" s="2"/>
       <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
         <v>82</v>
@@ -16797,31 +16817,31 @@
         <v>82</v>
       </c>
       <c r="AB118" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC118" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD118" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>82</v>
@@ -16833,7 +16853,7 @@
         <v>82</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>82</v>
@@ -16844,14 +16864,14 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="B119" t="s" s="2">
         <v>616</v>
-      </c>
-      <c r="B119" t="s" s="2">
-        <v>617</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
@@ -16867,23 +16887,21 @@
         <v>82</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>225</v>
+        <v>140</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>226</v>
+        <v>141</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O119" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O119" s="2"/>
       <c r="P119" t="s" s="2">
         <v>82</v>
       </c>
@@ -16919,9 +16937,11 @@
         <v>82</v>
       </c>
       <c r="AB119" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="AC119" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="AC119" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="AD119" t="s" s="2">
         <v>82</v>
       </c>
@@ -16929,7 +16949,7 @@
         <v>146</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
@@ -16941,7 +16961,7 @@
         <v>104</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK119" t="s" s="2">
         <v>82</v>
@@ -16950,10 +16970,10 @@
         <v>82</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>231</v>
+        <v>82</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>232</v>
+        <v>106</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>82</v>
@@ -16964,14 +16984,12 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="C120" t="s" s="2">
-        <v>620</v>
-      </c>
+        <v>618</v>
+      </c>
+      <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
         <v>82</v>
       </c>
@@ -16980,10 +16998,10 @@
         <v>80</v>
       </c>
       <c r="G120" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H120" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I120" t="s" s="2">
         <v>82</v>
@@ -17041,16 +17059,14 @@
         <v>82</v>
       </c>
       <c r="AB120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC120" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>619</v>
+      </c>
+      <c r="AC120" s="2"/>
       <c r="AD120" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>230</v>
@@ -17088,12 +17104,14 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="B121" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="C121" t="s" s="2">
         <v>621</v>
       </c>
-      <c r="B121" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
         <v>82</v>
       </c>
@@ -17105,25 +17123,29 @@
         <v>92</v>
       </c>
       <c r="H121" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I121" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N121" s="2"/>
-      <c r="O121" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="N121" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="O121" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="P121" t="s" s="2">
         <v>82</v>
       </c>
@@ -17171,19 +17193,19 @@
         <v>82</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>82</v>
@@ -17192,10 +17214,10 @@
         <v>82</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>82</v>
+        <v>231</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>113</v>
+        <v>232</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>82</v>
@@ -17206,21 +17228,21 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="B122" t="s" s="2">
         <v>623</v>
-      </c>
-      <c r="B122" t="s" s="2">
-        <v>624</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G122" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H122" t="s" s="2">
         <v>82</v>
@@ -17232,17 +17254,15 @@
         <v>82</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N122" s="2"/>
       <c r="O122" s="2"/>
       <c r="P122" t="s" s="2">
         <v>82</v>
@@ -17279,31 +17299,31 @@
         <v>82</v>
       </c>
       <c r="AB122" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC122" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD122" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH122" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>82</v>
@@ -17315,7 +17335,7 @@
         <v>82</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>82</v>
@@ -17326,21 +17346,21 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="B123" t="s" s="2">
         <v>625</v>
-      </c>
-      <c r="B123" t="s" s="2">
-        <v>626</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G123" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H123" t="s" s="2">
         <v>82</v>
@@ -17349,29 +17369,27 @@
         <v>82</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>239</v>
+        <v>141</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O123" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q123" s="2"/>
       <c r="R123" t="s" s="2">
-        <v>300</v>
+        <v>82</v>
       </c>
       <c r="S123" t="s" s="2">
         <v>82</v>
@@ -17401,31 +17419,31 @@
         <v>82</v>
       </c>
       <c r="AB123" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC123" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD123" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI123" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>82</v>
@@ -17434,10 +17452,10 @@
         <v>82</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>245</v>
+        <v>82</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>246</v>
+        <v>106</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>82</v>
@@ -17448,10 +17466,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="B124" t="s" s="2">
         <v>627</v>
-      </c>
-      <c r="B124" t="s" s="2">
-        <v>628</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17474,24 +17492,26 @@
         <v>93</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>215</v>
+        <v>108</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O124" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="O124" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="P124" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q124" s="2"/>
       <c r="R124" t="s" s="2">
-        <v>82</v>
+        <v>300</v>
       </c>
       <c r="S124" t="s" s="2">
         <v>82</v>
@@ -17533,7 +17553,7 @@
         <v>82</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>80</v>
@@ -17554,10 +17574,10 @@
         <v>82</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="AO124" t="s" s="2">
         <v>82</v>
@@ -17568,10 +17588,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="B125" t="s" s="2">
         <v>629</v>
-      </c>
-      <c r="B125" t="s" s="2">
-        <v>630</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17594,26 +17614,24 @@
         <v>93</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>115</v>
+        <v>215</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O125" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q125" s="2"/>
       <c r="R125" t="s" s="2">
-        <v>631</v>
+        <v>82</v>
       </c>
       <c r="S125" t="s" s="2">
         <v>82</v>
@@ -17655,7 +17673,7 @@
         <v>82</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>80</v>
@@ -17676,10 +17694,10 @@
         <v>82</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="AN125" t="s" s="2">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="AO125" t="s" s="2">
         <v>82</v>
@@ -17690,10 +17708,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17701,7 +17719,7 @@
       </c>
       <c r="E126" s="2"/>
       <c r="F126" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>92</v>
@@ -17716,26 +17734,26 @@
         <v>93</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="N126" t="s" s="2">
         <v>259</v>
       </c>
       <c r="O126" t="s" s="2">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q126" s="2"/>
       <c r="R126" t="s" s="2">
-        <v>82</v>
+        <v>632</v>
       </c>
       <c r="S126" t="s" s="2">
         <v>82</v>
@@ -17777,7 +17795,7 @@
         <v>82</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>80</v>
@@ -17798,10 +17816,10 @@
         <v>82</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="AO126" t="s" s="2">
         <v>82</v>
@@ -17812,10 +17830,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="B127" t="s" s="2">
         <v>634</v>
-      </c>
-      <c r="B127" t="s" s="2">
-        <v>635</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17838,19 +17856,19 @@
         <v>93</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>275</v>
+        <v>215</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="O127" t="s" s="2">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>82</v>
@@ -17899,7 +17917,7 @@
         <v>82</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>80</v>
@@ -17920,10 +17938,10 @@
         <v>82</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="AN127" t="s" s="2">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="AO127" t="s" s="2">
         <v>82</v>
@@ -17934,14 +17952,12 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="B128" t="s" s="2">
         <v>636</v>
       </c>
-      <c r="B128" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="C128" t="s" s="2">
-        <v>637</v>
-      </c>
+      <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
         <v>82</v>
       </c>
@@ -17953,7 +17969,7 @@
         <v>92</v>
       </c>
       <c r="H128" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I128" t="s" s="2">
         <v>82</v>
@@ -17962,19 +17978,19 @@
         <v>93</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>225</v>
+        <v>275</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>226</v>
+        <v>276</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>227</v>
+        <v>277</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>228</v>
+        <v>278</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>229</v>
+        <v>279</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>82</v>
@@ -18023,13 +18039,13 @@
         <v>82</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH128" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI128" t="s" s="2">
         <v>104</v>
@@ -18044,10 +18060,10 @@
         <v>82</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>231</v>
+        <v>281</v>
       </c>
       <c r="AN128" t="s" s="2">
-        <v>232</v>
+        <v>282</v>
       </c>
       <c r="AO128" t="s" s="2">
         <v>82</v>
@@ -18058,12 +18074,14 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="B129" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="C129" t="s" s="2">
         <v>638</v>
       </c>
-      <c r="B129" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
         <v>82</v>
       </c>
@@ -18075,25 +18093,29 @@
         <v>92</v>
       </c>
       <c r="H129" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I129" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N129" s="2"/>
-      <c r="O129" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="N129" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="O129" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="P129" t="s" s="2">
         <v>82</v>
       </c>
@@ -18141,19 +18163,19 @@
         <v>82</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH129" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK129" t="s" s="2">
         <v>82</v>
@@ -18162,10 +18184,10 @@
         <v>82</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>82</v>
+        <v>231</v>
       </c>
       <c r="AN129" t="s" s="2">
-        <v>113</v>
+        <v>232</v>
       </c>
       <c r="AO129" t="s" s="2">
         <v>82</v>
@@ -18179,18 +18201,18 @@
         <v>639</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G130" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H130" t="s" s="2">
         <v>82</v>
@@ -18202,17 +18224,15 @@
         <v>82</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N130" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N130" s="2"/>
       <c r="O130" s="2"/>
       <c r="P130" t="s" s="2">
         <v>82</v>
@@ -18249,31 +18269,31 @@
         <v>82</v>
       </c>
       <c r="AB130" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC130" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD130" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH130" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="AK130" t="s" s="2">
         <v>82</v>
@@ -18285,7 +18305,7 @@
         <v>82</v>
       </c>
       <c r="AN130" t="s" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="AO130" t="s" s="2">
         <v>82</v>
@@ -18299,18 +18319,18 @@
         <v>640</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G131" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H131" t="s" s="2">
         <v>82</v>
@@ -18319,29 +18339,27 @@
         <v>82</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>239</v>
+        <v>141</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O131" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O131" s="2"/>
       <c r="P131" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q131" s="2"/>
       <c r="R131" t="s" s="2">
-        <v>243</v>
+        <v>82</v>
       </c>
       <c r="S131" t="s" s="2">
         <v>82</v>
@@ -18371,31 +18389,31 @@
         <v>82</v>
       </c>
       <c r="AB131" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC131" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD131" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH131" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI131" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK131" t="s" s="2">
         <v>82</v>
@@ -18404,10 +18422,10 @@
         <v>82</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>245</v>
+        <v>82</v>
       </c>
       <c r="AN131" t="s" s="2">
-        <v>246</v>
+        <v>106</v>
       </c>
       <c r="AO131" t="s" s="2">
         <v>82</v>
@@ -18421,7 +18439,7 @@
         <v>641</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18444,24 +18462,26 @@
         <v>93</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>215</v>
+        <v>108</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O132" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="O132" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="P132" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q132" s="2"/>
       <c r="R132" t="s" s="2">
-        <v>82</v>
+        <v>243</v>
       </c>
       <c r="S132" t="s" s="2">
         <v>82</v>
@@ -18503,7 +18523,7 @@
         <v>82</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>80</v>
@@ -18524,10 +18544,10 @@
         <v>82</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="AO132" t="s" s="2">
         <v>82</v>
@@ -18541,7 +18561,7 @@
         <v>642</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18564,26 +18584,24 @@
         <v>93</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>115</v>
+        <v>215</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O133" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="O133" s="2"/>
       <c r="P133" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q133" s="2"/>
       <c r="R133" t="s" s="2">
-        <v>643</v>
+        <v>82</v>
       </c>
       <c r="S133" t="s" s="2">
         <v>82</v>
@@ -18625,7 +18643,7 @@
         <v>82</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>80</v>
@@ -18646,10 +18664,10 @@
         <v>82</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="AO133" t="s" s="2">
         <v>82</v>
@@ -18660,10 +18678,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18671,7 +18689,7 @@
       </c>
       <c r="E134" s="2"/>
       <c r="F134" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G134" t="s" s="2">
         <v>92</v>
@@ -18686,26 +18704,26 @@
         <v>93</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="N134" t="s" s="2">
         <v>259</v>
       </c>
       <c r="O134" t="s" s="2">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q134" s="2"/>
       <c r="R134" t="s" s="2">
-        <v>82</v>
+        <v>644</v>
       </c>
       <c r="S134" t="s" s="2">
         <v>82</v>
@@ -18747,7 +18765,7 @@
         <v>82</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>80</v>
@@ -18768,10 +18786,10 @@
         <v>82</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="AN134" t="s" s="2">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="AO134" t="s" s="2">
         <v>82</v>
@@ -18785,7 +18803,7 @@
         <v>645</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18808,19 +18826,19 @@
         <v>93</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>275</v>
+        <v>215</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="O135" t="s" s="2">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>82</v>
@@ -18869,7 +18887,7 @@
         <v>82</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>80</v>
@@ -18890,10 +18908,10 @@
         <v>82</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="AN135" t="s" s="2">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="AO135" t="s" s="2">
         <v>82</v>
@@ -18907,7 +18925,7 @@
         <v>646</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -18930,19 +18948,19 @@
         <v>93</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>215</v>
+        <v>275</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="O136" t="s" s="2">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>82</v>
@@ -18991,7 +19009,7 @@
         <v>82</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>80</v>
@@ -19012,10 +19030,10 @@
         <v>82</v>
       </c>
       <c r="AM136" t="s" s="2">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="AN136" t="s" s="2">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="AO136" t="s" s="2">
         <v>82</v>
@@ -19026,10 +19044,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="B137" t="s" s="2">
         <v>648</v>
-      </c>
-      <c r="B137" t="s" s="2">
-        <v>584</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -19052,19 +19070,19 @@
         <v>93</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>649</v>
+        <v>215</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>585</v>
+        <v>285</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>421</v>
+        <v>286</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>586</v>
+        <v>287</v>
       </c>
       <c r="O137" t="s" s="2">
-        <v>423</v>
+        <v>288</v>
       </c>
       <c r="P137" t="s" s="2">
         <v>82</v>
@@ -19113,7 +19131,7 @@
         <v>82</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>584</v>
+        <v>289</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>80</v>
@@ -19125,33 +19143,33 @@
         <v>104</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK137" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>589</v>
+        <v>82</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>426</v>
+        <v>290</v>
       </c>
       <c r="AN137" t="s" s="2">
-        <v>427</v>
+        <v>291</v>
       </c>
       <c r="AO137" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP137" t="s" s="2">
-        <v>428</v>
+        <v>82</v>
       </c>
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>651</v>
+        <v>587</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19171,19 +19189,23 @@
         <v>82</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>215</v>
+        <v>419</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>216</v>
+        <v>588</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N138" s="2"/>
-      <c r="O138" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="N138" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="O138" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="P138" t="s" s="2">
         <v>82</v>
       </c>
@@ -19219,19 +19241,17 @@
         <v>82</v>
       </c>
       <c r="AB138" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC138" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="AC138" s="2"/>
       <c r="AD138" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>82</v>
+        <v>590</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>218</v>
+        <v>587</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>80</v>
@@ -19240,47 +19260,49 @@
         <v>92</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK138" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>82</v>
+        <v>591</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>82</v>
+        <v>427</v>
       </c>
       <c r="AN138" t="s" s="2">
-        <v>113</v>
+        <v>428</v>
       </c>
       <c r="AO138" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP138" t="s" s="2">
-        <v>82</v>
+        <v>429</v>
       </c>
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="C139" s="2"/>
+        <v>587</v>
+      </c>
+      <c r="C139" t="s" s="2">
+        <v>651</v>
+      </c>
       <c r="D139" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G139" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H139" t="s" s="2">
         <v>82</v>
@@ -19289,21 +19311,23 @@
         <v>82</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>140</v>
+        <v>652</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>141</v>
+        <v>588</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>221</v>
+        <v>421</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O139" s="2"/>
+        <v>589</v>
+      </c>
+      <c r="O139" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="P139" t="s" s="2">
         <v>82</v>
       </c>
@@ -19339,57 +19363,57 @@
         <v>82</v>
       </c>
       <c r="AB139" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC139" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD139" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>222</v>
+        <v>587</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH139" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI139" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="AK139" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>82</v>
+        <v>591</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>82</v>
+        <v>427</v>
       </c>
       <c r="AN139" t="s" s="2">
-        <v>106</v>
+        <v>428</v>
       </c>
       <c r="AO139" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP139" t="s" s="2">
-        <v>82</v>
+        <v>429</v>
       </c>
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="B140" t="s" s="2">
         <v>654</v>
-      </c>
-      <c r="B140" t="s" s="2">
-        <v>655</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19397,13 +19421,13 @@
       </c>
       <c r="E140" s="2"/>
       <c r="F140" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G140" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H140" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I140" t="s" s="2">
         <v>82</v>
@@ -19412,13 +19436,13 @@
         <v>82</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>649</v>
+        <v>215</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>656</v>
+        <v>216</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>656</v>
+        <v>217</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
@@ -19427,7 +19451,7 @@
       </c>
       <c r="Q140" s="2"/>
       <c r="R140" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="S140" t="s" s="2">
         <v>82</v>
@@ -19436,10 +19460,10 @@
         <v>82</v>
       </c>
       <c r="U140" t="s" s="2">
-        <v>657</v>
+        <v>82</v>
       </c>
       <c r="V140" t="s" s="2">
-        <v>658</v>
+        <v>82</v>
       </c>
       <c r="W140" t="s" s="2">
         <v>82</v>
@@ -19469,7 +19493,7 @@
         <v>82</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>659</v>
+        <v>218</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>80</v>
@@ -19493,7 +19517,7 @@
         <v>82</v>
       </c>
       <c r="AN140" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="AO140" t="s" s="2">
         <v>82</v>
@@ -19504,24 +19528,24 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>593</v>
+        <v>656</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G141" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H141" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I141" t="s" s="2">
         <v>82</v>
@@ -19530,20 +19554,18 @@
         <v>82</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>594</v>
+        <v>141</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>595</v>
+        <v>221</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="O141" t="s" s="2">
-        <v>433</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O141" s="2"/>
       <c r="P141" t="s" s="2">
         <v>82</v>
       </c>
@@ -19567,41 +19589,43 @@
         <v>82</v>
       </c>
       <c r="X141" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="Y141" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y141" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z141" t="s" s="2">
-        <v>597</v>
+        <v>82</v>
       </c>
       <c r="AA141" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB141" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC141" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD141" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>593</v>
+        <v>222</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH141" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI141" t="s" s="2">
-        <v>437</v>
+        <v>104</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK141" t="s" s="2">
         <v>82</v>
@@ -19610,10 +19634,10 @@
         <v>82</v>
       </c>
       <c r="AM141" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN141" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="AN141" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="AO141" t="s" s="2">
         <v>82</v>
@@ -19624,24 +19648,24 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>598</v>
+        <v>658</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
-        <v>440</v>
+        <v>82</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G142" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H142" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I142" t="s" s="2">
         <v>82</v>
@@ -19650,26 +19674,22 @@
         <v>82</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>198</v>
+        <v>652</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>441</v>
+        <v>659</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N142" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="O142" t="s" s="2">
-        <v>444</v>
-      </c>
+        <v>659</v>
+      </c>
+      <c r="N142" s="2"/>
+      <c r="O142" s="2"/>
       <c r="P142" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q142" s="2"/>
       <c r="R142" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="S142" t="s" s="2">
         <v>82</v>
@@ -19678,22 +19698,22 @@
         <v>82</v>
       </c>
       <c r="U142" t="s" s="2">
-        <v>82</v>
+        <v>660</v>
       </c>
       <c r="V142" t="s" s="2">
-        <v>82</v>
+        <v>661</v>
       </c>
       <c r="W142" t="s" s="2">
         <v>82</v>
       </c>
       <c r="X142" t="s" s="2">
-        <v>434</v>
+        <v>82</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>445</v>
+        <v>82</v>
       </c>
       <c r="Z142" t="s" s="2">
-        <v>446</v>
+        <v>82</v>
       </c>
       <c r="AA142" t="s" s="2">
         <v>82</v>
@@ -19711,47 +19731,49 @@
         <v>82</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>598</v>
+        <v>662</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH142" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI142" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK142" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>447</v>
+        <v>82</v>
       </c>
       <c r="AM142" t="s" s="2">
-        <v>448</v>
+        <v>82</v>
       </c>
       <c r="AN142" t="s" s="2">
-        <v>449</v>
+        <v>82</v>
       </c>
       <c r="AO142" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP142" t="s" s="2">
-        <v>450</v>
+        <v>82</v>
       </c>
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="C143" s="2"/>
+        <v>587</v>
+      </c>
+      <c r="C143" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="D143" t="s" s="2">
         <v>82</v>
       </c>
@@ -19760,31 +19782,31 @@
         <v>80</v>
       </c>
       <c r="G143" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H143" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I143" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>83</v>
+        <v>198</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>601</v>
+        <v>421</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>500</v>
+        <v>589</v>
       </c>
       <c r="O143" t="s" s="2">
-        <v>501</v>
+        <v>423</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>82</v>
@@ -19809,13 +19831,11 @@
         <v>82</v>
       </c>
       <c r="X143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y143" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="Y143" s="2"/>
       <c r="Z143" t="s" s="2">
-        <v>82</v>
+        <v>593</v>
       </c>
       <c r="AA143" t="s" s="2">
         <v>82</v>
@@ -19833,49 +19853,47 @@
         <v>82</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH143" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI143" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK143" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>82</v>
+        <v>591</v>
       </c>
       <c r="AM143" t="s" s="2">
-        <v>503</v>
+        <v>427</v>
       </c>
       <c r="AN143" t="s" s="2">
-        <v>504</v>
+        <v>428</v>
       </c>
       <c r="AO143" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP143" t="s" s="2">
-        <v>82</v>
+        <v>429</v>
       </c>
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="C144" t="s" s="2">
-        <v>664</v>
-      </c>
+        <v>594</v>
+      </c>
+      <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
         <v>82</v>
       </c>
@@ -19887,28 +19905,28 @@
         <v>92</v>
       </c>
       <c r="H144" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I144" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>497</v>
+        <v>198</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>568</v>
+        <v>595</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>569</v>
+        <v>596</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>570</v>
+        <v>597</v>
       </c>
       <c r="O144" t="s" s="2">
-        <v>571</v>
+        <v>436</v>
       </c>
       <c r="P144" t="s" s="2">
         <v>82</v>
@@ -19933,13 +19951,11 @@
         <v>82</v>
       </c>
       <c r="X144" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y144" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="Y144" s="2"/>
       <c r="Z144" t="s" s="2">
-        <v>82</v>
+        <v>598</v>
       </c>
       <c r="AA144" t="s" s="2">
         <v>82</v>
@@ -19957,19 +19973,19 @@
         <v>82</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>567</v>
+        <v>594</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH144" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI144" t="s" s="2">
-        <v>104</v>
+        <v>440</v>
       </c>
       <c r="AJ144" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK144" t="s" s="2">
         <v>82</v>
@@ -19978,10 +19994,10 @@
         <v>82</v>
       </c>
       <c r="AM144" t="s" s="2">
-        <v>574</v>
+        <v>106</v>
       </c>
       <c r="AN144" t="s" s="2">
-        <v>575</v>
+        <v>441</v>
       </c>
       <c r="AO144" t="s" s="2">
         <v>82</v>
@@ -19995,18 +20011,18 @@
         <v>665</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>576</v>
+        <v>599</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
-        <v>82</v>
+        <v>443</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G145" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H145" t="s" s="2">
         <v>82</v>
@@ -20018,16 +20034,20 @@
         <v>82</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>216</v>
+        <v>444</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N145" s="2"/>
-      <c r="O145" s="2"/>
+        <v>445</v>
+      </c>
+      <c r="N145" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="O145" t="s" s="2">
+        <v>447</v>
+      </c>
       <c r="P145" t="s" s="2">
         <v>82</v>
       </c>
@@ -20051,13 +20071,13 @@
         <v>82</v>
       </c>
       <c r="X145" t="s" s="2">
-        <v>82</v>
+        <v>437</v>
       </c>
       <c r="Y145" t="s" s="2">
-        <v>82</v>
+        <v>448</v>
       </c>
       <c r="Z145" t="s" s="2">
-        <v>82</v>
+        <v>449</v>
       </c>
       <c r="AA145" t="s" s="2">
         <v>82</v>
@@ -20075,37 +20095,37 @@
         <v>82</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>218</v>
+        <v>599</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH145" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ145" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK145" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>82</v>
+        <v>450</v>
       </c>
       <c r="AM145" t="s" s="2">
-        <v>82</v>
+        <v>451</v>
       </c>
       <c r="AN145" t="s" s="2">
-        <v>113</v>
+        <v>452</v>
       </c>
       <c r="AO145" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP145" t="s" s="2">
-        <v>82</v>
+        <v>453</v>
       </c>
     </row>
     <row r="146" hidden="true">
@@ -20113,11 +20133,11 @@
         <v>666</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>577</v>
+        <v>600</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146" t="s" s="2">
@@ -20136,18 +20156,20 @@
         <v>82</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>141</v>
+        <v>601</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>221</v>
+        <v>602</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O146" s="2"/>
+        <v>503</v>
+      </c>
+      <c r="O146" t="s" s="2">
+        <v>504</v>
+      </c>
       <c r="P146" t="s" s="2">
         <v>82</v>
       </c>
@@ -20183,19 +20205,19 @@
         <v>82</v>
       </c>
       <c r="AB146" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC146" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD146" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>222</v>
+        <v>600</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>80</v>
@@ -20204,10 +20226,10 @@
         <v>81</v>
       </c>
       <c r="AI146" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ146" t="s" s="2">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="AK146" t="s" s="2">
         <v>82</v>
@@ -20216,10 +20238,10 @@
         <v>82</v>
       </c>
       <c r="AM146" t="s" s="2">
-        <v>82</v>
+        <v>506</v>
       </c>
       <c r="AN146" t="s" s="2">
-        <v>106</v>
+        <v>507</v>
       </c>
       <c r="AO146" t="s" s="2">
         <v>82</v>
@@ -20233,42 +20255,44 @@
         <v>667</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="C147" s="2"/>
+        <v>570</v>
+      </c>
+      <c r="C147" t="s" s="2">
+        <v>668</v>
+      </c>
       <c r="D147" t="s" s="2">
-        <v>508</v>
+        <v>82</v>
       </c>
       <c r="E147" s="2"/>
       <c r="F147" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G147" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H147" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I147" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J147" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>140</v>
+        <v>500</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>509</v>
+        <v>571</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>510</v>
+        <v>572</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>143</v>
+        <v>573</v>
       </c>
       <c r="O147" t="s" s="2">
-        <v>152</v>
+        <v>574</v>
       </c>
       <c r="P147" t="s" s="2">
         <v>82</v>
@@ -20317,7 +20341,7 @@
         <v>82</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>511</v>
+        <v>570</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>80</v>
@@ -20329,7 +20353,7 @@
         <v>104</v>
       </c>
       <c r="AJ147" t="s" s="2">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="AK147" t="s" s="2">
         <v>82</v>
@@ -20338,10 +20362,10 @@
         <v>82</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>82</v>
+        <v>577</v>
       </c>
       <c r="AN147" t="s" s="2">
-        <v>106</v>
+        <v>578</v>
       </c>
       <c r="AO147" t="s" s="2">
         <v>82</v>
@@ -20352,18 +20376,18 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>579</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
-        <v>669</v>
+        <v>82</v>
       </c>
       <c r="E148" s="2"/>
       <c r="F148" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G148" t="s" s="2">
         <v>92</v>
@@ -20375,23 +20399,19 @@
         <v>82</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>670</v>
+        <v>216</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="N148" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="O148" t="s" s="2">
-        <v>340</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N148" s="2"/>
+      <c r="O148" s="2"/>
       <c r="P148" t="s" s="2">
         <v>82</v>
       </c>
@@ -20415,13 +20435,13 @@
         <v>82</v>
       </c>
       <c r="X148" t="s" s="2">
-        <v>341</v>
+        <v>82</v>
       </c>
       <c r="Y148" t="s" s="2">
-        <v>342</v>
+        <v>82</v>
       </c>
       <c r="Z148" t="s" s="2">
-        <v>343</v>
+        <v>82</v>
       </c>
       <c r="AA148" t="s" s="2">
         <v>82</v>
@@ -20439,16 +20459,16 @@
         <v>82</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>579</v>
+        <v>218</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH148" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ148" t="s" s="2">
         <v>82</v>
@@ -20457,16 +20477,16 @@
         <v>82</v>
       </c>
       <c r="AL148" t="s" s="2">
-        <v>583</v>
+        <v>82</v>
       </c>
       <c r="AM148" t="s" s="2">
-        <v>346</v>
+        <v>82</v>
       </c>
       <c r="AN148" t="s" s="2">
-        <v>347</v>
+        <v>113</v>
       </c>
       <c r="AO148" t="s" s="2">
-        <v>348</v>
+        <v>82</v>
       </c>
       <c r="AP148" t="s" s="2">
         <v>82</v>
@@ -20474,21 +20494,21 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>613</v>
+        <v>580</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G149" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H149" t="s" s="2">
         <v>82</v>
@@ -20500,15 +20520,17 @@
         <v>82</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N149" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N149" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O149" s="2"/>
       <c r="P149" t="s" s="2">
         <v>82</v>
@@ -20545,31 +20567,31 @@
         <v>82</v>
       </c>
       <c r="AB149" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC149" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD149" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH149" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ149" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AK149" t="s" s="2">
         <v>82</v>
@@ -20581,7 +20603,7 @@
         <v>82</v>
       </c>
       <c r="AN149" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AO149" t="s" s="2">
         <v>82</v>
@@ -20592,14 +20614,14 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>615</v>
+        <v>581</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
-        <v>139</v>
+        <v>511</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" t="s" s="2">
@@ -20612,24 +20634,26 @@
         <v>82</v>
       </c>
       <c r="I150" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K150" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>141</v>
+        <v>512</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>221</v>
+        <v>513</v>
       </c>
       <c r="N150" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="O150" s="2"/>
+      <c r="O150" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P150" t="s" s="2">
         <v>82</v>
       </c>
@@ -20665,19 +20689,19 @@
         <v>82</v>
       </c>
       <c r="AB150" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC150" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD150" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>222</v>
+        <v>514</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>80</v>
@@ -20712,21 +20736,21 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>617</v>
+        <v>582</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
-        <v>82</v>
+        <v>673</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G151" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H151" t="s" s="2">
         <v>82</v>
@@ -20738,19 +20762,19 @@
         <v>93</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>226</v>
+        <v>674</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>227</v>
+        <v>675</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>228</v>
+        <v>612</v>
       </c>
       <c r="O151" t="s" s="2">
-        <v>229</v>
+        <v>340</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>82</v>
@@ -20775,56 +20799,58 @@
         <v>82</v>
       </c>
       <c r="X151" t="s" s="2">
-        <v>82</v>
+        <v>341</v>
       </c>
       <c r="Y151" t="s" s="2">
-        <v>82</v>
+        <v>342</v>
       </c>
       <c r="Z151" t="s" s="2">
-        <v>82</v>
+        <v>343</v>
       </c>
       <c r="AA151" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB151" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="AC151" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC151" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD151" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>230</v>
+        <v>582</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH151" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI151" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK151" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>82</v>
+        <v>586</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>231</v>
+        <v>346</v>
       </c>
       <c r="AN151" t="s" s="2">
-        <v>232</v>
+        <v>347</v>
       </c>
       <c r="AO151" t="s" s="2">
-        <v>82</v>
+        <v>348</v>
       </c>
       <c r="AP151" t="s" s="2">
         <v>82</v>
@@ -20832,14 +20858,12 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="C152" t="s" s="2">
-        <v>676</v>
-      </c>
+        <v>614</v>
+      </c>
+      <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
         <v>82</v>
       </c>
@@ -20851,29 +20875,25 @@
         <v>92</v>
       </c>
       <c r="H152" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I152" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N152" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O152" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N152" s="2"/>
+      <c r="O152" s="2"/>
       <c r="P152" t="s" s="2">
         <v>82</v>
       </c>
@@ -20921,19 +20941,19 @@
         <v>82</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH152" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK152" t="s" s="2">
         <v>82</v>
@@ -20942,10 +20962,10 @@
         <v>82</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>231</v>
+        <v>82</v>
       </c>
       <c r="AN152" t="s" s="2">
-        <v>232</v>
+        <v>113</v>
       </c>
       <c r="AO152" t="s" s="2">
         <v>82</v>
@@ -20959,18 +20979,18 @@
         <v>677</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G153" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H153" t="s" s="2">
         <v>82</v>
@@ -20982,15 +21002,17 @@
         <v>82</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N153" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N153" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O153" s="2"/>
       <c r="P153" t="s" s="2">
         <v>82</v>
@@ -21027,31 +21049,31 @@
         <v>82</v>
       </c>
       <c r="AB153" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC153" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD153" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH153" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AK153" t="s" s="2">
         <v>82</v>
@@ -21063,7 +21085,7 @@
         <v>82</v>
       </c>
       <c r="AN153" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AO153" t="s" s="2">
         <v>82</v>
@@ -21077,11 +21099,11 @@
         <v>678</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154" t="s" s="2">
@@ -21097,21 +21119,23 @@
         <v>82</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>140</v>
+        <v>225</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>141</v>
+        <v>226</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O154" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="O154" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="P154" t="s" s="2">
         <v>82</v>
       </c>
@@ -21147,11 +21171,9 @@
         <v>82</v>
       </c>
       <c r="AB154" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AC154" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>619</v>
+      </c>
+      <c r="AC154" s="2"/>
       <c r="AD154" t="s" s="2">
         <v>82</v>
       </c>
@@ -21159,7 +21181,7 @@
         <v>146</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>80</v>
@@ -21171,7 +21193,7 @@
         <v>104</v>
       </c>
       <c r="AJ154" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK154" t="s" s="2">
         <v>82</v>
@@ -21180,10 +21202,10 @@
         <v>82</v>
       </c>
       <c r="AM154" t="s" s="2">
-        <v>82</v>
+        <v>231</v>
       </c>
       <c r="AN154" t="s" s="2">
-        <v>106</v>
+        <v>232</v>
       </c>
       <c r="AO154" t="s" s="2">
         <v>82</v>
@@ -21197,21 +21219,23 @@
         <v>679</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="C155" s="2"/>
+        <v>618</v>
+      </c>
+      <c r="C155" t="s" s="2">
+        <v>680</v>
+      </c>
       <c r="D155" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E155" s="2"/>
       <c r="F155" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G155" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H155" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I155" t="s" s="2">
         <v>82</v>
@@ -21220,26 +21244,26 @@
         <v>93</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>108</v>
+        <v>225</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="O155" t="s" s="2">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q155" s="2"/>
       <c r="R155" t="s" s="2">
-        <v>300</v>
+        <v>82</v>
       </c>
       <c r="S155" t="s" s="2">
         <v>82</v>
@@ -21281,13 +21305,13 @@
         <v>82</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH155" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI155" t="s" s="2">
         <v>104</v>
@@ -21302,10 +21326,10 @@
         <v>82</v>
       </c>
       <c r="AM155" t="s" s="2">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="AN155" t="s" s="2">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="AO155" t="s" s="2">
         <v>82</v>
@@ -21316,10 +21340,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21327,7 +21351,7 @@
       </c>
       <c r="E156" s="2"/>
       <c r="F156" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G156" t="s" s="2">
         <v>92</v>
@@ -21339,20 +21363,18 @@
         <v>82</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K156" t="s" s="2">
         <v>215</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N156" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N156" s="2"/>
       <c r="O156" s="2"/>
       <c r="P156" t="s" s="2">
         <v>82</v>
@@ -21401,7 +21423,7 @@
         <v>82</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>80</v>
@@ -21410,10 +21432,10 @@
         <v>92</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ156" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK156" t="s" s="2">
         <v>82</v>
@@ -21422,10 +21444,10 @@
         <v>82</v>
       </c>
       <c r="AM156" t="s" s="2">
-        <v>253</v>
+        <v>82</v>
       </c>
       <c r="AN156" t="s" s="2">
-        <v>254</v>
+        <v>113</v>
       </c>
       <c r="AO156" t="s" s="2">
         <v>82</v>
@@ -21436,21 +21458,21 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G157" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H157" t="s" s="2">
         <v>82</v>
@@ -21459,29 +21481,27 @@
         <v>82</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>257</v>
+        <v>141</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O157" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O157" s="2"/>
       <c r="P157" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q157" s="2"/>
       <c r="R157" t="s" s="2">
-        <v>682</v>
+        <v>82</v>
       </c>
       <c r="S157" t="s" s="2">
         <v>82</v>
@@ -21511,31 +21531,31 @@
         <v>82</v>
       </c>
       <c r="AB157" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC157" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD157" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>262</v>
+        <v>222</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH157" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI157" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ157" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK157" t="s" s="2">
         <v>82</v>
@@ -21544,10 +21564,10 @@
         <v>82</v>
       </c>
       <c r="AM157" t="s" s="2">
-        <v>263</v>
+        <v>82</v>
       </c>
       <c r="AN157" t="s" s="2">
-        <v>264</v>
+        <v>106</v>
       </c>
       <c r="AO157" t="s" s="2">
         <v>82</v>
@@ -21561,7 +21581,7 @@
         <v>683</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -21569,7 +21589,7 @@
       </c>
       <c r="E158" s="2"/>
       <c r="F158" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G158" t="s" s="2">
         <v>92</v>
@@ -21584,26 +21604,26 @@
         <v>93</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>215</v>
+        <v>108</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="O158" t="s" s="2">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="P158" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q158" s="2"/>
       <c r="R158" t="s" s="2">
-        <v>82</v>
+        <v>300</v>
       </c>
       <c r="S158" t="s" s="2">
         <v>82</v>
@@ -21645,7 +21665,7 @@
         <v>82</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>80</v>
@@ -21666,10 +21686,10 @@
         <v>82</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="AN158" t="s" s="2">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="AO158" t="s" s="2">
         <v>82</v>
@@ -21683,7 +21703,7 @@
         <v>684</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21691,7 +21711,7 @@
       </c>
       <c r="E159" s="2"/>
       <c r="F159" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G159" t="s" s="2">
         <v>92</v>
@@ -21706,20 +21726,18 @@
         <v>93</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>275</v>
+        <v>215</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="O159" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="O159" s="2"/>
       <c r="P159" t="s" s="2">
         <v>82</v>
       </c>
@@ -21767,7 +21785,7 @@
         <v>82</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>80</v>
@@ -21788,10 +21806,10 @@
         <v>82</v>
       </c>
       <c r="AM159" t="s" s="2">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="AN159" t="s" s="2">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="AO159" t="s" s="2">
         <v>82</v>
@@ -21805,23 +21823,21 @@
         <v>685</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="C160" t="s" s="2">
-        <v>686</v>
-      </c>
+        <v>631</v>
+      </c>
+      <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E160" s="2"/>
       <c r="F160" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G160" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H160" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I160" t="s" s="2">
         <v>82</v>
@@ -21830,26 +21846,26 @@
         <v>93</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>225</v>
+        <v>115</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="O160" t="s" s="2">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="P160" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q160" s="2"/>
       <c r="R160" t="s" s="2">
-        <v>82</v>
+        <v>686</v>
       </c>
       <c r="S160" t="s" s="2">
         <v>82</v>
@@ -21891,13 +21907,13 @@
         <v>82</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH160" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI160" t="s" s="2">
         <v>104</v>
@@ -21912,10 +21928,10 @@
         <v>82</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="AN160" t="s" s="2">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="AO160" t="s" s="2">
         <v>82</v>
@@ -21929,7 +21945,7 @@
         <v>687</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -21949,19 +21965,23 @@
         <v>82</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K161" t="s" s="2">
         <v>215</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>216</v>
+        <v>267</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N161" s="2"/>
-      <c r="O161" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="N161" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O161" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="P161" t="s" s="2">
         <v>82</v>
       </c>
@@ -22009,7 +22029,7 @@
         <v>82</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>218</v>
+        <v>270</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>80</v>
@@ -22018,10 +22038,10 @@
         <v>92</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ161" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK161" t="s" s="2">
         <v>82</v>
@@ -22030,10 +22050,10 @@
         <v>82</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>82</v>
+        <v>271</v>
       </c>
       <c r="AN161" t="s" s="2">
-        <v>113</v>
+        <v>272</v>
       </c>
       <c r="AO161" t="s" s="2">
         <v>82</v>
@@ -22047,18 +22067,18 @@
         <v>688</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E162" s="2"/>
       <c r="F162" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G162" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H162" t="s" s="2">
         <v>82</v>
@@ -22067,21 +22087,23 @@
         <v>82</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>140</v>
+        <v>275</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>141</v>
+        <v>276</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>221</v>
+        <v>277</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O162" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="O162" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="P162" t="s" s="2">
         <v>82</v>
       </c>
@@ -22117,31 +22139,31 @@
         <v>82</v>
       </c>
       <c r="AB162" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC162" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD162" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>222</v>
+        <v>280</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH162" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI162" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ162" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK162" t="s" s="2">
         <v>82</v>
@@ -22150,10 +22172,10 @@
         <v>82</v>
       </c>
       <c r="AM162" t="s" s="2">
-        <v>82</v>
+        <v>281</v>
       </c>
       <c r="AN162" t="s" s="2">
-        <v>106</v>
+        <v>282</v>
       </c>
       <c r="AO162" t="s" s="2">
         <v>82</v>
@@ -22167,21 +22189,23 @@
         <v>689</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="C163" s="2"/>
+        <v>618</v>
+      </c>
+      <c r="C163" t="s" s="2">
+        <v>690</v>
+      </c>
       <c r="D163" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E163" s="2"/>
       <c r="F163" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G163" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H163" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I163" t="s" s="2">
         <v>82</v>
@@ -22190,26 +22214,26 @@
         <v>93</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>108</v>
+        <v>225</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="O163" t="s" s="2">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q163" s="2"/>
       <c r="R163" t="s" s="2">
-        <v>243</v>
+        <v>82</v>
       </c>
       <c r="S163" t="s" s="2">
         <v>82</v>
@@ -22251,13 +22275,13 @@
         <v>82</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH163" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI163" t="s" s="2">
         <v>104</v>
@@ -22272,10 +22296,10 @@
         <v>82</v>
       </c>
       <c r="AM163" t="s" s="2">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="AN163" t="s" s="2">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="AO163" t="s" s="2">
         <v>82</v>
@@ -22286,10 +22310,10 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -22297,7 +22321,7 @@
       </c>
       <c r="E164" s="2"/>
       <c r="F164" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G164" t="s" s="2">
         <v>92</v>
@@ -22309,20 +22333,18 @@
         <v>82</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K164" t="s" s="2">
         <v>215</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N164" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N164" s="2"/>
       <c r="O164" s="2"/>
       <c r="P164" t="s" s="2">
         <v>82</v>
@@ -22371,7 +22393,7 @@
         <v>82</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>80</v>
@@ -22380,10 +22402,10 @@
         <v>92</v>
       </c>
       <c r="AI164" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ164" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK164" t="s" s="2">
         <v>82</v>
@@ -22392,10 +22414,10 @@
         <v>82</v>
       </c>
       <c r="AM164" t="s" s="2">
-        <v>253</v>
+        <v>82</v>
       </c>
       <c r="AN164" t="s" s="2">
-        <v>254</v>
+        <v>113</v>
       </c>
       <c r="AO164" t="s" s="2">
         <v>82</v>
@@ -22406,21 +22428,21 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E165" s="2"/>
       <c r="F165" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G165" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H165" t="s" s="2">
         <v>82</v>
@@ -22429,29 +22451,27 @@
         <v>82</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>257</v>
+        <v>141</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O165" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O165" s="2"/>
       <c r="P165" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q165" s="2"/>
       <c r="R165" t="s" s="2">
-        <v>692</v>
+        <v>82</v>
       </c>
       <c r="S165" t="s" s="2">
         <v>82</v>
@@ -22481,31 +22501,31 @@
         <v>82</v>
       </c>
       <c r="AB165" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC165" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD165" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>262</v>
+        <v>222</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH165" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI165" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ165" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK165" t="s" s="2">
         <v>82</v>
@@ -22514,10 +22534,10 @@
         <v>82</v>
       </c>
       <c r="AM165" t="s" s="2">
-        <v>263</v>
+        <v>82</v>
       </c>
       <c r="AN165" t="s" s="2">
-        <v>264</v>
+        <v>106</v>
       </c>
       <c r="AO165" t="s" s="2">
         <v>82</v>
@@ -22531,7 +22551,7 @@
         <v>693</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -22539,7 +22559,7 @@
       </c>
       <c r="E166" s="2"/>
       <c r="F166" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G166" t="s" s="2">
         <v>92</v>
@@ -22554,26 +22574,26 @@
         <v>93</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>215</v>
+        <v>108</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="O166" t="s" s="2">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="P166" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q166" s="2"/>
       <c r="R166" t="s" s="2">
-        <v>82</v>
+        <v>243</v>
       </c>
       <c r="S166" t="s" s="2">
         <v>82</v>
@@ -22615,7 +22635,7 @@
         <v>82</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>80</v>
@@ -22636,10 +22656,10 @@
         <v>82</v>
       </c>
       <c r="AM166" t="s" s="2">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="AN166" t="s" s="2">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="AO166" t="s" s="2">
         <v>82</v>
@@ -22653,7 +22673,7 @@
         <v>694</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -22661,7 +22681,7 @@
       </c>
       <c r="E167" s="2"/>
       <c r="F167" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G167" t="s" s="2">
         <v>92</v>
@@ -22676,20 +22696,18 @@
         <v>93</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>275</v>
+        <v>215</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="O167" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="O167" s="2"/>
       <c r="P167" t="s" s="2">
         <v>82</v>
       </c>
@@ -22737,7 +22755,7 @@
         <v>82</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>80</v>
@@ -22758,10 +22776,10 @@
         <v>82</v>
       </c>
       <c r="AM167" t="s" s="2">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="AN167" t="s" s="2">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="AO167" t="s" s="2">
         <v>82</v>
@@ -22775,7 +22793,7 @@
         <v>695</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -22783,7 +22801,7 @@
       </c>
       <c r="E168" s="2"/>
       <c r="F168" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G168" t="s" s="2">
         <v>92</v>
@@ -22798,26 +22816,26 @@
         <v>93</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="O168" t="s" s="2">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="P168" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q168" s="2"/>
       <c r="R168" t="s" s="2">
-        <v>82</v>
+        <v>696</v>
       </c>
       <c r="S168" t="s" s="2">
         <v>82</v>
@@ -22859,7 +22877,7 @@
         <v>82</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>80</v>
@@ -22880,10 +22898,10 @@
         <v>82</v>
       </c>
       <c r="AM168" t="s" s="2">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="AN168" t="s" s="2">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="AO168" t="s" s="2">
         <v>82</v>
@@ -22894,10 +22912,10 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>584</v>
+        <v>634</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -22920,19 +22938,19 @@
         <v>93</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>649</v>
+        <v>215</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>585</v>
+        <v>267</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>421</v>
+        <v>268</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>586</v>
+        <v>259</v>
       </c>
       <c r="O169" t="s" s="2">
-        <v>423</v>
+        <v>269</v>
       </c>
       <c r="P169" t="s" s="2">
         <v>82</v>
@@ -22981,7 +22999,7 @@
         <v>82</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>584</v>
+        <v>270</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>80</v>
@@ -22993,33 +23011,33 @@
         <v>104</v>
       </c>
       <c r="AJ169" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK169" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL169" t="s" s="2">
-        <v>589</v>
+        <v>82</v>
       </c>
       <c r="AM169" t="s" s="2">
-        <v>426</v>
+        <v>271</v>
       </c>
       <c r="AN169" t="s" s="2">
-        <v>427</v>
+        <v>272</v>
       </c>
       <c r="AO169" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP169" t="s" s="2">
-        <v>428</v>
+        <v>82</v>
       </c>
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>651</v>
+        <v>636</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -23039,19 +23057,23 @@
         <v>82</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>215</v>
+        <v>275</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>216</v>
+        <v>276</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N170" s="2"/>
-      <c r="O170" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="N170" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="O170" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="P170" t="s" s="2">
         <v>82</v>
       </c>
@@ -23099,7 +23121,7 @@
         <v>82</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>218</v>
+        <v>280</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>80</v>
@@ -23108,10 +23130,10 @@
         <v>92</v>
       </c>
       <c r="AI170" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ170" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK170" t="s" s="2">
         <v>82</v>
@@ -23120,10 +23142,10 @@
         <v>82</v>
       </c>
       <c r="AM170" t="s" s="2">
-        <v>82</v>
+        <v>281</v>
       </c>
       <c r="AN170" t="s" s="2">
-        <v>113</v>
+        <v>282</v>
       </c>
       <c r="AO170" t="s" s="2">
         <v>82</v>
@@ -23134,21 +23156,21 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E171" s="2"/>
       <c r="F171" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G171" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H171" t="s" s="2">
         <v>82</v>
@@ -23157,21 +23179,23 @@
         <v>82</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>141</v>
+        <v>285</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>221</v>
+        <v>286</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O171" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="O171" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="P171" t="s" s="2">
         <v>82</v>
       </c>
@@ -23207,31 +23231,31 @@
         <v>82</v>
       </c>
       <c r="AB171" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC171" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD171" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>222</v>
+        <v>289</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH171" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI171" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ171" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK171" t="s" s="2">
         <v>82</v>
@@ -23240,10 +23264,10 @@
         <v>82</v>
       </c>
       <c r="AM171" t="s" s="2">
-        <v>82</v>
+        <v>290</v>
       </c>
       <c r="AN171" t="s" s="2">
-        <v>106</v>
+        <v>291</v>
       </c>
       <c r="AO171" t="s" s="2">
         <v>82</v>
@@ -23254,10 +23278,10 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>655</v>
+        <v>587</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -23265,37 +23289,41 @@
       </c>
       <c r="E172" s="2"/>
       <c r="F172" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G172" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H172" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I172" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J172" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="I172" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J172" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="K172" t="s" s="2">
-        <v>649</v>
+        <v>419</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>656</v>
+        <v>588</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="N172" s="2"/>
-      <c r="O172" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="N172" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="O172" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="P172" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q172" s="2"/>
       <c r="R172" t="s" s="2">
-        <v>700</v>
+        <v>82</v>
       </c>
       <c r="S172" t="s" s="2">
         <v>82</v>
@@ -23304,10 +23332,10 @@
         <v>82</v>
       </c>
       <c r="U172" t="s" s="2">
-        <v>657</v>
+        <v>82</v>
       </c>
       <c r="V172" t="s" s="2">
-        <v>658</v>
+        <v>82</v>
       </c>
       <c r="W172" t="s" s="2">
         <v>82</v>
@@ -23325,19 +23353,17 @@
         <v>82</v>
       </c>
       <c r="AB172" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC172" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="AC172" s="2"/>
       <c r="AD172" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>82</v>
+        <v>590</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>659</v>
+        <v>587</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>80</v>
@@ -23346,28 +23372,28 @@
         <v>92</v>
       </c>
       <c r="AI172" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ172" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK172" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL172" t="s" s="2">
-        <v>82</v>
+        <v>591</v>
       </c>
       <c r="AM172" t="s" s="2">
-        <v>82</v>
+        <v>427</v>
       </c>
       <c r="AN172" t="s" s="2">
-        <v>82</v>
+        <v>428</v>
       </c>
       <c r="AO172" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP172" t="s" s="2">
-        <v>82</v>
+        <v>429</v>
       </c>
     </row>
     <row r="173" hidden="true">
@@ -23375,9 +23401,11 @@
         <v>701</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="C173" s="2"/>
+        <v>587</v>
+      </c>
+      <c r="C173" t="s" s="2">
+        <v>651</v>
+      </c>
       <c r="D173" t="s" s="2">
         <v>82</v>
       </c>
@@ -23389,28 +23417,28 @@
         <v>92</v>
       </c>
       <c r="H173" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I173" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J173" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="I173" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J173" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="K173" t="s" s="2">
-        <v>198</v>
+        <v>652</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>595</v>
+        <v>421</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="O173" t="s" s="2">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="P173" t="s" s="2">
         <v>82</v>
@@ -23435,11 +23463,13 @@
         <v>82</v>
       </c>
       <c r="X173" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="Y173" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y173" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z173" t="s" s="2">
-        <v>597</v>
+        <v>82</v>
       </c>
       <c r="AA173" t="s" s="2">
         <v>82</v>
@@ -23457,7 +23487,7 @@
         <v>82</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>80</v>
@@ -23466,28 +23496,28 @@
         <v>92</v>
       </c>
       <c r="AI173" t="s" s="2">
-        <v>437</v>
+        <v>104</v>
       </c>
       <c r="AJ173" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK173" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL173" t="s" s="2">
-        <v>82</v>
+        <v>591</v>
       </c>
       <c r="AM173" t="s" s="2">
-        <v>106</v>
+        <v>427</v>
       </c>
       <c r="AN173" t="s" s="2">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="AO173" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP173" t="s" s="2">
-        <v>82</v>
+        <v>429</v>
       </c>
     </row>
     <row r="174" hidden="true">
@@ -23495,18 +23525,18 @@
         <v>702</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>598</v>
+        <v>654</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
-        <v>440</v>
+        <v>82</v>
       </c>
       <c r="E174" s="2"/>
       <c r="F174" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G174" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H174" t="s" s="2">
         <v>82</v>
@@ -23518,20 +23548,16 @@
         <v>82</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>441</v>
+        <v>216</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N174" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="O174" t="s" s="2">
-        <v>444</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N174" s="2"/>
+      <c r="O174" s="2"/>
       <c r="P174" t="s" s="2">
         <v>82</v>
       </c>
@@ -23555,13 +23581,13 @@
         <v>82</v>
       </c>
       <c r="X174" t="s" s="2">
-        <v>434</v>
+        <v>82</v>
       </c>
       <c r="Y174" t="s" s="2">
-        <v>445</v>
+        <v>82</v>
       </c>
       <c r="Z174" t="s" s="2">
-        <v>446</v>
+        <v>82</v>
       </c>
       <c r="AA174" t="s" s="2">
         <v>82</v>
@@ -23579,37 +23605,37 @@
         <v>82</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>598</v>
+        <v>218</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH174" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI174" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ174" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK174" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL174" t="s" s="2">
-        <v>447</v>
+        <v>82</v>
       </c>
       <c r="AM174" t="s" s="2">
-        <v>448</v>
+        <v>82</v>
       </c>
       <c r="AN174" t="s" s="2">
-        <v>449</v>
+        <v>113</v>
       </c>
       <c r="AO174" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP174" t="s" s="2">
-        <v>450</v>
+        <v>82</v>
       </c>
     </row>
     <row r="175" hidden="true">
@@ -23617,11 +23643,11 @@
         <v>703</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>599</v>
+        <v>656</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E175" s="2"/>
       <c r="F175" t="s" s="2">
@@ -23640,20 +23666,18 @@
         <v>82</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>600</v>
+        <v>141</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>601</v>
+        <v>221</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="O175" t="s" s="2">
-        <v>501</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O175" s="2"/>
       <c r="P175" t="s" s="2">
         <v>82</v>
       </c>
@@ -23689,19 +23713,19 @@
         <v>82</v>
       </c>
       <c r="AB175" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC175" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD175" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>599</v>
+        <v>222</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>80</v>
@@ -23710,10 +23734,10 @@
         <v>81</v>
       </c>
       <c r="AI175" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ175" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AK175" t="s" s="2">
         <v>82</v>
@@ -23722,20 +23746,624 @@
         <v>82</v>
       </c>
       <c r="AM175" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN175" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AO175" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP175" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="176" hidden="true">
+      <c r="A176" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="B176" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="C176" s="2"/>
+      <c r="D176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E176" s="2"/>
+      <c r="F176" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G176" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H176" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="I176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K176" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="L176" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="M176" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="N176" s="2"/>
+      <c r="O176" s="2"/>
+      <c r="P176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q176" s="2"/>
+      <c r="R176" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="S176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U176" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="V176" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="W176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF176" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="AG176" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH176" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP176" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="177" hidden="true">
+      <c r="A177" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="B177" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="C177" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="D177" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E177" s="2"/>
+      <c r="F177" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G177" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H177" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="I177" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J177" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K177" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L177" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="M177" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="N177" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="O177" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="P177" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q177" s="2"/>
+      <c r="R177" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S177" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T177" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U177" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V177" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W177" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X177" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="Y177" s="2"/>
+      <c r="Z177" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="AA177" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB177" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC177" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD177" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE177" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF177" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="AG177" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH177" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI177" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ177" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK177" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL177" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="AM177" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AN177" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AO177" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP177" t="s" s="2">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="178" hidden="true">
+      <c r="A178" t="s" s="2">
+        <v>707</v>
+      </c>
+      <c r="B178" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="C178" s="2"/>
+      <c r="D178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E178" s="2"/>
+      <c r="F178" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G178" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H178" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="I178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K178" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L178" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="M178" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="N178" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="O178" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="P178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q178" s="2"/>
+      <c r="R178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X178" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="Y178" s="2"/>
+      <c r="Z178" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="AA178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF178" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="AG178" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH178" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI178" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AJ178" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM178" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AN178" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AO178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP178" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="179" hidden="true">
+      <c r="A179" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="B179" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="C179" s="2"/>
+      <c r="D179" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="E179" s="2"/>
+      <c r="F179" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G179" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K179" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L179" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M179" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="N179" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="O179" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="P179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q179" s="2"/>
+      <c r="R179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X179" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="Y179" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="Z179" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AA179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF179" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="AG179" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH179" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI179" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ179" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL179" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AM179" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AN179" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AO179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP179" t="s" s="2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="180" hidden="true">
+      <c r="A180" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="B180" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="C180" s="2"/>
+      <c r="D180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E180" s="2"/>
+      <c r="F180" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G180" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K180" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L180" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="M180" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="N180" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="AN175" t="s" s="2">
+      <c r="O180" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="AO175" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP175" t="s" s="2">
+      <c r="P180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q180" s="2"/>
+      <c r="R180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF180" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="AG180" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH180" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM180" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AN180" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AO180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP180" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP175">
+  <autoFilter ref="A1:AP180">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -23745,7 +24373,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI174">
+  <conditionalFormatting sqref="A2:AI179">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-rv-biological-sex.xlsx
+++ b/output/StructureDefinition-rv-biological-sex.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-29T13:43:15+02:00</t>
+    <t>2023-03-30T02:04:17+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-rv-biological-sex.xlsx
+++ b/output/StructureDefinition-rv-biological-sex.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T02:04:17+02:00</t>
+    <t>2023-03-30T13:05:19+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1807,7 +1807,7 @@
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:$this.valueInteger}
+    <t xml:space="preserve">value:$this.valueInteger.value}
 </t>
   </si>
   <si>
@@ -2572,7 +2572,7 @@
     <col min="25" max="25" width="60.51953125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="53.75390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="23.29296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="28.6484375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="88.40625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>

--- a/output/StructureDefinition-rv-biological-sex.xlsx
+++ b/output/StructureDefinition-rv-biological-sex.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T13:05:19+02:00</t>
+    <t>2023-03-30T15:07:01+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -774,7 +774,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/CodeSystem/umls</t>
+    <t>http://www.nlm.nih.gov/research/umls/</t>
   </si>
   <si>
     <t>Coding.system</t>

--- a/output/StructureDefinition-rv-biological-sex.xlsx
+++ b/output/StructureDefinition-rv-biological-sex.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T15:07:01+02:00</t>
+    <t>2023-03-30T17:28:47+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1807,7 +1807,7 @@
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:$this.valueInteger.value}
+    <t xml:space="preserve">value:$this}
 </t>
   </si>
   <si>
@@ -2572,7 +2572,7 @@
     <col min="25" max="25" width="60.51953125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="53.75390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="28.6484375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="88.40625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>

--- a/output/StructureDefinition-rv-biological-sex.xlsx
+++ b/output/StructureDefinition-rv-biological-sex.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T17:28:47+02:00</t>
+    <t>2023-03-30T20:16:43+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -774,7 +774,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://www.nlm.nih.gov/research/umls/</t>
+    <t>http://www.nlm.nih.gov/research/umls</t>
   </si>
   <si>
     <t>Coding.system</t>

--- a/output/StructureDefinition-rv-biological-sex.xlsx
+++ b/output/StructureDefinition-rv-biological-sex.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$180</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$184</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6964" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7117" uniqueCount="711">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T20:16:43+02:00</t>
+    <t>2023-03-31T11:28:30+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1807,7 +1807,7 @@
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:$this}
+    <t xml:space="preserve">value:$this.valuecodeableConcept.code}
 </t>
   </si>
   <si>
@@ -1845,6 +1845,18 @@
 &lt; 386053000 |Evaluation procedure|</t>
   </si>
   <si>
+    <t>Observation.component.code.id</t>
+  </si>
+  <si>
+    <t>Observation.component.code.extension</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding</t>
+  </si>
+  <si>
+    <t>Observation.component.code.text</t>
+  </si>
+  <si>
     <t>Observation.component.value[x]</t>
   </si>
   <si>
@@ -1928,19 +1940,10 @@
     <t>Observation.component:male.code.id</t>
   </si>
   <si>
-    <t>Observation.component.code.id</t>
-  </si>
-  <si>
     <t>Observation.component:male.code.extension</t>
   </si>
   <si>
-    <t>Observation.component.code.extension</t>
-  </si>
-  <si>
     <t>Observation.component:male.code.coding</t>
-  </si>
-  <si>
-    <t>Observation.component.code.coding</t>
   </si>
   <si>
     <t xml:space="preserve">value:$this.code}
@@ -2031,10 +2034,11 @@
     <t>Observation.component:male.code.text</t>
   </si>
   <si>
-    <t>Observation.component.code.text</t>
-  </si>
-  <si>
     <t>Observation.component:male.value[x]</t>
+  </si>
+  <si>
+    <t>CodeableConcept
+integer</t>
   </si>
   <si>
     <t>Observation.component:male.value[x]:valueInteger</t>
@@ -2536,7 +2540,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP180"/>
+  <dimension ref="A1:AP184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2572,7 +2576,7 @@
     <col min="25" max="25" width="60.51953125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="53.75390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="37.3046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="88.40625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
@@ -14941,10 +14945,10 @@
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>93</v>
@@ -15511,7 +15515,7 @@
         <v>104</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>82</v>
@@ -15545,7 +15549,7 @@
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>92</v>
@@ -15557,23 +15561,19 @@
         <v>82</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>588</v>
+        <v>216</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N108" s="2"/>
+      <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>82</v>
       </c>
@@ -15609,17 +15609,19 @@
         <v>82</v>
       </c>
       <c r="AB108" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="AC108" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD108" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>590</v>
+        <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>587</v>
+        <v>218</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15628,74 +15630,70 @@
         <v>92</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>591</v>
+        <v>82</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>427</v>
+        <v>82</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>428</v>
+        <v>113</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP108" t="s" s="2">
-        <v>429</v>
+        <v>82</v>
       </c>
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="C109" t="s" s="2">
-        <v>431</v>
-      </c>
+        <v>588</v>
+      </c>
+      <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H109" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>588</v>
+        <v>141</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>421</v>
+        <v>221</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="O109" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
         <v>82</v>
       </c>
@@ -15719,67 +15717,69 @@
         <v>82</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="Y109" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z109" t="s" s="2">
-        <v>593</v>
+        <v>82</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB109" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC109" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>587</v>
+        <v>222</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>591</v>
+        <v>82</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>427</v>
+        <v>82</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>428</v>
+        <v>106</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP109" t="s" s="2">
-        <v>429</v>
+        <v>82</v>
       </c>
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15787,10 +15787,10 @@
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>93</v>
@@ -15799,22 +15799,22 @@
         <v>82</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>595</v>
+        <v>226</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>596</v>
+        <v>227</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>597</v>
+        <v>228</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>436</v>
+        <v>229</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>82</v>
@@ -15839,11 +15839,13 @@
         <v>82</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="Y110" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z110" t="s" s="2">
-        <v>598</v>
+        <v>82</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>82</v>
@@ -15861,16 +15863,16 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>594</v>
+        <v>230</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>440</v>
+        <v>104</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>105</v>
@@ -15882,10 +15884,10 @@
         <v>82</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>106</v>
+        <v>231</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>441</v>
+        <v>232</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>82</v>
@@ -15896,21 +15898,21 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>443</v>
+        <v>82</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>82</v>
@@ -15919,22 +15921,22 @@
         <v>82</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>444</v>
+        <v>285</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>445</v>
+        <v>286</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>446</v>
+        <v>287</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>447</v>
+        <v>288</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>82</v>
@@ -15959,13 +15961,13 @@
         <v>82</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>437</v>
+        <v>82</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>448</v>
+        <v>82</v>
       </c>
       <c r="Z111" t="s" s="2">
-        <v>449</v>
+        <v>82</v>
       </c>
       <c r="AA111" t="s" s="2">
         <v>82</v>
@@ -15983,13 +15985,13 @@
         <v>82</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>599</v>
+        <v>289</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>104</v>
@@ -16001,27 +16003,27 @@
         <v>82</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>450</v>
+        <v>82</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>451</v>
+        <v>290</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>452</v>
+        <v>291</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP111" t="s" s="2">
-        <v>453</v>
+        <v>82</v>
       </c>
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -16029,10 +16031,10 @@
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>82</v>
@@ -16041,22 +16043,22 @@
         <v>82</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>83</v>
+        <v>198</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>602</v>
+        <v>421</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>503</v>
+        <v>593</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>504</v>
+        <v>423</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>82</v>
@@ -16093,73 +16095,71 @@
         <v>82</v>
       </c>
       <c r="AB112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC112" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="AC112" s="2"/>
       <c r="AD112" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>82</v>
+        <v>594</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>82</v>
+        <v>595</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>506</v>
+        <v>427</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>507</v>
+        <v>428</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP112" t="s" s="2">
-        <v>82</v>
+        <v>429</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>570</v>
+        <v>591</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>604</v>
+        <v>431</v>
       </c>
       <c r="D113" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H113" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I113" t="s" s="2">
         <v>82</v>
@@ -16168,19 +16168,19 @@
         <v>93</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>500</v>
+        <v>198</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>571</v>
+        <v>592</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>572</v>
+        <v>421</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>573</v>
+        <v>593</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>574</v>
+        <v>423</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>82</v>
@@ -16205,13 +16205,11 @@
         <v>82</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y113" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="Y113" s="2"/>
       <c r="Z113" t="s" s="2">
-        <v>82</v>
+        <v>597</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>82</v>
@@ -16229,45 +16227,45 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>570</v>
+        <v>591</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>82</v>
+        <v>595</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>577</v>
+        <v>427</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>578</v>
+        <v>428</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP113" t="s" s="2">
-        <v>82</v>
+        <v>429</v>
       </c>
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>579</v>
+        <v>598</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16281,7 +16279,7 @@
         <v>92</v>
       </c>
       <c r="H114" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I114" t="s" s="2">
         <v>82</v>
@@ -16290,16 +16288,20 @@
         <v>82</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>216</v>
+        <v>599</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N114" s="2"/>
-      <c r="O114" s="2"/>
+        <v>600</v>
+      </c>
+      <c r="N114" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="O114" t="s" s="2">
+        <v>436</v>
+      </c>
       <c r="P114" t="s" s="2">
         <v>82</v>
       </c>
@@ -16323,13 +16325,11 @@
         <v>82</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y114" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="Y114" s="2"/>
       <c r="Z114" t="s" s="2">
-        <v>82</v>
+        <v>602</v>
       </c>
       <c r="AA114" t="s" s="2">
         <v>82</v>
@@ -16347,7 +16347,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>218</v>
+        <v>598</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16356,10 +16356,10 @@
         <v>92</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>82</v>
+        <v>440</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>82</v>
@@ -16368,10 +16368,10 @@
         <v>82</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>113</v>
+        <v>441</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>82</v>
@@ -16382,14 +16382,14 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>580</v>
+        <v>603</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
-        <v>139</v>
+        <v>443</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
@@ -16408,18 +16408,20 @@
         <v>82</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>140</v>
+        <v>198</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>141</v>
+        <v>444</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>221</v>
+        <v>445</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O115" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="O115" t="s" s="2">
+        <v>447</v>
+      </c>
       <c r="P115" t="s" s="2">
         <v>82</v>
       </c>
@@ -16443,31 +16445,31 @@
         <v>82</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>82</v>
+        <v>437</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>82</v>
+        <v>448</v>
       </c>
       <c r="Z115" t="s" s="2">
-        <v>82</v>
+        <v>449</v>
       </c>
       <c r="AA115" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB115" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC115" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD115" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>222</v>
+        <v>603</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16479,37 +16481,37 @@
         <v>104</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>82</v>
+        <v>450</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>82</v>
+        <v>451</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>106</v>
+        <v>452</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP115" t="s" s="2">
-        <v>82</v>
+        <v>453</v>
       </c>
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>581</v>
+        <v>604</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
-        <v>511</v>
+        <v>82</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
@@ -16522,25 +16524,25 @@
         <v>82</v>
       </c>
       <c r="I116" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>512</v>
+        <v>605</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>513</v>
+        <v>606</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>143</v>
+        <v>503</v>
       </c>
       <c r="O116" t="s" s="2">
-        <v>152</v>
+        <v>504</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>82</v>
@@ -16589,7 +16591,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>514</v>
+        <v>604</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16598,10 +16600,10 @@
         <v>81</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>82</v>
@@ -16610,10 +16612,10 @@
         <v>82</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>82</v>
+        <v>506</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>106</v>
+        <v>507</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>82</v>
@@ -16624,18 +16626,20 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="C117" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="B117" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
-        <v>609</v>
+        <v>82</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>92</v>
@@ -16650,19 +16654,19 @@
         <v>93</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>198</v>
+        <v>500</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>610</v>
+        <v>571</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>611</v>
+        <v>572</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>612</v>
+        <v>573</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>340</v>
+        <v>574</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>82</v>
@@ -16687,13 +16691,13 @@
         <v>82</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>341</v>
+        <v>82</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>342</v>
+        <v>82</v>
       </c>
       <c r="Z117" t="s" s="2">
-        <v>343</v>
+        <v>82</v>
       </c>
       <c r="AA117" t="s" s="2">
         <v>82</v>
@@ -16711,13 +16715,13 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI117" t="s" s="2">
         <v>104</v>
@@ -16729,16 +16733,16 @@
         <v>82</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>586</v>
+        <v>82</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>346</v>
+        <v>577</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>347</v>
+        <v>578</v>
       </c>
       <c r="AO117" t="s" s="2">
-        <v>348</v>
+        <v>82</v>
       </c>
       <c r="AP117" t="s" s="2">
         <v>82</v>
@@ -16746,10 +16750,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>614</v>
+        <v>579</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16864,10 +16868,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>616</v>
+        <v>580</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16984,14 +16988,14 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>618</v>
+        <v>581</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
-        <v>82</v>
+        <v>511</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" t="s" s="2">
@@ -17004,25 +17008,25 @@
         <v>82</v>
       </c>
       <c r="I120" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J120" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>225</v>
+        <v>140</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>226</v>
+        <v>512</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>227</v>
+        <v>513</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>228</v>
+        <v>143</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>229</v>
+        <v>152</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>82</v>
@@ -17059,17 +17063,19 @@
         <v>82</v>
       </c>
       <c r="AB120" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="AC120" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD120" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>230</v>
+        <v>514</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>80</v>
@@ -17081,7 +17087,7 @@
         <v>104</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>82</v>
@@ -17090,10 +17096,10 @@
         <v>82</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>231</v>
+        <v>82</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>232</v>
+        <v>106</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>82</v>
@@ -17104,26 +17110,24 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="C121" t="s" s="2">
-        <v>621</v>
-      </c>
+        <v>582</v>
+      </c>
+      <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>82</v>
+        <v>613</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H121" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I121" t="s" s="2">
         <v>82</v>
@@ -17132,19 +17136,19 @@
         <v>93</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>226</v>
+        <v>614</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>227</v>
+        <v>615</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>228</v>
+        <v>616</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>229</v>
+        <v>340</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>82</v>
@@ -17169,13 +17173,13 @@
         <v>82</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>82</v>
+        <v>341</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>82</v>
+        <v>342</v>
       </c>
       <c r="Z121" t="s" s="2">
-        <v>82</v>
+        <v>343</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>82</v>
@@ -17193,34 +17197,34 @@
         <v>82</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>230</v>
+        <v>582</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI121" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>82</v>
+        <v>586</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>231</v>
+        <v>346</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>232</v>
+        <v>347</v>
       </c>
       <c r="AO121" t="s" s="2">
-        <v>82</v>
+        <v>348</v>
       </c>
       <c r="AP121" t="s" s="2">
         <v>82</v>
@@ -17228,10 +17232,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>623</v>
+        <v>587</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17346,10 +17350,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>625</v>
+        <v>588</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17466,10 +17470,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>627</v>
+        <v>589</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17480,10 +17484,10 @@
         <v>92</v>
       </c>
       <c r="G124" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H124" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I124" t="s" s="2">
         <v>82</v>
@@ -17492,26 +17496,26 @@
         <v>93</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>108</v>
+        <v>225</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="O124" t="s" s="2">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q124" s="2"/>
       <c r="R124" t="s" s="2">
-        <v>300</v>
+        <v>82</v>
       </c>
       <c r="S124" t="s" s="2">
         <v>82</v>
@@ -17541,25 +17545,23 @@
         <v>82</v>
       </c>
       <c r="AB124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC124" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>620</v>
+      </c>
+      <c r="AC124" s="2"/>
       <c r="AD124" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI124" t="s" s="2">
         <v>104</v>
@@ -17574,10 +17576,10 @@
         <v>82</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="AO124" t="s" s="2">
         <v>82</v>
@@ -17588,24 +17590,26 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="C125" s="2"/>
+        <v>589</v>
+      </c>
+      <c r="C125" t="s" s="2">
+        <v>622</v>
+      </c>
       <c r="D125" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H125" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I125" t="s" s="2">
         <v>82</v>
@@ -17614,18 +17618,20 @@
         <v>93</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O125" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="O125" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="P125" t="s" s="2">
         <v>82</v>
       </c>
@@ -17673,13 +17679,13 @@
         <v>82</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI125" t="s" s="2">
         <v>104</v>
@@ -17694,10 +17700,10 @@
         <v>82</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="AN125" t="s" s="2">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="AO125" t="s" s="2">
         <v>82</v>
@@ -17708,10 +17714,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17719,7 +17725,7 @@
       </c>
       <c r="E126" s="2"/>
       <c r="F126" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>92</v>
@@ -17731,29 +17737,25 @@
         <v>82</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>115</v>
+        <v>215</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O126" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N126" s="2"/>
+      <c r="O126" s="2"/>
       <c r="P126" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q126" s="2"/>
       <c r="R126" t="s" s="2">
-        <v>632</v>
+        <v>82</v>
       </c>
       <c r="S126" t="s" s="2">
         <v>82</v>
@@ -17795,7 +17797,7 @@
         <v>82</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>262</v>
+        <v>218</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>80</v>
@@ -17804,10 +17806,10 @@
         <v>92</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK126" t="s" s="2">
         <v>82</v>
@@ -17816,10 +17818,10 @@
         <v>82</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>263</v>
+        <v>82</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>264</v>
+        <v>113</v>
       </c>
       <c r="AO126" t="s" s="2">
         <v>82</v>
@@ -17830,21 +17832,21 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G127" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H127" t="s" s="2">
         <v>82</v>
@@ -17853,23 +17855,21 @@
         <v>82</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>267</v>
+        <v>141</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>268</v>
+        <v>221</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O127" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O127" s="2"/>
       <c r="P127" t="s" s="2">
         <v>82</v>
       </c>
@@ -17905,31 +17905,31 @@
         <v>82</v>
       </c>
       <c r="AB127" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC127" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD127" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>270</v>
+        <v>222</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH127" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI127" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK127" t="s" s="2">
         <v>82</v>
@@ -17938,10 +17938,10 @@
         <v>82</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="AN127" t="s" s="2">
-        <v>272</v>
+        <v>106</v>
       </c>
       <c r="AO127" t="s" s="2">
         <v>82</v>
@@ -17952,10 +17952,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17963,7 +17963,7 @@
       </c>
       <c r="E128" s="2"/>
       <c r="F128" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G128" t="s" s="2">
         <v>92</v>
@@ -17978,26 +17978,26 @@
         <v>93</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>275</v>
+        <v>108</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>277</v>
+        <v>240</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>278</v>
+        <v>241</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>279</v>
+        <v>242</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q128" s="2"/>
       <c r="R128" t="s" s="2">
-        <v>82</v>
+        <v>300</v>
       </c>
       <c r="S128" t="s" s="2">
         <v>82</v>
@@ -18039,7 +18039,7 @@
         <v>82</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
@@ -18060,10 +18060,10 @@
         <v>82</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="AN128" t="s" s="2">
-        <v>282</v>
+        <v>246</v>
       </c>
       <c r="AO128" t="s" s="2">
         <v>82</v>
@@ -18074,26 +18074,24 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="C129" t="s" s="2">
-        <v>638</v>
-      </c>
+        <v>630</v>
+      </c>
+      <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G129" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H129" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I129" t="s" s="2">
         <v>82</v>
@@ -18102,20 +18100,18 @@
         <v>93</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O129" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="O129" s="2"/>
       <c r="P129" t="s" s="2">
         <v>82</v>
       </c>
@@ -18163,13 +18159,13 @@
         <v>82</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH129" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI129" t="s" s="2">
         <v>104</v>
@@ -18184,10 +18180,10 @@
         <v>82</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="AN129" t="s" s="2">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="AO129" t="s" s="2">
         <v>82</v>
@@ -18198,10 +18194,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18209,7 +18205,7 @@
       </c>
       <c r="E130" s="2"/>
       <c r="F130" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G130" t="s" s="2">
         <v>92</v>
@@ -18221,25 +18217,29 @@
         <v>82</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N130" s="2"/>
-      <c r="O130" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="N130" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O130" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="P130" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q130" s="2"/>
       <c r="R130" t="s" s="2">
-        <v>82</v>
+        <v>633</v>
       </c>
       <c r="S130" t="s" s="2">
         <v>82</v>
@@ -18281,7 +18281,7 @@
         <v>82</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>218</v>
+        <v>262</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
@@ -18290,10 +18290,10 @@
         <v>92</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK130" t="s" s="2">
         <v>82</v>
@@ -18302,10 +18302,10 @@
         <v>82</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>82</v>
+        <v>263</v>
       </c>
       <c r="AN130" t="s" s="2">
-        <v>113</v>
+        <v>264</v>
       </c>
       <c r="AO130" t="s" s="2">
         <v>82</v>
@@ -18316,21 +18316,21 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G131" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H131" t="s" s="2">
         <v>82</v>
@@ -18339,21 +18339,23 @@
         <v>82</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>141</v>
+        <v>267</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>221</v>
+        <v>268</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O131" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="O131" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="P131" t="s" s="2">
         <v>82</v>
       </c>
@@ -18389,31 +18391,31 @@
         <v>82</v>
       </c>
       <c r="AB131" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC131" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD131" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>222</v>
+        <v>270</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH131" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI131" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK131" t="s" s="2">
         <v>82</v>
@@ -18422,10 +18424,10 @@
         <v>82</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>82</v>
+        <v>271</v>
       </c>
       <c r="AN131" t="s" s="2">
-        <v>106</v>
+        <v>272</v>
       </c>
       <c r="AO131" t="s" s="2">
         <v>82</v>
@@ -18436,10 +18438,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18447,7 +18449,7 @@
       </c>
       <c r="E132" s="2"/>
       <c r="F132" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>92</v>
@@ -18462,26 +18464,26 @@
         <v>93</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>108</v>
+        <v>275</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>241</v>
+        <v>278</v>
       </c>
       <c r="O132" t="s" s="2">
-        <v>242</v>
+        <v>279</v>
       </c>
       <c r="P132" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q132" s="2"/>
       <c r="R132" t="s" s="2">
-        <v>243</v>
+        <v>82</v>
       </c>
       <c r="S132" t="s" s="2">
         <v>82</v>
@@ -18523,7 +18525,7 @@
         <v>82</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>80</v>
@@ -18544,10 +18546,10 @@
         <v>82</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="AO132" t="s" s="2">
         <v>82</v>
@@ -18558,24 +18560,26 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="C133" s="2"/>
+        <v>589</v>
+      </c>
+      <c r="C133" t="s" s="2">
+        <v>639</v>
+      </c>
       <c r="D133" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G133" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H133" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I133" t="s" s="2">
         <v>82</v>
@@ -18584,18 +18588,20 @@
         <v>93</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O133" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="O133" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="P133" t="s" s="2">
         <v>82</v>
       </c>
@@ -18643,13 +18649,13 @@
         <v>82</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH133" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI133" t="s" s="2">
         <v>104</v>
@@ -18664,10 +18670,10 @@
         <v>82</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="AO133" t="s" s="2">
         <v>82</v>
@@ -18678,10 +18684,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18689,7 +18695,7 @@
       </c>
       <c r="E134" s="2"/>
       <c r="F134" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G134" t="s" s="2">
         <v>92</v>
@@ -18701,29 +18707,25 @@
         <v>82</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>115</v>
+        <v>215</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O134" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N134" s="2"/>
+      <c r="O134" s="2"/>
       <c r="P134" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q134" s="2"/>
       <c r="R134" t="s" s="2">
-        <v>644</v>
+        <v>82</v>
       </c>
       <c r="S134" t="s" s="2">
         <v>82</v>
@@ -18765,7 +18767,7 @@
         <v>82</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>262</v>
+        <v>218</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>80</v>
@@ -18774,10 +18776,10 @@
         <v>92</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ134" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK134" t="s" s="2">
         <v>82</v>
@@ -18786,10 +18788,10 @@
         <v>82</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>263</v>
+        <v>82</v>
       </c>
       <c r="AN134" t="s" s="2">
-        <v>264</v>
+        <v>113</v>
       </c>
       <c r="AO134" t="s" s="2">
         <v>82</v>
@@ -18800,21 +18802,21 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G135" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H135" t="s" s="2">
         <v>82</v>
@@ -18823,23 +18825,21 @@
         <v>82</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>267</v>
+        <v>141</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>268</v>
+        <v>221</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O135" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O135" s="2"/>
       <c r="P135" t="s" s="2">
         <v>82</v>
       </c>
@@ -18875,31 +18875,31 @@
         <v>82</v>
       </c>
       <c r="AB135" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC135" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD135" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>270</v>
+        <v>222</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH135" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI135" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK135" t="s" s="2">
         <v>82</v>
@@ -18908,10 +18908,10 @@
         <v>82</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="AN135" t="s" s="2">
-        <v>272</v>
+        <v>106</v>
       </c>
       <c r="AO135" t="s" s="2">
         <v>82</v>
@@ -18922,10 +18922,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -18933,7 +18933,7 @@
       </c>
       <c r="E136" s="2"/>
       <c r="F136" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G136" t="s" s="2">
         <v>92</v>
@@ -18948,26 +18948,26 @@
         <v>93</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>275</v>
+        <v>108</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>277</v>
+        <v>240</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>278</v>
+        <v>241</v>
       </c>
       <c r="O136" t="s" s="2">
-        <v>279</v>
+        <v>242</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q136" s="2"/>
       <c r="R136" t="s" s="2">
-        <v>82</v>
+        <v>243</v>
       </c>
       <c r="S136" t="s" s="2">
         <v>82</v>
@@ -19009,7 +19009,7 @@
         <v>82</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>80</v>
@@ -19030,10 +19030,10 @@
         <v>82</v>
       </c>
       <c r="AM136" t="s" s="2">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="AN136" t="s" s="2">
-        <v>282</v>
+        <v>246</v>
       </c>
       <c r="AO136" t="s" s="2">
         <v>82</v>
@@ -19044,10 +19044,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -19055,7 +19055,7 @@
       </c>
       <c r="E137" s="2"/>
       <c r="F137" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G137" t="s" s="2">
         <v>92</v>
@@ -19073,17 +19073,15 @@
         <v>215</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="O137" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="O137" s="2"/>
       <c r="P137" t="s" s="2">
         <v>82</v>
       </c>
@@ -19131,7 +19129,7 @@
         <v>82</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>289</v>
+        <v>252</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>80</v>
@@ -19152,10 +19150,10 @@
         <v>82</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>290</v>
+        <v>253</v>
       </c>
       <c r="AN137" t="s" s="2">
-        <v>291</v>
+        <v>254</v>
       </c>
       <c r="AO137" t="s" s="2">
         <v>82</v>
@@ -19166,10 +19164,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>587</v>
+        <v>632</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19177,7 +19175,7 @@
       </c>
       <c r="E138" s="2"/>
       <c r="F138" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G138" t="s" s="2">
         <v>92</v>
@@ -19192,26 +19190,26 @@
         <v>93</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>419</v>
+        <v>115</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>588</v>
+        <v>257</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>421</v>
+        <v>258</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>589</v>
+        <v>259</v>
       </c>
       <c r="O138" t="s" s="2">
-        <v>423</v>
+        <v>260</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q138" s="2"/>
       <c r="R138" t="s" s="2">
-        <v>82</v>
+        <v>645</v>
       </c>
       <c r="S138" t="s" s="2">
         <v>82</v>
@@ -19241,17 +19239,19 @@
         <v>82</v>
       </c>
       <c r="AB138" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="AC138" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC138" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD138" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>590</v>
+        <v>82</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>587</v>
+        <v>262</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>80</v>
@@ -19269,31 +19269,29 @@
         <v>82</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>591</v>
+        <v>82</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>427</v>
+        <v>263</v>
       </c>
       <c r="AN138" t="s" s="2">
-        <v>428</v>
+        <v>264</v>
       </c>
       <c r="AO138" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP138" t="s" s="2">
-        <v>429</v>
+        <v>82</v>
       </c>
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="C139" t="s" s="2">
-        <v>651</v>
-      </c>
+        <v>635</v>
+      </c>
+      <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
         <v>82</v>
       </c>
@@ -19314,19 +19312,19 @@
         <v>93</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>652</v>
+        <v>215</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>588</v>
+        <v>267</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>421</v>
+        <v>268</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>589</v>
+        <v>259</v>
       </c>
       <c r="O139" t="s" s="2">
-        <v>423</v>
+        <v>269</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>82</v>
@@ -19375,7 +19373,7 @@
         <v>82</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>587</v>
+        <v>270</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>80</v>
@@ -19387,33 +19385,33 @@
         <v>104</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK139" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>591</v>
+        <v>82</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>427</v>
+        <v>271</v>
       </c>
       <c r="AN139" t="s" s="2">
-        <v>428</v>
+        <v>272</v>
       </c>
       <c r="AO139" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP139" t="s" s="2">
-        <v>429</v>
+        <v>82</v>
       </c>
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>654</v>
+        <v>637</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19433,19 +19431,23 @@
         <v>82</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>215</v>
+        <v>275</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>216</v>
+        <v>276</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N140" s="2"/>
-      <c r="O140" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="N140" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="O140" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="P140" t="s" s="2">
         <v>82</v>
       </c>
@@ -19493,7 +19495,7 @@
         <v>82</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>218</v>
+        <v>280</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>80</v>
@@ -19502,10 +19504,10 @@
         <v>92</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK140" t="s" s="2">
         <v>82</v>
@@ -19514,10 +19516,10 @@
         <v>82</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>82</v>
+        <v>281</v>
       </c>
       <c r="AN140" t="s" s="2">
-        <v>113</v>
+        <v>282</v>
       </c>
       <c r="AO140" t="s" s="2">
         <v>82</v>
@@ -19528,21 +19530,21 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>656</v>
+        <v>590</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G141" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H141" t="s" s="2">
         <v>82</v>
@@ -19551,21 +19553,23 @@
         <v>82</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>141</v>
+        <v>285</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>221</v>
+        <v>286</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O141" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="O141" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="P141" t="s" s="2">
         <v>82</v>
       </c>
@@ -19601,31 +19605,31 @@
         <v>82</v>
       </c>
       <c r="AB141" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC141" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD141" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>222</v>
+        <v>289</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH141" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI141" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK141" t="s" s="2">
         <v>82</v>
@@ -19634,10 +19638,10 @@
         <v>82</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>82</v>
+        <v>290</v>
       </c>
       <c r="AN141" t="s" s="2">
-        <v>106</v>
+        <v>291</v>
       </c>
       <c r="AO141" t="s" s="2">
         <v>82</v>
@@ -19648,10 +19652,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>658</v>
+        <v>591</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19659,37 +19663,41 @@
       </c>
       <c r="E142" s="2"/>
       <c r="F142" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G142" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H142" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I142" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J142" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="I142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J142" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="K142" t="s" s="2">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>659</v>
+        <v>592</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="N142" s="2"/>
-      <c r="O142" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="N142" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="O142" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="P142" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q142" s="2"/>
       <c r="R142" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="S142" t="s" s="2">
         <v>82</v>
@@ -19698,10 +19706,10 @@
         <v>82</v>
       </c>
       <c r="U142" t="s" s="2">
-        <v>660</v>
+        <v>82</v>
       </c>
       <c r="V142" t="s" s="2">
-        <v>661</v>
+        <v>82</v>
       </c>
       <c r="W142" t="s" s="2">
         <v>82</v>
@@ -19719,19 +19727,17 @@
         <v>82</v>
       </c>
       <c r="AB142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC142" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="AC142" s="2"/>
       <c r="AD142" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>82</v>
+        <v>594</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>662</v>
+        <v>591</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>80</v>
@@ -19740,39 +19746,39 @@
         <v>92</v>
       </c>
       <c r="AI142" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK142" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>82</v>
+        <v>595</v>
       </c>
       <c r="AM142" t="s" s="2">
-        <v>82</v>
+        <v>427</v>
       </c>
       <c r="AN142" t="s" s="2">
-        <v>82</v>
+        <v>428</v>
       </c>
       <c r="AO142" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP142" t="s" s="2">
-        <v>82</v>
+        <v>429</v>
       </c>
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>431</v>
+        <v>652</v>
       </c>
       <c r="D143" t="s" s="2">
         <v>82</v>
@@ -19785,7 +19791,7 @@
         <v>92</v>
       </c>
       <c r="H143" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I143" t="s" s="2">
         <v>82</v>
@@ -19794,16 +19800,16 @@
         <v>93</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>198</v>
+        <v>653</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="M143" t="s" s="2">
         <v>421</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>423</v>
@@ -19831,11 +19837,13 @@
         <v>82</v>
       </c>
       <c r="X143" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="Y143" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y143" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z143" t="s" s="2">
-        <v>593</v>
+        <v>82</v>
       </c>
       <c r="AA143" t="s" s="2">
         <v>82</v>
@@ -19853,7 +19861,7 @@
         <v>82</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>80</v>
@@ -19865,13 +19873,13 @@
         <v>104</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK143" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="AM143" t="s" s="2">
         <v>427</v>
@@ -19888,10 +19896,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>594</v>
+        <v>655</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -19905,7 +19913,7 @@
         <v>92</v>
       </c>
       <c r="H144" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I144" t="s" s="2">
         <v>82</v>
@@ -19914,20 +19922,16 @@
         <v>82</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>595</v>
+        <v>216</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="N144" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="O144" t="s" s="2">
-        <v>436</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N144" s="2"/>
+      <c r="O144" s="2"/>
       <c r="P144" t="s" s="2">
         <v>82</v>
       </c>
@@ -19951,11 +19955,13 @@
         <v>82</v>
       </c>
       <c r="X144" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="Y144" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y144" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z144" t="s" s="2">
-        <v>598</v>
+        <v>82</v>
       </c>
       <c r="AA144" t="s" s="2">
         <v>82</v>
@@ -19973,7 +19979,7 @@
         <v>82</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>594</v>
+        <v>218</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>80</v>
@@ -19982,10 +19988,10 @@
         <v>92</v>
       </c>
       <c r="AI144" t="s" s="2">
-        <v>440</v>
+        <v>82</v>
       </c>
       <c r="AJ144" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK144" t="s" s="2">
         <v>82</v>
@@ -19994,10 +20000,10 @@
         <v>82</v>
       </c>
       <c r="AM144" t="s" s="2">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="AN144" t="s" s="2">
-        <v>441</v>
+        <v>113</v>
       </c>
       <c r="AO144" t="s" s="2">
         <v>82</v>
@@ -20008,14 +20014,14 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>599</v>
+        <v>657</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
-        <v>443</v>
+        <v>139</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145" t="s" s="2">
@@ -20034,20 +20040,18 @@
         <v>82</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>444</v>
+        <v>141</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>445</v>
+        <v>221</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="O145" t="s" s="2">
-        <v>447</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O145" s="2"/>
       <c r="P145" t="s" s="2">
         <v>82</v>
       </c>
@@ -20071,31 +20075,31 @@
         <v>82</v>
       </c>
       <c r="X145" t="s" s="2">
-        <v>437</v>
+        <v>82</v>
       </c>
       <c r="Y145" t="s" s="2">
-        <v>448</v>
+        <v>82</v>
       </c>
       <c r="Z145" t="s" s="2">
-        <v>449</v>
+        <v>82</v>
       </c>
       <c r="AA145" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB145" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC145" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD145" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>599</v>
+        <v>222</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>80</v>
@@ -20107,33 +20111,33 @@
         <v>104</v>
       </c>
       <c r="AJ145" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK145" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>450</v>
+        <v>82</v>
       </c>
       <c r="AM145" t="s" s="2">
-        <v>451</v>
+        <v>82</v>
       </c>
       <c r="AN145" t="s" s="2">
-        <v>452</v>
+        <v>106</v>
       </c>
       <c r="AO145" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP145" t="s" s="2">
-        <v>453</v>
+        <v>82</v>
       </c>
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>600</v>
+        <v>659</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20141,13 +20145,13 @@
       </c>
       <c r="E146" s="2"/>
       <c r="F146" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G146" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H146" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I146" t="s" s="2">
         <v>82</v>
@@ -20156,26 +20160,22 @@
         <v>82</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>83</v>
+        <v>653</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>601</v>
+        <v>660</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="N146" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="O146" t="s" s="2">
-        <v>504</v>
-      </c>
+        <v>660</v>
+      </c>
+      <c r="N146" s="2"/>
+      <c r="O146" s="2"/>
       <c r="P146" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q146" s="2"/>
       <c r="R146" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="S146" t="s" s="2">
         <v>82</v>
@@ -20184,10 +20184,10 @@
         <v>82</v>
       </c>
       <c r="U146" t="s" s="2">
-        <v>82</v>
+        <v>661</v>
       </c>
       <c r="V146" t="s" s="2">
-        <v>82</v>
+        <v>662</v>
       </c>
       <c r="W146" t="s" s="2">
         <v>82</v>
@@ -20217,13 +20217,13 @@
         <v>82</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>600</v>
+        <v>663</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH146" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI146" t="s" s="2">
         <v>82</v>
@@ -20238,10 +20238,10 @@
         <v>82</v>
       </c>
       <c r="AM146" t="s" s="2">
-        <v>506</v>
+        <v>82</v>
       </c>
       <c r="AN146" t="s" s="2">
-        <v>507</v>
+        <v>82</v>
       </c>
       <c r="AO146" t="s" s="2">
         <v>82</v>
@@ -20252,13 +20252,13 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>570</v>
+        <v>591</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>668</v>
+        <v>431</v>
       </c>
       <c r="D147" t="s" s="2">
         <v>82</v>
@@ -20280,19 +20280,19 @@
         <v>93</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>500</v>
+        <v>198</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>571</v>
+        <v>592</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>572</v>
+        <v>421</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>573</v>
+        <v>593</v>
       </c>
       <c r="O147" t="s" s="2">
-        <v>574</v>
+        <v>423</v>
       </c>
       <c r="P147" t="s" s="2">
         <v>82</v>
@@ -20317,13 +20317,11 @@
         <v>82</v>
       </c>
       <c r="X147" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y147" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="Y147" s="2"/>
       <c r="Z147" t="s" s="2">
-        <v>82</v>
+        <v>597</v>
       </c>
       <c r="AA147" t="s" s="2">
         <v>82</v>
@@ -20341,45 +20339,45 @@
         <v>82</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>570</v>
+        <v>591</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH147" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI147" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ147" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK147" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>82</v>
+        <v>595</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>577</v>
+        <v>427</v>
       </c>
       <c r="AN147" t="s" s="2">
-        <v>578</v>
+        <v>428</v>
       </c>
       <c r="AO147" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP147" t="s" s="2">
-        <v>82</v>
+        <v>429</v>
       </c>
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>579</v>
+        <v>598</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20393,7 +20391,7 @@
         <v>92</v>
       </c>
       <c r="H148" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I148" t="s" s="2">
         <v>82</v>
@@ -20402,16 +20400,20 @@
         <v>82</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>216</v>
+        <v>599</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N148" s="2"/>
-      <c r="O148" s="2"/>
+        <v>600</v>
+      </c>
+      <c r="N148" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="O148" t="s" s="2">
+        <v>436</v>
+      </c>
       <c r="P148" t="s" s="2">
         <v>82</v>
       </c>
@@ -20435,13 +20437,11 @@
         <v>82</v>
       </c>
       <c r="X148" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y148" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="Y148" s="2"/>
       <c r="Z148" t="s" s="2">
-        <v>82</v>
+        <v>602</v>
       </c>
       <c r="AA148" t="s" s="2">
         <v>82</v>
@@ -20459,7 +20459,7 @@
         <v>82</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>218</v>
+        <v>598</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>80</v>
@@ -20468,10 +20468,10 @@
         <v>92</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>82</v>
+        <v>440</v>
       </c>
       <c r="AJ148" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK148" t="s" s="2">
         <v>82</v>
@@ -20480,10 +20480,10 @@
         <v>82</v>
       </c>
       <c r="AM148" t="s" s="2">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="AN148" t="s" s="2">
-        <v>113</v>
+        <v>441</v>
       </c>
       <c r="AO148" t="s" s="2">
         <v>82</v>
@@ -20494,14 +20494,14 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>580</v>
+        <v>603</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
-        <v>139</v>
+        <v>443</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149" t="s" s="2">
@@ -20520,18 +20520,20 @@
         <v>82</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>140</v>
+        <v>198</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>141</v>
+        <v>444</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>221</v>
+        <v>445</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O149" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="O149" t="s" s="2">
+        <v>447</v>
+      </c>
       <c r="P149" t="s" s="2">
         <v>82</v>
       </c>
@@ -20555,31 +20557,31 @@
         <v>82</v>
       </c>
       <c r="X149" t="s" s="2">
-        <v>82</v>
+        <v>437</v>
       </c>
       <c r="Y149" t="s" s="2">
-        <v>82</v>
+        <v>448</v>
       </c>
       <c r="Z149" t="s" s="2">
-        <v>82</v>
+        <v>449</v>
       </c>
       <c r="AA149" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB149" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC149" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD149" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>222</v>
+        <v>603</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>80</v>
@@ -20591,37 +20593,37 @@
         <v>104</v>
       </c>
       <c r="AJ149" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK149" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>82</v>
+        <v>450</v>
       </c>
       <c r="AM149" t="s" s="2">
-        <v>82</v>
+        <v>451</v>
       </c>
       <c r="AN149" t="s" s="2">
-        <v>106</v>
+        <v>452</v>
       </c>
       <c r="AO149" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP149" t="s" s="2">
-        <v>82</v>
+        <v>453</v>
       </c>
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>581</v>
+        <v>604</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
-        <v>511</v>
+        <v>82</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" t="s" s="2">
@@ -20634,25 +20636,25 @@
         <v>82</v>
       </c>
       <c r="I150" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>512</v>
+        <v>605</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>513</v>
+        <v>606</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>143</v>
+        <v>503</v>
       </c>
       <c r="O150" t="s" s="2">
-        <v>152</v>
+        <v>504</v>
       </c>
       <c r="P150" t="s" s="2">
         <v>82</v>
@@ -20701,7 +20703,7 @@
         <v>82</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>514</v>
+        <v>604</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>80</v>
@@ -20710,10 +20712,10 @@
         <v>81</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ150" t="s" s="2">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="AK150" t="s" s="2">
         <v>82</v>
@@ -20722,10 +20724,10 @@
         <v>82</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>82</v>
+        <v>506</v>
       </c>
       <c r="AN150" t="s" s="2">
-        <v>106</v>
+        <v>507</v>
       </c>
       <c r="AO150" t="s" s="2">
         <v>82</v>
@@ -20736,18 +20738,20 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="C151" s="2"/>
+        <v>570</v>
+      </c>
+      <c r="C151" t="s" s="2">
+        <v>669</v>
+      </c>
       <c r="D151" t="s" s="2">
-        <v>673</v>
+        <v>82</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G151" t="s" s="2">
         <v>92</v>
@@ -20762,19 +20766,19 @@
         <v>93</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>198</v>
+        <v>500</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>674</v>
+        <v>571</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>675</v>
+        <v>572</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>612</v>
+        <v>573</v>
       </c>
       <c r="O151" t="s" s="2">
-        <v>340</v>
+        <v>574</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>82</v>
@@ -20799,13 +20803,13 @@
         <v>82</v>
       </c>
       <c r="X151" t="s" s="2">
-        <v>341</v>
+        <v>82</v>
       </c>
       <c r="Y151" t="s" s="2">
-        <v>342</v>
+        <v>82</v>
       </c>
       <c r="Z151" t="s" s="2">
-        <v>343</v>
+        <v>82</v>
       </c>
       <c r="AA151" t="s" s="2">
         <v>82</v>
@@ -20823,13 +20827,13 @@
         <v>82</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH151" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI151" t="s" s="2">
         <v>104</v>
@@ -20841,16 +20845,16 @@
         <v>82</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>586</v>
+        <v>82</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>346</v>
+        <v>577</v>
       </c>
       <c r="AN151" t="s" s="2">
-        <v>347</v>
+        <v>578</v>
       </c>
       <c r="AO151" t="s" s="2">
-        <v>348</v>
+        <v>82</v>
       </c>
       <c r="AP151" t="s" s="2">
         <v>82</v>
@@ -20858,10 +20862,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>614</v>
+        <v>579</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -20976,10 +20980,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>616</v>
+        <v>580</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -21096,14 +21100,14 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>618</v>
+        <v>581</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
-        <v>82</v>
+        <v>511</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154" t="s" s="2">
@@ -21116,25 +21120,25 @@
         <v>82</v>
       </c>
       <c r="I154" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J154" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>225</v>
+        <v>140</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>226</v>
+        <v>512</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>227</v>
+        <v>513</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>228</v>
+        <v>143</v>
       </c>
       <c r="O154" t="s" s="2">
-        <v>229</v>
+        <v>152</v>
       </c>
       <c r="P154" t="s" s="2">
         <v>82</v>
@@ -21171,17 +21175,19 @@
         <v>82</v>
       </c>
       <c r="AB154" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="AC154" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC154" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD154" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>230</v>
+        <v>514</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>80</v>
@@ -21193,7 +21199,7 @@
         <v>104</v>
       </c>
       <c r="AJ154" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK154" t="s" s="2">
         <v>82</v>
@@ -21202,10 +21208,10 @@
         <v>82</v>
       </c>
       <c r="AM154" t="s" s="2">
-        <v>231</v>
+        <v>82</v>
       </c>
       <c r="AN154" t="s" s="2">
-        <v>232</v>
+        <v>106</v>
       </c>
       <c r="AO154" t="s" s="2">
         <v>82</v>
@@ -21216,26 +21222,24 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="C155" t="s" s="2">
-        <v>680</v>
-      </c>
+        <v>582</v>
+      </c>
+      <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
-        <v>82</v>
+        <v>674</v>
       </c>
       <c r="E155" s="2"/>
       <c r="F155" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G155" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H155" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I155" t="s" s="2">
         <v>82</v>
@@ -21244,19 +21248,19 @@
         <v>93</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>226</v>
+        <v>675</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>227</v>
+        <v>676</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>228</v>
+        <v>616</v>
       </c>
       <c r="O155" t="s" s="2">
-        <v>229</v>
+        <v>340</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>82</v>
@@ -21281,13 +21285,13 @@
         <v>82</v>
       </c>
       <c r="X155" t="s" s="2">
-        <v>82</v>
+        <v>341</v>
       </c>
       <c r="Y155" t="s" s="2">
-        <v>82</v>
+        <v>342</v>
       </c>
       <c r="Z155" t="s" s="2">
-        <v>82</v>
+        <v>343</v>
       </c>
       <c r="AA155" t="s" s="2">
         <v>82</v>
@@ -21305,34 +21309,34 @@
         <v>82</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>230</v>
+        <v>582</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH155" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI155" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ155" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK155" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>82</v>
+        <v>586</v>
       </c>
       <c r="AM155" t="s" s="2">
-        <v>231</v>
+        <v>346</v>
       </c>
       <c r="AN155" t="s" s="2">
-        <v>232</v>
+        <v>347</v>
       </c>
       <c r="AO155" t="s" s="2">
-        <v>82</v>
+        <v>348</v>
       </c>
       <c r="AP155" t="s" s="2">
         <v>82</v>
@@ -21340,10 +21344,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>623</v>
+        <v>587</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21458,10 +21462,10 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>625</v>
+        <v>588</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21578,10 +21582,10 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>627</v>
+        <v>589</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -21589,10 +21593,10 @@
       </c>
       <c r="E158" s="2"/>
       <c r="F158" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G158" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H158" t="s" s="2">
         <v>82</v>
@@ -21604,26 +21608,26 @@
         <v>93</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>108</v>
+        <v>225</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="O158" t="s" s="2">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="P158" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q158" s="2"/>
       <c r="R158" t="s" s="2">
-        <v>300</v>
+        <v>82</v>
       </c>
       <c r="S158" t="s" s="2">
         <v>82</v>
@@ -21653,25 +21657,23 @@
         <v>82</v>
       </c>
       <c r="AB158" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC158" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>620</v>
+      </c>
+      <c r="AC158" s="2"/>
       <c r="AD158" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH158" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI158" t="s" s="2">
         <v>104</v>
@@ -21686,10 +21688,10 @@
         <v>82</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="AN158" t="s" s="2">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="AO158" t="s" s="2">
         <v>82</v>
@@ -21700,24 +21702,26 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="C159" s="2"/>
+        <v>589</v>
+      </c>
+      <c r="C159" t="s" s="2">
+        <v>681</v>
+      </c>
       <c r="D159" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E159" s="2"/>
       <c r="F159" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G159" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H159" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I159" t="s" s="2">
         <v>82</v>
@@ -21726,18 +21730,20 @@
         <v>93</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O159" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="O159" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="P159" t="s" s="2">
         <v>82</v>
       </c>
@@ -21785,13 +21791,13 @@
         <v>82</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH159" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI159" t="s" s="2">
         <v>104</v>
@@ -21806,10 +21812,10 @@
         <v>82</v>
       </c>
       <c r="AM159" t="s" s="2">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="AN159" t="s" s="2">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="AO159" t="s" s="2">
         <v>82</v>
@@ -21820,10 +21826,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -21831,7 +21837,7 @@
       </c>
       <c r="E160" s="2"/>
       <c r="F160" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G160" t="s" s="2">
         <v>92</v>
@@ -21843,29 +21849,25 @@
         <v>82</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>115</v>
+        <v>215</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N160" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O160" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N160" s="2"/>
+      <c r="O160" s="2"/>
       <c r="P160" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q160" s="2"/>
       <c r="R160" t="s" s="2">
-        <v>686</v>
+        <v>82</v>
       </c>
       <c r="S160" t="s" s="2">
         <v>82</v>
@@ -21907,7 +21909,7 @@
         <v>82</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>262</v>
+        <v>218</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>80</v>
@@ -21916,10 +21918,10 @@
         <v>92</v>
       </c>
       <c r="AI160" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ160" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK160" t="s" s="2">
         <v>82</v>
@@ -21928,10 +21930,10 @@
         <v>82</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>263</v>
+        <v>82</v>
       </c>
       <c r="AN160" t="s" s="2">
-        <v>264</v>
+        <v>113</v>
       </c>
       <c r="AO160" t="s" s="2">
         <v>82</v>
@@ -21942,21 +21944,21 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E161" s="2"/>
       <c r="F161" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G161" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H161" t="s" s="2">
         <v>82</v>
@@ -21965,23 +21967,21 @@
         <v>82</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>267</v>
+        <v>141</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>268</v>
+        <v>221</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O161" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O161" s="2"/>
       <c r="P161" t="s" s="2">
         <v>82</v>
       </c>
@@ -22017,31 +22017,31 @@
         <v>82</v>
       </c>
       <c r="AB161" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC161" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD161" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>270</v>
+        <v>222</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH161" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI161" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ161" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK161" t="s" s="2">
         <v>82</v>
@@ -22050,10 +22050,10 @@
         <v>82</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="AN161" t="s" s="2">
-        <v>272</v>
+        <v>106</v>
       </c>
       <c r="AO161" t="s" s="2">
         <v>82</v>
@@ -22064,10 +22064,10 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -22075,7 +22075,7 @@
       </c>
       <c r="E162" s="2"/>
       <c r="F162" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G162" t="s" s="2">
         <v>92</v>
@@ -22090,26 +22090,26 @@
         <v>93</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>275</v>
+        <v>108</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>277</v>
+        <v>240</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>278</v>
+        <v>241</v>
       </c>
       <c r="O162" t="s" s="2">
-        <v>279</v>
+        <v>242</v>
       </c>
       <c r="P162" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q162" s="2"/>
       <c r="R162" t="s" s="2">
-        <v>82</v>
+        <v>300</v>
       </c>
       <c r="S162" t="s" s="2">
         <v>82</v>
@@ -22151,7 +22151,7 @@
         <v>82</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>80</v>
@@ -22172,10 +22172,10 @@
         <v>82</v>
       </c>
       <c r="AM162" t="s" s="2">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="AN162" t="s" s="2">
-        <v>282</v>
+        <v>246</v>
       </c>
       <c r="AO162" t="s" s="2">
         <v>82</v>
@@ -22186,26 +22186,24 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="C163" t="s" s="2">
-        <v>690</v>
-      </c>
+        <v>630</v>
+      </c>
+      <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E163" s="2"/>
       <c r="F163" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G163" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H163" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I163" t="s" s="2">
         <v>82</v>
@@ -22214,20 +22212,18 @@
         <v>93</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O163" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="O163" s="2"/>
       <c r="P163" t="s" s="2">
         <v>82</v>
       </c>
@@ -22275,13 +22271,13 @@
         <v>82</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH163" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI163" t="s" s="2">
         <v>104</v>
@@ -22296,10 +22292,10 @@
         <v>82</v>
       </c>
       <c r="AM163" t="s" s="2">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="AN163" t="s" s="2">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="AO163" t="s" s="2">
         <v>82</v>
@@ -22310,10 +22306,10 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -22321,7 +22317,7 @@
       </c>
       <c r="E164" s="2"/>
       <c r="F164" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G164" t="s" s="2">
         <v>92</v>
@@ -22333,25 +22329,29 @@
         <v>82</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N164" s="2"/>
-      <c r="O164" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="N164" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O164" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="P164" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q164" s="2"/>
       <c r="R164" t="s" s="2">
-        <v>82</v>
+        <v>687</v>
       </c>
       <c r="S164" t="s" s="2">
         <v>82</v>
@@ -22393,7 +22393,7 @@
         <v>82</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>218</v>
+        <v>262</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>80</v>
@@ -22402,10 +22402,10 @@
         <v>92</v>
       </c>
       <c r="AI164" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ164" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK164" t="s" s="2">
         <v>82</v>
@@ -22414,10 +22414,10 @@
         <v>82</v>
       </c>
       <c r="AM164" t="s" s="2">
-        <v>82</v>
+        <v>263</v>
       </c>
       <c r="AN164" t="s" s="2">
-        <v>113</v>
+        <v>264</v>
       </c>
       <c r="AO164" t="s" s="2">
         <v>82</v>
@@ -22428,21 +22428,21 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E165" s="2"/>
       <c r="F165" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G165" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H165" t="s" s="2">
         <v>82</v>
@@ -22451,21 +22451,23 @@
         <v>82</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>141</v>
+        <v>267</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>221</v>
+        <v>268</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O165" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="O165" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="P165" t="s" s="2">
         <v>82</v>
       </c>
@@ -22501,31 +22503,31 @@
         <v>82</v>
       </c>
       <c r="AB165" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC165" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD165" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>222</v>
+        <v>270</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH165" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI165" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ165" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK165" t="s" s="2">
         <v>82</v>
@@ -22534,10 +22536,10 @@
         <v>82</v>
       </c>
       <c r="AM165" t="s" s="2">
-        <v>82</v>
+        <v>271</v>
       </c>
       <c r="AN165" t="s" s="2">
-        <v>106</v>
+        <v>272</v>
       </c>
       <c r="AO165" t="s" s="2">
         <v>82</v>
@@ -22548,10 +22550,10 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -22559,7 +22561,7 @@
       </c>
       <c r="E166" s="2"/>
       <c r="F166" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G166" t="s" s="2">
         <v>92</v>
@@ -22574,26 +22576,26 @@
         <v>93</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>108</v>
+        <v>275</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>241</v>
+        <v>278</v>
       </c>
       <c r="O166" t="s" s="2">
-        <v>242</v>
+        <v>279</v>
       </c>
       <c r="P166" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q166" s="2"/>
       <c r="R166" t="s" s="2">
-        <v>243</v>
+        <v>82</v>
       </c>
       <c r="S166" t="s" s="2">
         <v>82</v>
@@ -22635,7 +22637,7 @@
         <v>82</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>80</v>
@@ -22656,10 +22658,10 @@
         <v>82</v>
       </c>
       <c r="AM166" t="s" s="2">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="AN166" t="s" s="2">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="AO166" t="s" s="2">
         <v>82</v>
@@ -22670,24 +22672,26 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="C167" s="2"/>
+        <v>589</v>
+      </c>
+      <c r="C167" t="s" s="2">
+        <v>691</v>
+      </c>
       <c r="D167" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E167" s="2"/>
       <c r="F167" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G167" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H167" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I167" t="s" s="2">
         <v>82</v>
@@ -22696,18 +22700,20 @@
         <v>93</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O167" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="O167" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="P167" t="s" s="2">
         <v>82</v>
       </c>
@@ -22755,13 +22761,13 @@
         <v>82</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH167" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI167" t="s" s="2">
         <v>104</v>
@@ -22776,10 +22782,10 @@
         <v>82</v>
       </c>
       <c r="AM167" t="s" s="2">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="AN167" t="s" s="2">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="AO167" t="s" s="2">
         <v>82</v>
@@ -22790,10 +22796,10 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -22801,7 +22807,7 @@
       </c>
       <c r="E168" s="2"/>
       <c r="F168" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G168" t="s" s="2">
         <v>92</v>
@@ -22813,29 +22819,25 @@
         <v>82</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>115</v>
+        <v>215</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N168" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O168" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N168" s="2"/>
+      <c r="O168" s="2"/>
       <c r="P168" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q168" s="2"/>
       <c r="R168" t="s" s="2">
-        <v>696</v>
+        <v>82</v>
       </c>
       <c r="S168" t="s" s="2">
         <v>82</v>
@@ -22877,7 +22879,7 @@
         <v>82</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>262</v>
+        <v>218</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>80</v>
@@ -22886,10 +22888,10 @@
         <v>92</v>
       </c>
       <c r="AI168" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ168" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK168" t="s" s="2">
         <v>82</v>
@@ -22898,10 +22900,10 @@
         <v>82</v>
       </c>
       <c r="AM168" t="s" s="2">
-        <v>263</v>
+        <v>82</v>
       </c>
       <c r="AN168" t="s" s="2">
-        <v>264</v>
+        <v>113</v>
       </c>
       <c r="AO168" t="s" s="2">
         <v>82</v>
@@ -22912,21 +22914,21 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E169" s="2"/>
       <c r="F169" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G169" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H169" t="s" s="2">
         <v>82</v>
@@ -22935,23 +22937,21 @@
         <v>82</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>267</v>
+        <v>141</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>268</v>
+        <v>221</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O169" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O169" s="2"/>
       <c r="P169" t="s" s="2">
         <v>82</v>
       </c>
@@ -22987,31 +22987,31 @@
         <v>82</v>
       </c>
       <c r="AB169" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC169" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD169" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>270</v>
+        <v>222</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH169" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI169" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ169" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK169" t="s" s="2">
         <v>82</v>
@@ -23020,10 +23020,10 @@
         <v>82</v>
       </c>
       <c r="AM169" t="s" s="2">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="AN169" t="s" s="2">
-        <v>272</v>
+        <v>106</v>
       </c>
       <c r="AO169" t="s" s="2">
         <v>82</v>
@@ -23034,10 +23034,10 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -23045,7 +23045,7 @@
       </c>
       <c r="E170" s="2"/>
       <c r="F170" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G170" t="s" s="2">
         <v>92</v>
@@ -23060,26 +23060,26 @@
         <v>93</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>275</v>
+        <v>108</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>277</v>
+        <v>240</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>278</v>
+        <v>241</v>
       </c>
       <c r="O170" t="s" s="2">
-        <v>279</v>
+        <v>242</v>
       </c>
       <c r="P170" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q170" s="2"/>
       <c r="R170" t="s" s="2">
-        <v>82</v>
+        <v>243</v>
       </c>
       <c r="S170" t="s" s="2">
         <v>82</v>
@@ -23121,7 +23121,7 @@
         <v>82</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>80</v>
@@ -23142,10 +23142,10 @@
         <v>82</v>
       </c>
       <c r="AM170" t="s" s="2">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="AN170" t="s" s="2">
-        <v>282</v>
+        <v>246</v>
       </c>
       <c r="AO170" t="s" s="2">
         <v>82</v>
@@ -23156,10 +23156,10 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -23167,7 +23167,7 @@
       </c>
       <c r="E171" s="2"/>
       <c r="F171" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G171" t="s" s="2">
         <v>92</v>
@@ -23185,17 +23185,15 @@
         <v>215</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="O171" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="O171" s="2"/>
       <c r="P171" t="s" s="2">
         <v>82</v>
       </c>
@@ -23243,7 +23241,7 @@
         <v>82</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>289</v>
+        <v>252</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>80</v>
@@ -23264,10 +23262,10 @@
         <v>82</v>
       </c>
       <c r="AM171" t="s" s="2">
-        <v>290</v>
+        <v>253</v>
       </c>
       <c r="AN171" t="s" s="2">
-        <v>291</v>
+        <v>254</v>
       </c>
       <c r="AO171" t="s" s="2">
         <v>82</v>
@@ -23278,10 +23276,10 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>587</v>
+        <v>632</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -23289,7 +23287,7 @@
       </c>
       <c r="E172" s="2"/>
       <c r="F172" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G172" t="s" s="2">
         <v>92</v>
@@ -23304,26 +23302,26 @@
         <v>93</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>419</v>
+        <v>115</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>588</v>
+        <v>257</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>421</v>
+        <v>258</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>589</v>
+        <v>259</v>
       </c>
       <c r="O172" t="s" s="2">
-        <v>423</v>
+        <v>260</v>
       </c>
       <c r="P172" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q172" s="2"/>
       <c r="R172" t="s" s="2">
-        <v>82</v>
+        <v>697</v>
       </c>
       <c r="S172" t="s" s="2">
         <v>82</v>
@@ -23353,17 +23351,19 @@
         <v>82</v>
       </c>
       <c r="AB172" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="AC172" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC172" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD172" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>590</v>
+        <v>82</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>587</v>
+        <v>262</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>80</v>
@@ -23381,31 +23381,29 @@
         <v>82</v>
       </c>
       <c r="AL172" t="s" s="2">
-        <v>591</v>
+        <v>82</v>
       </c>
       <c r="AM172" t="s" s="2">
-        <v>427</v>
+        <v>263</v>
       </c>
       <c r="AN172" t="s" s="2">
-        <v>428</v>
+        <v>264</v>
       </c>
       <c r="AO172" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP172" t="s" s="2">
-        <v>429</v>
+        <v>82</v>
       </c>
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="C173" t="s" s="2">
-        <v>651</v>
-      </c>
+        <v>635</v>
+      </c>
+      <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
         <v>82</v>
       </c>
@@ -23426,19 +23424,19 @@
         <v>93</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>652</v>
+        <v>215</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>588</v>
+        <v>267</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>421</v>
+        <v>268</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>589</v>
+        <v>259</v>
       </c>
       <c r="O173" t="s" s="2">
-        <v>423</v>
+        <v>269</v>
       </c>
       <c r="P173" t="s" s="2">
         <v>82</v>
@@ -23487,7 +23485,7 @@
         <v>82</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>587</v>
+        <v>270</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>80</v>
@@ -23499,33 +23497,33 @@
         <v>104</v>
       </c>
       <c r="AJ173" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK173" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL173" t="s" s="2">
-        <v>591</v>
+        <v>82</v>
       </c>
       <c r="AM173" t="s" s="2">
-        <v>427</v>
+        <v>271</v>
       </c>
       <c r="AN173" t="s" s="2">
-        <v>428</v>
+        <v>272</v>
       </c>
       <c r="AO173" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP173" t="s" s="2">
-        <v>429</v>
+        <v>82</v>
       </c>
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>654</v>
+        <v>637</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -23545,19 +23543,23 @@
         <v>82</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>215</v>
+        <v>275</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>216</v>
+        <v>276</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N174" s="2"/>
-      <c r="O174" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="N174" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="O174" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="P174" t="s" s="2">
         <v>82</v>
       </c>
@@ -23605,7 +23607,7 @@
         <v>82</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>218</v>
+        <v>280</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>80</v>
@@ -23614,10 +23616,10 @@
         <v>92</v>
       </c>
       <c r="AI174" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ174" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK174" t="s" s="2">
         <v>82</v>
@@ -23626,10 +23628,10 @@
         <v>82</v>
       </c>
       <c r="AM174" t="s" s="2">
-        <v>82</v>
+        <v>281</v>
       </c>
       <c r="AN174" t="s" s="2">
-        <v>113</v>
+        <v>282</v>
       </c>
       <c r="AO174" t="s" s="2">
         <v>82</v>
@@ -23640,21 +23642,21 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>656</v>
+        <v>590</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E175" s="2"/>
       <c r="F175" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G175" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H175" t="s" s="2">
         <v>82</v>
@@ -23663,21 +23665,23 @@
         <v>82</v>
       </c>
       <c r="J175" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>141</v>
+        <v>285</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>221</v>
+        <v>286</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O175" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="O175" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="P175" t="s" s="2">
         <v>82</v>
       </c>
@@ -23713,31 +23717,31 @@
         <v>82</v>
       </c>
       <c r="AB175" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC175" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD175" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>222</v>
+        <v>289</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH175" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI175" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ175" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK175" t="s" s="2">
         <v>82</v>
@@ -23746,10 +23750,10 @@
         <v>82</v>
       </c>
       <c r="AM175" t="s" s="2">
-        <v>82</v>
+        <v>290</v>
       </c>
       <c r="AN175" t="s" s="2">
-        <v>106</v>
+        <v>291</v>
       </c>
       <c r="AO175" t="s" s="2">
         <v>82</v>
@@ -23760,10 +23764,10 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>658</v>
+        <v>591</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -23771,37 +23775,41 @@
       </c>
       <c r="E176" s="2"/>
       <c r="F176" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G176" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J176" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="I176" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J176" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="K176" t="s" s="2">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>659</v>
+        <v>592</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="N176" s="2"/>
-      <c r="O176" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="N176" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="O176" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="P176" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q176" s="2"/>
       <c r="R176" t="s" s="2">
-        <v>705</v>
+        <v>82</v>
       </c>
       <c r="S176" t="s" s="2">
         <v>82</v>
@@ -23810,10 +23818,10 @@
         <v>82</v>
       </c>
       <c r="U176" t="s" s="2">
-        <v>660</v>
+        <v>82</v>
       </c>
       <c r="V176" t="s" s="2">
-        <v>661</v>
+        <v>82</v>
       </c>
       <c r="W176" t="s" s="2">
         <v>82</v>
@@ -23831,19 +23839,17 @@
         <v>82</v>
       </c>
       <c r="AB176" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC176" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="AC176" s="2"/>
       <c r="AD176" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>82</v>
+        <v>594</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>662</v>
+        <v>591</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>80</v>
@@ -23852,39 +23858,39 @@
         <v>92</v>
       </c>
       <c r="AI176" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ176" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK176" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL176" t="s" s="2">
-        <v>82</v>
+        <v>595</v>
       </c>
       <c r="AM176" t="s" s="2">
-        <v>82</v>
+        <v>427</v>
       </c>
       <c r="AN176" t="s" s="2">
-        <v>82</v>
+        <v>428</v>
       </c>
       <c r="AO176" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP176" t="s" s="2">
-        <v>82</v>
+        <v>429</v>
       </c>
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>431</v>
+        <v>652</v>
       </c>
       <c r="D177" t="s" s="2">
         <v>82</v>
@@ -23897,7 +23903,7 @@
         <v>92</v>
       </c>
       <c r="H177" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I177" t="s" s="2">
         <v>82</v>
@@ -23906,16 +23912,16 @@
         <v>93</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>198</v>
+        <v>653</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="M177" t="s" s="2">
         <v>421</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>423</v>
@@ -23943,11 +23949,13 @@
         <v>82</v>
       </c>
       <c r="X177" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="Y177" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y177" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z177" t="s" s="2">
-        <v>593</v>
+        <v>82</v>
       </c>
       <c r="AA177" t="s" s="2">
         <v>82</v>
@@ -23965,7 +23973,7 @@
         <v>82</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>80</v>
@@ -23977,13 +23985,13 @@
         <v>104</v>
       </c>
       <c r="AJ177" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK177" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL177" t="s" s="2">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="AM177" t="s" s="2">
         <v>427</v>
@@ -24000,10 +24008,10 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>594</v>
+        <v>655</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -24017,7 +24025,7 @@
         <v>92</v>
       </c>
       <c r="H178" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I178" t="s" s="2">
         <v>82</v>
@@ -24026,20 +24034,16 @@
         <v>82</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>595</v>
+        <v>216</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="N178" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="O178" t="s" s="2">
-        <v>436</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N178" s="2"/>
+      <c r="O178" s="2"/>
       <c r="P178" t="s" s="2">
         <v>82</v>
       </c>
@@ -24063,11 +24067,13 @@
         <v>82</v>
       </c>
       <c r="X178" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="Y178" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y178" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z178" t="s" s="2">
-        <v>598</v>
+        <v>82</v>
       </c>
       <c r="AA178" t="s" s="2">
         <v>82</v>
@@ -24085,7 +24091,7 @@
         <v>82</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>594</v>
+        <v>218</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>80</v>
@@ -24094,10 +24100,10 @@
         <v>92</v>
       </c>
       <c r="AI178" t="s" s="2">
-        <v>440</v>
+        <v>82</v>
       </c>
       <c r="AJ178" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK178" t="s" s="2">
         <v>82</v>
@@ -24106,10 +24112,10 @@
         <v>82</v>
       </c>
       <c r="AM178" t="s" s="2">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="AN178" t="s" s="2">
-        <v>441</v>
+        <v>113</v>
       </c>
       <c r="AO178" t="s" s="2">
         <v>82</v>
@@ -24120,14 +24126,14 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>599</v>
+        <v>657</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
-        <v>443</v>
+        <v>139</v>
       </c>
       <c r="E179" s="2"/>
       <c r="F179" t="s" s="2">
@@ -24146,20 +24152,18 @@
         <v>82</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>444</v>
+        <v>141</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>445</v>
+        <v>221</v>
       </c>
       <c r="N179" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="O179" t="s" s="2">
-        <v>447</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O179" s="2"/>
       <c r="P179" t="s" s="2">
         <v>82</v>
       </c>
@@ -24183,31 +24187,31 @@
         <v>82</v>
       </c>
       <c r="X179" t="s" s="2">
-        <v>437</v>
+        <v>82</v>
       </c>
       <c r="Y179" t="s" s="2">
-        <v>448</v>
+        <v>82</v>
       </c>
       <c r="Z179" t="s" s="2">
-        <v>449</v>
+        <v>82</v>
       </c>
       <c r="AA179" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB179" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC179" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD179" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>599</v>
+        <v>222</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>80</v>
@@ -24219,33 +24223,33 @@
         <v>104</v>
       </c>
       <c r="AJ179" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK179" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL179" t="s" s="2">
-        <v>450</v>
+        <v>82</v>
       </c>
       <c r="AM179" t="s" s="2">
-        <v>451</v>
+        <v>82</v>
       </c>
       <c r="AN179" t="s" s="2">
-        <v>452</v>
+        <v>106</v>
       </c>
       <c r="AO179" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP179" t="s" s="2">
-        <v>453</v>
+        <v>82</v>
       </c>
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>600</v>
+        <v>659</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -24253,13 +24257,13 @@
       </c>
       <c r="E180" s="2"/>
       <c r="F180" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G180" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H180" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I180" t="s" s="2">
         <v>82</v>
@@ -24268,26 +24272,22 @@
         <v>82</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>83</v>
+        <v>653</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>601</v>
+        <v>660</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="N180" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="O180" t="s" s="2">
-        <v>504</v>
-      </c>
+        <v>660</v>
+      </c>
+      <c r="N180" s="2"/>
+      <c r="O180" s="2"/>
       <c r="P180" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q180" s="2"/>
       <c r="R180" t="s" s="2">
-        <v>82</v>
+        <v>706</v>
       </c>
       <c r="S180" t="s" s="2">
         <v>82</v>
@@ -24296,10 +24296,10 @@
         <v>82</v>
       </c>
       <c r="U180" t="s" s="2">
-        <v>82</v>
+        <v>661</v>
       </c>
       <c r="V180" t="s" s="2">
-        <v>82</v>
+        <v>662</v>
       </c>
       <c r="W180" t="s" s="2">
         <v>82</v>
@@ -24329,41 +24329,527 @@
         <v>82</v>
       </c>
       <c r="AF180" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="AG180" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH180" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP180" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="181" hidden="true">
+      <c r="A181" t="s" s="2">
+        <v>707</v>
+      </c>
+      <c r="B181" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="C181" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="D181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E181" s="2"/>
+      <c r="F181" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G181" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J181" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K181" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L181" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="M181" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="N181" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="O181" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="P181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q181" s="2"/>
+      <c r="R181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X181" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="Y181" s="2"/>
+      <c r="Z181" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="AA181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF181" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="AG181" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH181" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI181" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ181" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL181" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AM181" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AN181" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AO181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP181" t="s" s="2">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="182" hidden="true">
+      <c r="A182" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="B182" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="C182" s="2"/>
+      <c r="D182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E182" s="2"/>
+      <c r="F182" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G182" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H182" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="I182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K182" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L182" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="M182" t="s" s="2">
         <v>600</v>
       </c>
-      <c r="AG180" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH180" t="s" s="2">
+      <c r="N182" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="O182" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="P182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q182" s="2"/>
+      <c r="R182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X182" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="Y182" s="2"/>
+      <c r="Z182" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="AA182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF182" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="AG182" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH182" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI182" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AJ182" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM182" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AN182" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AO182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP182" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="183" hidden="true">
+      <c r="A183" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="B183" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="C183" s="2"/>
+      <c r="D183" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="E183" s="2"/>
+      <c r="F183" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G183" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AI180" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ180" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK180" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL180" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM180" t="s" s="2">
+      <c r="H183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K183" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L183" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M183" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="N183" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="O183" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="P183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q183" s="2"/>
+      <c r="R183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X183" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="Y183" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="Z183" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AA183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF183" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="AG183" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH183" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI183" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ183" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL183" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AM183" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AN183" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AO183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP183" t="s" s="2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="184" hidden="true">
+      <c r="A184" t="s" s="2">
+        <v>710</v>
+      </c>
+      <c r="B184" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="C184" s="2"/>
+      <c r="D184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E184" s="2"/>
+      <c r="F184" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G184" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K184" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L184" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="M184" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="N184" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="O184" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="P184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q184" s="2"/>
+      <c r="R184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF184" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="AG184" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH184" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM184" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="AN180" t="s" s="2">
+      <c r="AN184" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="AO180" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP180" t="s" s="2">
+      <c r="AO184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP184" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP180">
+  <autoFilter ref="A1:AP184">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -24373,7 +24859,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI179">
+  <conditionalFormatting sqref="A2:AI183">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-rv-biological-sex.xlsx
+++ b/output/StructureDefinition-rv-biological-sex.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$184</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$185</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7117" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7159" uniqueCount="711">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T11:28:30+02:00</t>
+    <t>2023-03-31T15:03:50+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1807,11 +1807,11 @@
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:$this.valuecodeableConcept.code}
+    <t xml:space="preserve">value:$this.code}
 </t>
   </si>
   <si>
-    <t>Slice basiert auf component.code.coding.code #value</t>
+    <t>Slice basiert auf $this.code</t>
   </si>
   <si>
     <t>containment by OBX-4?</t>
@@ -1860,6 +1860,10 @@
     <t>Observation.component.value[x]</t>
   </si>
   <si>
+    <t xml:space="preserve">integer
+</t>
+  </si>
+  <si>
     <t>Actual component result</t>
   </si>
   <si>
@@ -1870,6 +1874,12 @@
   </si>
   <si>
     <t>363714003 |Interprets| &lt; 441742003 |Evaluation finding|</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x]:valueInteger</t>
+  </si>
+  <si>
+    <t>valueInteger</t>
   </si>
   <si>
     <t>Observation.component.value[x]:valueCodeableConcept</t>
@@ -1946,8 +1956,7 @@
     <t>Observation.component:male.code.coding</t>
   </si>
   <si>
-    <t xml:space="preserve">value:$this.code}
-</t>
+    <t>Slice basiert auf $this.system und $this.code</t>
   </si>
   <si>
     <t>Observation.component:male.code.coding:MaleSNOMEDCode</t>
@@ -2037,18 +2046,7 @@
     <t>Observation.component:male.value[x]</t>
   </si>
   <si>
-    <t>CodeableConcept
-integer</t>
-  </si>
-  <si>
     <t>Observation.component:male.value[x]:valueInteger</t>
-  </si>
-  <si>
-    <t>valueInteger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">integer
-</t>
   </si>
   <si>
     <t>Observation.component:male.value[x]:valueInteger.id</t>
@@ -2540,7 +2538,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP184"/>
+  <dimension ref="A1:AP185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2576,7 +2574,7 @@
     <col min="25" max="25" width="60.51953125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="53.75390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="37.3046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="88.40625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
@@ -14945,13 +14943,13 @@
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H103" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I103" t="s" s="2">
         <v>82</v>
@@ -15033,7 +15031,7 @@
         <v>104</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>82</v>
@@ -16046,16 +16044,16 @@
         <v>93</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>198</v>
+        <v>592</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M112" t="s" s="2">
         <v>421</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>423</v>
@@ -16102,7 +16100,7 @@
         <v>82</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>591</v>
@@ -16123,7 +16121,7 @@
         <v>82</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>427</v>
@@ -16140,13 +16138,13 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>591</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>431</v>
+        <v>598</v>
       </c>
       <c r="D113" t="s" s="2">
         <v>82</v>
@@ -16168,16 +16166,16 @@
         <v>93</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>198</v>
+        <v>592</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M113" t="s" s="2">
         <v>421</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>423</v>
@@ -16205,11 +16203,13 @@
         <v>82</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="Y113" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z113" t="s" s="2">
-        <v>597</v>
+        <v>82</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>82</v>
@@ -16245,7 +16245,7 @@
         <v>82</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>427</v>
@@ -16262,12 +16262,14 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="C114" s="2"/>
+        <v>591</v>
+      </c>
+      <c r="C114" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="D114" t="s" s="2">
         <v>82</v>
       </c>
@@ -16279,28 +16281,28 @@
         <v>92</v>
       </c>
       <c r="H114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J114" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="I114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J114" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="K114" t="s" s="2">
         <v>198</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>600</v>
+        <v>421</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>82</v>
@@ -16329,7 +16331,7 @@
       </c>
       <c r="Y114" s="2"/>
       <c r="Z114" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="AA114" t="s" s="2">
         <v>82</v>
@@ -16347,7 +16349,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16356,7 +16358,7 @@
         <v>92</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>440</v>
+        <v>104</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>105</v>
@@ -16365,41 +16367,41 @@
         <v>82</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>82</v>
+        <v>596</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>106</v>
+        <v>427</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP114" t="s" s="2">
-        <v>82</v>
+        <v>429</v>
       </c>
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
-        <v>443</v>
+        <v>82</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G115" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H115" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I115" t="s" s="2">
         <v>82</v>
@@ -16411,16 +16413,16 @@
         <v>198</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>444</v>
+        <v>602</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>445</v>
+        <v>603</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>446</v>
+        <v>604</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>82</v>
@@ -16445,13 +16447,11 @@
         <v>82</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="Y115" t="s" s="2">
-        <v>448</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="Y115" s="2"/>
       <c r="Z115" t="s" s="2">
-        <v>449</v>
+        <v>605</v>
       </c>
       <c r="AA115" t="s" s="2">
         <v>82</v>
@@ -16469,16 +16469,16 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>104</v>
+        <v>440</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>105</v>
@@ -16487,31 +16487,31 @@
         <v>82</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>450</v>
+        <v>82</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>451</v>
+        <v>106</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP115" t="s" s="2">
-        <v>453</v>
+        <v>82</v>
       </c>
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
-        <v>82</v>
+        <v>443</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
@@ -16530,19 +16530,19 @@
         <v>82</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>83</v>
+        <v>198</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>605</v>
+        <v>444</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>606</v>
+        <v>445</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>503</v>
+        <v>446</v>
       </c>
       <c r="O116" t="s" s="2">
-        <v>504</v>
+        <v>447</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>82</v>
@@ -16567,13 +16567,13 @@
         <v>82</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>82</v>
+        <v>437</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>82</v>
+        <v>448</v>
       </c>
       <c r="Z116" t="s" s="2">
-        <v>82</v>
+        <v>449</v>
       </c>
       <c r="AA116" t="s" s="2">
         <v>82</v>
@@ -16591,7 +16591,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16600,28 +16600,28 @@
         <v>81</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>82</v>
+        <v>450</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>506</v>
+        <v>451</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>507</v>
+        <v>452</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP116" t="s" s="2">
-        <v>82</v>
+        <v>453</v>
       </c>
     </row>
     <row r="117" hidden="true">
@@ -16629,11 +16629,9 @@
         <v>607</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="C117" t="s" s="2">
-        <v>608</v>
-      </c>
+        <v>607</v>
+      </c>
+      <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
         <v>82</v>
       </c>
@@ -16642,7 +16640,7 @@
         <v>80</v>
       </c>
       <c r="G117" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H117" t="s" s="2">
         <v>82</v>
@@ -16651,22 +16649,22 @@
         <v>82</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>500</v>
+        <v>83</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>571</v>
+        <v>608</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>572</v>
+        <v>609</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>573</v>
+        <v>503</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>574</v>
+        <v>504</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>82</v>
@@ -16715,7 +16713,7 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>570</v>
+        <v>607</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -16724,7 +16722,7 @@
         <v>81</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>82</v>
@@ -16736,10 +16734,10 @@
         <v>82</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>577</v>
+        <v>506</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>578</v>
+        <v>507</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>82</v>
@@ -16750,12 +16748,14 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="C118" s="2"/>
+        <v>570</v>
+      </c>
+      <c r="C118" t="s" s="2">
+        <v>611</v>
+      </c>
       <c r="D118" t="s" s="2">
         <v>82</v>
       </c>
@@ -16773,19 +16773,23 @@
         <v>82</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>215</v>
+        <v>500</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>216</v>
+        <v>571</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N118" s="2"/>
-      <c r="O118" s="2"/>
+        <v>572</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="O118" t="s" s="2">
+        <v>574</v>
+      </c>
       <c r="P118" t="s" s="2">
         <v>82</v>
       </c>
@@ -16833,16 +16837,16 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>218</v>
+        <v>570</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>82</v>
@@ -16854,10 +16858,10 @@
         <v>82</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>82</v>
+        <v>577</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>113</v>
+        <v>578</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>82</v>
@@ -16868,21 +16872,21 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>82</v>
@@ -16894,17 +16898,15 @@
         <v>82</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N119" s="2"/>
       <c r="O119" s="2"/>
       <c r="P119" t="s" s="2">
         <v>82</v>
@@ -16941,31 +16943,31 @@
         <v>82</v>
       </c>
       <c r="AB119" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC119" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD119" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="AK119" t="s" s="2">
         <v>82</v>
@@ -16977,7 +16979,7 @@
         <v>82</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>82</v>
@@ -16988,14 +16990,14 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
-        <v>511</v>
+        <v>139</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" t="s" s="2">
@@ -17008,26 +17010,24 @@
         <v>82</v>
       </c>
       <c r="I120" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K120" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>512</v>
+        <v>141</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>513</v>
+        <v>221</v>
       </c>
       <c r="N120" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="O120" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
         <v>82</v>
       </c>
@@ -17063,19 +17063,19 @@
         <v>82</v>
       </c>
       <c r="AB120" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC120" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD120" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>514</v>
+        <v>222</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>80</v>
@@ -17110,45 +17110,45 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>613</v>
+        <v>511</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H121" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I121" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J121" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>614</v>
+        <v>512</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>615</v>
+        <v>513</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>616</v>
+        <v>143</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>340</v>
+        <v>152</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>82</v>
@@ -17173,13 +17173,13 @@
         <v>82</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>341</v>
+        <v>82</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>342</v>
+        <v>82</v>
       </c>
       <c r="Z121" t="s" s="2">
-        <v>343</v>
+        <v>82</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>82</v>
@@ -17197,34 +17197,34 @@
         <v>82</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>582</v>
+        <v>514</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI121" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>586</v>
+        <v>82</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>346</v>
+        <v>82</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>347</v>
+        <v>106</v>
       </c>
       <c r="AO121" t="s" s="2">
-        <v>348</v>
+        <v>82</v>
       </c>
       <c r="AP121" t="s" s="2">
         <v>82</v>
@@ -17232,18 +17232,18 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>82</v>
+        <v>616</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G122" t="s" s="2">
         <v>92</v>
@@ -17255,19 +17255,23 @@
         <v>82</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>216</v>
+        <v>617</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N122" s="2"/>
-      <c r="O122" s="2"/>
+        <v>618</v>
+      </c>
+      <c r="N122" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="O122" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="P122" t="s" s="2">
         <v>82</v>
       </c>
@@ -17291,13 +17295,13 @@
         <v>82</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>82</v>
+        <v>341</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>82</v>
+        <v>342</v>
       </c>
       <c r="Z122" t="s" s="2">
-        <v>82</v>
+        <v>343</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>82</v>
@@ -17315,16 +17319,16 @@
         <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>218</v>
+        <v>582</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ122" t="s" s="2">
         <v>82</v>
@@ -17333,16 +17337,16 @@
         <v>82</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>82</v>
+        <v>586</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>82</v>
+        <v>346</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>113</v>
+        <v>347</v>
       </c>
       <c r="AO122" t="s" s="2">
-        <v>82</v>
+        <v>348</v>
       </c>
       <c r="AP122" t="s" s="2">
         <v>82</v>
@@ -17350,21 +17354,21 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G123" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H123" t="s" s="2">
         <v>82</v>
@@ -17376,17 +17380,15 @@
         <v>82</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N123" s="2"/>
       <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
         <v>82</v>
@@ -17423,31 +17425,31 @@
         <v>82</v>
       </c>
       <c r="AB123" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC123" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD123" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>82</v>
@@ -17459,7 +17461,7 @@
         <v>82</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>82</v>
@@ -17470,46 +17472,44 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G124" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H124" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I124" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>225</v>
+        <v>140</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>226</v>
+        <v>141</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O124" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O124" s="2"/>
       <c r="P124" t="s" s="2">
         <v>82</v>
       </c>
@@ -17545,9 +17545,11 @@
         <v>82</v>
       </c>
       <c r="AB124" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="AC124" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="AC124" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="AD124" t="s" s="2">
         <v>82</v>
       </c>
@@ -17555,7 +17557,7 @@
         <v>146</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>80</v>
@@ -17567,7 +17569,7 @@
         <v>104</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK124" t="s" s="2">
         <v>82</v>
@@ -17576,10 +17578,10 @@
         <v>82</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>231</v>
+        <v>82</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>232</v>
+        <v>106</v>
       </c>
       <c r="AO124" t="s" s="2">
         <v>82</v>
@@ -17590,23 +17592,21 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="C125" t="s" s="2">
-        <v>622</v>
-      </c>
+      <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G125" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H125" t="s" s="2">
         <v>93</v>
@@ -17667,16 +17667,16 @@
         <v>82</v>
       </c>
       <c r="AB125" t="s" s="2">
-        <v>82</v>
+        <v>575</v>
       </c>
       <c r="AC125" t="s" s="2">
-        <v>82</v>
+        <v>623</v>
       </c>
       <c r="AD125" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>230</v>
@@ -17714,12 +17714,14 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="C126" s="2"/>
+        <v>589</v>
+      </c>
+      <c r="C126" t="s" s="2">
+        <v>625</v>
+      </c>
       <c r="D126" t="s" s="2">
         <v>82</v>
       </c>
@@ -17731,25 +17733,29 @@
         <v>92</v>
       </c>
       <c r="H126" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I126" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N126" s="2"/>
-      <c r="O126" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="N126" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="O126" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="P126" t="s" s="2">
         <v>82</v>
       </c>
@@ -17797,19 +17803,19 @@
         <v>82</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK126" t="s" s="2">
         <v>82</v>
@@ -17818,10 +17824,10 @@
         <v>82</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>82</v>
+        <v>231</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>113</v>
+        <v>232</v>
       </c>
       <c r="AO126" t="s" s="2">
         <v>82</v>
@@ -17832,21 +17838,21 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G127" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H127" t="s" s="2">
         <v>82</v>
@@ -17858,17 +17864,15 @@
         <v>82</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N127" s="2"/>
       <c r="O127" s="2"/>
       <c r="P127" t="s" s="2">
         <v>82</v>
@@ -17905,31 +17909,31 @@
         <v>82</v>
       </c>
       <c r="AB127" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC127" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD127" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH127" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="AK127" t="s" s="2">
         <v>82</v>
@@ -17941,7 +17945,7 @@
         <v>82</v>
       </c>
       <c r="AN127" t="s" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="AO127" t="s" s="2">
         <v>82</v>
@@ -17952,21 +17956,21 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G128" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H128" t="s" s="2">
         <v>82</v>
@@ -17975,29 +17979,27 @@
         <v>82</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>239</v>
+        <v>141</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O128" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O128" s="2"/>
       <c r="P128" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q128" s="2"/>
       <c r="R128" t="s" s="2">
-        <v>300</v>
+        <v>82</v>
       </c>
       <c r="S128" t="s" s="2">
         <v>82</v>
@@ -18027,31 +18029,31 @@
         <v>82</v>
       </c>
       <c r="AB128" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC128" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD128" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH128" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI128" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK128" t="s" s="2">
         <v>82</v>
@@ -18060,10 +18062,10 @@
         <v>82</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>245</v>
+        <v>82</v>
       </c>
       <c r="AN128" t="s" s="2">
-        <v>246</v>
+        <v>106</v>
       </c>
       <c r="AO128" t="s" s="2">
         <v>82</v>
@@ -18074,10 +18076,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18100,24 +18102,26 @@
         <v>93</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>215</v>
+        <v>108</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O129" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="O129" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="P129" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q129" s="2"/>
       <c r="R129" t="s" s="2">
-        <v>82</v>
+        <v>300</v>
       </c>
       <c r="S129" t="s" s="2">
         <v>82</v>
@@ -18159,7 +18163,7 @@
         <v>82</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
@@ -18180,10 +18184,10 @@
         <v>82</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="AN129" t="s" s="2">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="AO129" t="s" s="2">
         <v>82</v>
@@ -18194,10 +18198,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18220,26 +18224,24 @@
         <v>93</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>115</v>
+        <v>215</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O130" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="O130" s="2"/>
       <c r="P130" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q130" s="2"/>
       <c r="R130" t="s" s="2">
-        <v>633</v>
+        <v>82</v>
       </c>
       <c r="S130" t="s" s="2">
         <v>82</v>
@@ -18281,7 +18283,7 @@
         <v>82</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
@@ -18302,10 +18304,10 @@
         <v>82</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="AN130" t="s" s="2">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="AO130" t="s" s="2">
         <v>82</v>
@@ -18327,7 +18329,7 @@
       </c>
       <c r="E131" s="2"/>
       <c r="F131" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G131" t="s" s="2">
         <v>92</v>
@@ -18342,26 +18344,26 @@
         <v>93</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="N131" t="s" s="2">
         <v>259</v>
       </c>
       <c r="O131" t="s" s="2">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q131" s="2"/>
       <c r="R131" t="s" s="2">
-        <v>82</v>
+        <v>636</v>
       </c>
       <c r="S131" t="s" s="2">
         <v>82</v>
@@ -18403,7 +18405,7 @@
         <v>82</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>80</v>
@@ -18424,10 +18426,10 @@
         <v>82</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="AN131" t="s" s="2">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="AO131" t="s" s="2">
         <v>82</v>
@@ -18438,10 +18440,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18464,19 +18466,19 @@
         <v>93</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>275</v>
+        <v>215</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="O132" t="s" s="2">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="P132" t="s" s="2">
         <v>82</v>
@@ -18525,7 +18527,7 @@
         <v>82</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>80</v>
@@ -18546,10 +18548,10 @@
         <v>82</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="AO132" t="s" s="2">
         <v>82</v>
@@ -18560,14 +18562,12 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="C133" t="s" s="2">
-        <v>639</v>
-      </c>
+        <v>640</v>
+      </c>
+      <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
         <v>82</v>
       </c>
@@ -18579,7 +18579,7 @@
         <v>92</v>
       </c>
       <c r="H133" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I133" t="s" s="2">
         <v>82</v>
@@ -18588,19 +18588,19 @@
         <v>93</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>225</v>
+        <v>275</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>226</v>
+        <v>276</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>227</v>
+        <v>277</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>228</v>
+        <v>278</v>
       </c>
       <c r="O133" t="s" s="2">
-        <v>229</v>
+        <v>279</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>82</v>
@@ -18649,13 +18649,13 @@
         <v>82</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH133" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI133" t="s" s="2">
         <v>104</v>
@@ -18670,10 +18670,10 @@
         <v>82</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>231</v>
+        <v>281</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>232</v>
+        <v>282</v>
       </c>
       <c r="AO133" t="s" s="2">
         <v>82</v>
@@ -18684,12 +18684,14 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="C134" s="2"/>
+        <v>589</v>
+      </c>
+      <c r="C134" t="s" s="2">
+        <v>642</v>
+      </c>
       <c r="D134" t="s" s="2">
         <v>82</v>
       </c>
@@ -18701,25 +18703,29 @@
         <v>92</v>
       </c>
       <c r="H134" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I134" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N134" s="2"/>
-      <c r="O134" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="N134" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="O134" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="P134" t="s" s="2">
         <v>82</v>
       </c>
@@ -18767,19 +18773,19 @@
         <v>82</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH134" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ134" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK134" t="s" s="2">
         <v>82</v>
@@ -18788,10 +18794,10 @@
         <v>82</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>82</v>
+        <v>231</v>
       </c>
       <c r="AN134" t="s" s="2">
-        <v>113</v>
+        <v>232</v>
       </c>
       <c r="AO134" t="s" s="2">
         <v>82</v>
@@ -18802,21 +18808,21 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G135" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H135" t="s" s="2">
         <v>82</v>
@@ -18828,17 +18834,15 @@
         <v>82</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N135" s="2"/>
       <c r="O135" s="2"/>
       <c r="P135" t="s" s="2">
         <v>82</v>
@@ -18875,31 +18879,31 @@
         <v>82</v>
       </c>
       <c r="AB135" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC135" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD135" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH135" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="AK135" t="s" s="2">
         <v>82</v>
@@ -18911,7 +18915,7 @@
         <v>82</v>
       </c>
       <c r="AN135" t="s" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="AO135" t="s" s="2">
         <v>82</v>
@@ -18922,21 +18926,21 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G136" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H136" t="s" s="2">
         <v>82</v>
@@ -18945,29 +18949,27 @@
         <v>82</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>239</v>
+        <v>141</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O136" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O136" s="2"/>
       <c r="P136" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q136" s="2"/>
       <c r="R136" t="s" s="2">
-        <v>243</v>
+        <v>82</v>
       </c>
       <c r="S136" t="s" s="2">
         <v>82</v>
@@ -18997,31 +18999,31 @@
         <v>82</v>
       </c>
       <c r="AB136" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC136" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD136" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH136" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI136" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK136" t="s" s="2">
         <v>82</v>
@@ -19030,10 +19032,10 @@
         <v>82</v>
       </c>
       <c r="AM136" t="s" s="2">
-        <v>245</v>
+        <v>82</v>
       </c>
       <c r="AN136" t="s" s="2">
-        <v>246</v>
+        <v>106</v>
       </c>
       <c r="AO136" t="s" s="2">
         <v>82</v>
@@ -19044,10 +19046,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -19070,24 +19072,26 @@
         <v>93</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>215</v>
+        <v>108</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O137" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="O137" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="P137" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q137" s="2"/>
       <c r="R137" t="s" s="2">
-        <v>82</v>
+        <v>243</v>
       </c>
       <c r="S137" t="s" s="2">
         <v>82</v>
@@ -19129,7 +19133,7 @@
         <v>82</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>80</v>
@@ -19150,10 +19154,10 @@
         <v>82</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="AN137" t="s" s="2">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="AO137" t="s" s="2">
         <v>82</v>
@@ -19164,10 +19168,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19190,26 +19194,24 @@
         <v>93</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>115</v>
+        <v>215</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O138" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="O138" s="2"/>
       <c r="P138" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q138" s="2"/>
       <c r="R138" t="s" s="2">
-        <v>645</v>
+        <v>82</v>
       </c>
       <c r="S138" t="s" s="2">
         <v>82</v>
@@ -19251,7 +19253,7 @@
         <v>82</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>80</v>
@@ -19272,10 +19274,10 @@
         <v>82</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="AN138" t="s" s="2">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="AO138" t="s" s="2">
         <v>82</v>
@@ -19286,7 +19288,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>635</v>
@@ -19297,7 +19299,7 @@
       </c>
       <c r="E139" s="2"/>
       <c r="F139" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G139" t="s" s="2">
         <v>92</v>
@@ -19312,26 +19314,26 @@
         <v>93</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="N139" t="s" s="2">
         <v>259</v>
       </c>
       <c r="O139" t="s" s="2">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q139" s="2"/>
       <c r="R139" t="s" s="2">
-        <v>82</v>
+        <v>648</v>
       </c>
       <c r="S139" t="s" s="2">
         <v>82</v>
@@ -19373,7 +19375,7 @@
         <v>82</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>80</v>
@@ -19394,10 +19396,10 @@
         <v>82</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="AN139" t="s" s="2">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="AO139" t="s" s="2">
         <v>82</v>
@@ -19408,10 +19410,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19434,19 +19436,19 @@
         <v>93</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>275</v>
+        <v>215</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="O140" t="s" s="2">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="P140" t="s" s="2">
         <v>82</v>
@@ -19495,7 +19497,7 @@
         <v>82</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>80</v>
@@ -19516,10 +19518,10 @@
         <v>82</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="AN140" t="s" s="2">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="AO140" t="s" s="2">
         <v>82</v>
@@ -19530,10 +19532,10 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>590</v>
+        <v>640</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19556,19 +19558,19 @@
         <v>93</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>215</v>
+        <v>275</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="O141" t="s" s="2">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>82</v>
@@ -19617,7 +19619,7 @@
         <v>82</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>80</v>
@@ -19638,10 +19640,10 @@
         <v>82</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="AN141" t="s" s="2">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="AO141" t="s" s="2">
         <v>82</v>
@@ -19652,10 +19654,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19678,19 +19680,19 @@
         <v>93</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>650</v>
+        <v>215</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>592</v>
+        <v>285</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>421</v>
+        <v>286</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>593</v>
+        <v>287</v>
       </c>
       <c r="O142" t="s" s="2">
-        <v>423</v>
+        <v>288</v>
       </c>
       <c r="P142" t="s" s="2">
         <v>82</v>
@@ -19727,17 +19729,19 @@
         <v>82</v>
       </c>
       <c r="AB142" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="AC142" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC142" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD142" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>594</v>
+        <v>82</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>591</v>
+        <v>289</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>80</v>
@@ -19755,31 +19759,29 @@
         <v>82</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>595</v>
+        <v>82</v>
       </c>
       <c r="AM142" t="s" s="2">
-        <v>427</v>
+        <v>290</v>
       </c>
       <c r="AN142" t="s" s="2">
-        <v>428</v>
+        <v>291</v>
       </c>
       <c r="AO142" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP142" t="s" s="2">
-        <v>429</v>
+        <v>82</v>
       </c>
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="C143" t="s" s="2">
-        <v>652</v>
-      </c>
+      <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
         <v>82</v>
       </c>
@@ -19800,16 +19802,16 @@
         <v>93</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>653</v>
+        <v>419</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M143" t="s" s="2">
         <v>421</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>423</v>
@@ -19849,16 +19851,14 @@
         <v>82</v>
       </c>
       <c r="AB143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC143" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="AC143" s="2"/>
       <c r="AD143" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>82</v>
+        <v>595</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>591</v>
@@ -19873,13 +19873,13 @@
         <v>104</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK143" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AM143" t="s" s="2">
         <v>427</v>
@@ -19896,12 +19896,14 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="C144" s="2"/>
+        <v>591</v>
+      </c>
+      <c r="C144" t="s" s="2">
+        <v>598</v>
+      </c>
       <c r="D144" t="s" s="2">
         <v>82</v>
       </c>
@@ -19919,19 +19921,23 @@
         <v>82</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>215</v>
+        <v>592</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>216</v>
+        <v>593</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N144" s="2"/>
-      <c r="O144" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="N144" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="O144" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="P144" t="s" s="2">
         <v>82</v>
       </c>
@@ -19979,7 +19985,7 @@
         <v>82</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>218</v>
+        <v>591</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>80</v>
@@ -19988,7 +19994,7 @@
         <v>92</v>
       </c>
       <c r="AI144" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ144" t="s" s="2">
         <v>82</v>
@@ -19997,38 +20003,38 @@
         <v>82</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>82</v>
+        <v>596</v>
       </c>
       <c r="AM144" t="s" s="2">
-        <v>82</v>
+        <v>427</v>
       </c>
       <c r="AN144" t="s" s="2">
-        <v>113</v>
+        <v>428</v>
       </c>
       <c r="AO144" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP144" t="s" s="2">
-        <v>82</v>
+        <v>429</v>
       </c>
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G145" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H145" t="s" s="2">
         <v>82</v>
@@ -20040,17 +20046,15 @@
         <v>82</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N145" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N145" s="2"/>
       <c r="O145" s="2"/>
       <c r="P145" t="s" s="2">
         <v>82</v>
@@ -20087,31 +20091,31 @@
         <v>82</v>
       </c>
       <c r="AB145" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC145" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD145" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH145" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ145" t="s" s="2">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="AK145" t="s" s="2">
         <v>82</v>
@@ -20123,7 +20127,7 @@
         <v>82</v>
       </c>
       <c r="AN145" t="s" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="AO145" t="s" s="2">
         <v>82</v>
@@ -20134,24 +20138,24 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G146" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H146" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I146" t="s" s="2">
         <v>82</v>
@@ -20160,22 +20164,24 @@
         <v>82</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>653</v>
+        <v>140</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>660</v>
+        <v>141</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="N146" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N146" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O146" s="2"/>
       <c r="P146" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q146" s="2"/>
       <c r="R146" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="S146" t="s" s="2">
         <v>82</v>
@@ -20184,10 +20190,10 @@
         <v>82</v>
       </c>
       <c r="U146" t="s" s="2">
-        <v>661</v>
+        <v>82</v>
       </c>
       <c r="V146" t="s" s="2">
-        <v>662</v>
+        <v>82</v>
       </c>
       <c r="W146" t="s" s="2">
         <v>82</v>
@@ -20205,31 +20211,31 @@
         <v>82</v>
       </c>
       <c r="AB146" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC146" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD146" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>663</v>
+        <v>222</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH146" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI146" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ146" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AK146" t="s" s="2">
         <v>82</v>
@@ -20241,7 +20247,7 @@
         <v>82</v>
       </c>
       <c r="AN146" t="s" s="2">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="AO146" t="s" s="2">
         <v>82</v>
@@ -20252,54 +20258,48 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="C147" t="s" s="2">
-        <v>431</v>
-      </c>
+        <v>659</v>
+      </c>
+      <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E147" s="2"/>
       <c r="F147" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G147" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H147" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I147" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>198</v>
+        <v>592</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>592</v>
+        <v>660</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="O147" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>660</v>
+      </c>
+      <c r="N147" s="2"/>
+      <c r="O147" s="2"/>
       <c r="P147" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q147" s="2"/>
       <c r="R147" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="S147" t="s" s="2">
         <v>82</v>
@@ -20308,20 +20308,22 @@
         <v>82</v>
       </c>
       <c r="U147" t="s" s="2">
-        <v>82</v>
+        <v>661</v>
       </c>
       <c r="V147" t="s" s="2">
-        <v>82</v>
+        <v>662</v>
       </c>
       <c r="W147" t="s" s="2">
         <v>82</v>
       </c>
       <c r="X147" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="Y147" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y147" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z147" t="s" s="2">
-        <v>597</v>
+        <v>82</v>
       </c>
       <c r="AA147" t="s" s="2">
         <v>82</v>
@@ -20339,7 +20341,7 @@
         <v>82</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>591</v>
+        <v>663</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>80</v>
@@ -20348,38 +20350,40 @@
         <v>92</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ147" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK147" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>595</v>
+        <v>82</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>427</v>
+        <v>82</v>
       </c>
       <c r="AN147" t="s" s="2">
-        <v>428</v>
+        <v>82</v>
       </c>
       <c r="AO147" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP147" t="s" s="2">
-        <v>429</v>
+        <v>82</v>
       </c>
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="C148" s="2"/>
+        <v>591</v>
+      </c>
+      <c r="C148" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="D148" t="s" s="2">
         <v>82</v>
       </c>
@@ -20391,28 +20395,28 @@
         <v>92</v>
       </c>
       <c r="H148" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I148" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J148" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="I148" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J148" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="K148" t="s" s="2">
         <v>198</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>600</v>
+        <v>421</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="O148" t="s" s="2">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="P148" t="s" s="2">
         <v>82</v>
@@ -20441,7 +20445,7 @@
       </c>
       <c r="Y148" s="2"/>
       <c r="Z148" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="AA148" t="s" s="2">
         <v>82</v>
@@ -20459,7 +20463,7 @@
         <v>82</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>80</v>
@@ -20468,7 +20472,7 @@
         <v>92</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>440</v>
+        <v>104</v>
       </c>
       <c r="AJ148" t="s" s="2">
         <v>105</v>
@@ -20477,41 +20481,41 @@
         <v>82</v>
       </c>
       <c r="AL148" t="s" s="2">
-        <v>82</v>
+        <v>596</v>
       </c>
       <c r="AM148" t="s" s="2">
-        <v>106</v>
+        <v>427</v>
       </c>
       <c r="AN148" t="s" s="2">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="AO148" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP148" t="s" s="2">
-        <v>82</v>
+        <v>429</v>
       </c>
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
-        <v>443</v>
+        <v>82</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G149" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H149" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I149" t="s" s="2">
         <v>82</v>
@@ -20523,16 +20527,16 @@
         <v>198</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>444</v>
+        <v>602</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>445</v>
+        <v>603</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>446</v>
+        <v>604</v>
       </c>
       <c r="O149" t="s" s="2">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="P149" t="s" s="2">
         <v>82</v>
@@ -20557,13 +20561,11 @@
         <v>82</v>
       </c>
       <c r="X149" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="Y149" t="s" s="2">
-        <v>448</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="Y149" s="2"/>
       <c r="Z149" t="s" s="2">
-        <v>449</v>
+        <v>605</v>
       </c>
       <c r="AA149" t="s" s="2">
         <v>82</v>
@@ -20581,16 +20583,16 @@
         <v>82</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH149" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>104</v>
+        <v>440</v>
       </c>
       <c r="AJ149" t="s" s="2">
         <v>105</v>
@@ -20599,31 +20601,31 @@
         <v>82</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>450</v>
+        <v>82</v>
       </c>
       <c r="AM149" t="s" s="2">
-        <v>451</v>
+        <v>106</v>
       </c>
       <c r="AN149" t="s" s="2">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="AO149" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP149" t="s" s="2">
-        <v>453</v>
+        <v>82</v>
       </c>
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
-        <v>82</v>
+        <v>443</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" t="s" s="2">
@@ -20642,19 +20644,19 @@
         <v>82</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>83</v>
+        <v>198</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>605</v>
+        <v>444</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>606</v>
+        <v>445</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>503</v>
+        <v>446</v>
       </c>
       <c r="O150" t="s" s="2">
-        <v>504</v>
+        <v>447</v>
       </c>
       <c r="P150" t="s" s="2">
         <v>82</v>
@@ -20679,13 +20681,13 @@
         <v>82</v>
       </c>
       <c r="X150" t="s" s="2">
-        <v>82</v>
+        <v>437</v>
       </c>
       <c r="Y150" t="s" s="2">
-        <v>82</v>
+        <v>448</v>
       </c>
       <c r="Z150" t="s" s="2">
-        <v>82</v>
+        <v>449</v>
       </c>
       <c r="AA150" t="s" s="2">
         <v>82</v>
@@ -20703,7 +20705,7 @@
         <v>82</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>80</v>
@@ -20712,40 +20714,38 @@
         <v>81</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ150" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK150" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>82</v>
+        <v>450</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>506</v>
+        <v>451</v>
       </c>
       <c r="AN150" t="s" s="2">
-        <v>507</v>
+        <v>452</v>
       </c>
       <c r="AO150" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP150" t="s" s="2">
-        <v>82</v>
+        <v>453</v>
       </c>
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="C151" t="s" s="2">
-        <v>669</v>
-      </c>
+        <v>607</v>
+      </c>
+      <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
         <v>82</v>
       </c>
@@ -20754,7 +20754,7 @@
         <v>80</v>
       </c>
       <c r="G151" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H151" t="s" s="2">
         <v>82</v>
@@ -20763,22 +20763,22 @@
         <v>82</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>500</v>
+        <v>83</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>571</v>
+        <v>608</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>572</v>
+        <v>609</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>573</v>
+        <v>503</v>
       </c>
       <c r="O151" t="s" s="2">
-        <v>574</v>
+        <v>504</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>82</v>
@@ -20827,7 +20827,7 @@
         <v>82</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>570</v>
+        <v>607</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>80</v>
@@ -20836,7 +20836,7 @@
         <v>81</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ151" t="s" s="2">
         <v>82</v>
@@ -20848,10 +20848,10 @@
         <v>82</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>577</v>
+        <v>506</v>
       </c>
       <c r="AN151" t="s" s="2">
-        <v>578</v>
+        <v>507</v>
       </c>
       <c r="AO151" t="s" s="2">
         <v>82</v>
@@ -20862,12 +20862,14 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="C152" s="2"/>
+        <v>570</v>
+      </c>
+      <c r="C152" t="s" s="2">
+        <v>669</v>
+      </c>
       <c r="D152" t="s" s="2">
         <v>82</v>
       </c>
@@ -20885,19 +20887,23 @@
         <v>82</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>215</v>
+        <v>500</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>216</v>
+        <v>571</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N152" s="2"/>
-      <c r="O152" s="2"/>
+        <v>572</v>
+      </c>
+      <c r="N152" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="O152" t="s" s="2">
+        <v>574</v>
+      </c>
       <c r="P152" t="s" s="2">
         <v>82</v>
       </c>
@@ -20945,16 +20951,16 @@
         <v>82</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>218</v>
+        <v>570</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH152" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ152" t="s" s="2">
         <v>82</v>
@@ -20966,10 +20972,10 @@
         <v>82</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>82</v>
+        <v>577</v>
       </c>
       <c r="AN152" t="s" s="2">
-        <v>113</v>
+        <v>578</v>
       </c>
       <c r="AO152" t="s" s="2">
         <v>82</v>
@@ -20980,21 +20986,21 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G153" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H153" t="s" s="2">
         <v>82</v>
@@ -21006,17 +21012,15 @@
         <v>82</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N153" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N153" s="2"/>
       <c r="O153" s="2"/>
       <c r="P153" t="s" s="2">
         <v>82</v>
@@ -21053,31 +21057,31 @@
         <v>82</v>
       </c>
       <c r="AB153" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC153" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD153" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH153" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="AK153" t="s" s="2">
         <v>82</v>
@@ -21089,7 +21093,7 @@
         <v>82</v>
       </c>
       <c r="AN153" t="s" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="AO153" t="s" s="2">
         <v>82</v>
@@ -21100,14 +21104,14 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
-        <v>511</v>
+        <v>139</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154" t="s" s="2">
@@ -21120,26 +21124,24 @@
         <v>82</v>
       </c>
       <c r="I154" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K154" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>512</v>
+        <v>141</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>513</v>
+        <v>221</v>
       </c>
       <c r="N154" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="O154" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="O154" s="2"/>
       <c r="P154" t="s" s="2">
         <v>82</v>
       </c>
@@ -21175,19 +21177,19 @@
         <v>82</v>
       </c>
       <c r="AB154" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC154" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD154" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>514</v>
+        <v>222</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>80</v>
@@ -21222,45 +21224,45 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
-        <v>674</v>
+        <v>511</v>
       </c>
       <c r="E155" s="2"/>
       <c r="F155" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G155" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H155" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I155" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J155" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>675</v>
+        <v>512</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>676</v>
+        <v>513</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>616</v>
+        <v>143</v>
       </c>
       <c r="O155" t="s" s="2">
-        <v>340</v>
+        <v>152</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>82</v>
@@ -21285,13 +21287,13 @@
         <v>82</v>
       </c>
       <c r="X155" t="s" s="2">
-        <v>341</v>
+        <v>82</v>
       </c>
       <c r="Y155" t="s" s="2">
-        <v>342</v>
+        <v>82</v>
       </c>
       <c r="Z155" t="s" s="2">
-        <v>343</v>
+        <v>82</v>
       </c>
       <c r="AA155" t="s" s="2">
         <v>82</v>
@@ -21309,34 +21311,34 @@
         <v>82</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>582</v>
+        <v>514</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH155" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI155" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ155" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AK155" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>586</v>
+        <v>82</v>
       </c>
       <c r="AM155" t="s" s="2">
-        <v>346</v>
+        <v>82</v>
       </c>
       <c r="AN155" t="s" s="2">
-        <v>347</v>
+        <v>106</v>
       </c>
       <c r="AO155" t="s" s="2">
-        <v>348</v>
+        <v>82</v>
       </c>
       <c r="AP155" t="s" s="2">
         <v>82</v>
@@ -21344,18 +21346,18 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
-        <v>82</v>
+        <v>674</v>
       </c>
       <c r="E156" s="2"/>
       <c r="F156" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G156" t="s" s="2">
         <v>92</v>
@@ -21367,19 +21369,23 @@
         <v>82</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>216</v>
+        <v>675</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N156" s="2"/>
-      <c r="O156" s="2"/>
+        <v>676</v>
+      </c>
+      <c r="N156" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="O156" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="P156" t="s" s="2">
         <v>82</v>
       </c>
@@ -21403,13 +21409,13 @@
         <v>82</v>
       </c>
       <c r="X156" t="s" s="2">
-        <v>82</v>
+        <v>341</v>
       </c>
       <c r="Y156" t="s" s="2">
-        <v>82</v>
+        <v>342</v>
       </c>
       <c r="Z156" t="s" s="2">
-        <v>82</v>
+        <v>343</v>
       </c>
       <c r="AA156" t="s" s="2">
         <v>82</v>
@@ -21427,16 +21433,16 @@
         <v>82</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>218</v>
+        <v>582</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH156" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ156" t="s" s="2">
         <v>82</v>
@@ -21445,16 +21451,16 @@
         <v>82</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>82</v>
+        <v>586</v>
       </c>
       <c r="AM156" t="s" s="2">
-        <v>82</v>
+        <v>346</v>
       </c>
       <c r="AN156" t="s" s="2">
-        <v>113</v>
+        <v>347</v>
       </c>
       <c r="AO156" t="s" s="2">
-        <v>82</v>
+        <v>348</v>
       </c>
       <c r="AP156" t="s" s="2">
         <v>82</v>
@@ -21462,21 +21468,21 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G157" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H157" t="s" s="2">
         <v>82</v>
@@ -21488,17 +21494,15 @@
         <v>82</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N157" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N157" s="2"/>
       <c r="O157" s="2"/>
       <c r="P157" t="s" s="2">
         <v>82</v>
@@ -21535,31 +21539,31 @@
         <v>82</v>
       </c>
       <c r="AB157" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC157" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD157" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH157" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI157" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ157" t="s" s="2">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="AK157" t="s" s="2">
         <v>82</v>
@@ -21571,7 +21575,7 @@
         <v>82</v>
       </c>
       <c r="AN157" t="s" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="AO157" t="s" s="2">
         <v>82</v>
@@ -21582,14 +21586,14 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" t="s" s="2">
@@ -21605,23 +21609,21 @@
         <v>82</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>225</v>
+        <v>140</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>226</v>
+        <v>141</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O158" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O158" s="2"/>
       <c r="P158" t="s" s="2">
         <v>82</v>
       </c>
@@ -21657,9 +21659,11 @@
         <v>82</v>
       </c>
       <c r="AB158" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="AC158" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="AC158" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="AD158" t="s" s="2">
         <v>82</v>
       </c>
@@ -21667,7 +21671,7 @@
         <v>146</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>80</v>
@@ -21679,7 +21683,7 @@
         <v>104</v>
       </c>
       <c r="AJ158" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK158" t="s" s="2">
         <v>82</v>
@@ -21688,10 +21692,10 @@
         <v>82</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>231</v>
+        <v>82</v>
       </c>
       <c r="AN158" t="s" s="2">
-        <v>232</v>
+        <v>106</v>
       </c>
       <c r="AO158" t="s" s="2">
         <v>82</v>
@@ -21702,14 +21706,12 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="C159" t="s" s="2">
-        <v>681</v>
-      </c>
+      <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
         <v>82</v>
       </c>
@@ -21718,10 +21720,10 @@
         <v>80</v>
       </c>
       <c r="G159" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H159" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I159" t="s" s="2">
         <v>82</v>
@@ -21779,16 +21781,16 @@
         <v>82</v>
       </c>
       <c r="AB159" t="s" s="2">
-        <v>82</v>
+        <v>575</v>
       </c>
       <c r="AC159" t="s" s="2">
-        <v>82</v>
+        <v>623</v>
       </c>
       <c r="AD159" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>230</v>
@@ -21826,12 +21828,14 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="C160" s="2"/>
+        <v>589</v>
+      </c>
+      <c r="C160" t="s" s="2">
+        <v>681</v>
+      </c>
       <c r="D160" t="s" s="2">
         <v>82</v>
       </c>
@@ -21843,25 +21847,29 @@
         <v>92</v>
       </c>
       <c r="H160" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I160" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N160" s="2"/>
-      <c r="O160" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="N160" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="O160" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="P160" t="s" s="2">
         <v>82</v>
       </c>
@@ -21909,19 +21917,19 @@
         <v>82</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH160" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI160" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ160" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK160" t="s" s="2">
         <v>82</v>
@@ -21930,10 +21938,10 @@
         <v>82</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>82</v>
+        <v>231</v>
       </c>
       <c r="AN160" t="s" s="2">
-        <v>113</v>
+        <v>232</v>
       </c>
       <c r="AO160" t="s" s="2">
         <v>82</v>
@@ -21944,21 +21952,21 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E161" s="2"/>
       <c r="F161" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G161" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H161" t="s" s="2">
         <v>82</v>
@@ -21970,17 +21978,15 @@
         <v>82</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N161" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N161" s="2"/>
       <c r="O161" s="2"/>
       <c r="P161" t="s" s="2">
         <v>82</v>
@@ -22017,31 +22023,31 @@
         <v>82</v>
       </c>
       <c r="AB161" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC161" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD161" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH161" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ161" t="s" s="2">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="AK161" t="s" s="2">
         <v>82</v>
@@ -22053,7 +22059,7 @@
         <v>82</v>
       </c>
       <c r="AN161" t="s" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="AO161" t="s" s="2">
         <v>82</v>
@@ -22064,21 +22070,21 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E162" s="2"/>
       <c r="F162" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G162" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H162" t="s" s="2">
         <v>82</v>
@@ -22087,29 +22093,27 @@
         <v>82</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>239</v>
+        <v>141</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O162" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O162" s="2"/>
       <c r="P162" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q162" s="2"/>
       <c r="R162" t="s" s="2">
-        <v>300</v>
+        <v>82</v>
       </c>
       <c r="S162" t="s" s="2">
         <v>82</v>
@@ -22139,31 +22143,31 @@
         <v>82</v>
       </c>
       <c r="AB162" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC162" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD162" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH162" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI162" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ162" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK162" t="s" s="2">
         <v>82</v>
@@ -22172,10 +22176,10 @@
         <v>82</v>
       </c>
       <c r="AM162" t="s" s="2">
-        <v>245</v>
+        <v>82</v>
       </c>
       <c r="AN162" t="s" s="2">
-        <v>246</v>
+        <v>106</v>
       </c>
       <c r="AO162" t="s" s="2">
         <v>82</v>
@@ -22186,10 +22190,10 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -22212,24 +22216,26 @@
         <v>93</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>215</v>
+        <v>108</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O163" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="O163" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="P163" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q163" s="2"/>
       <c r="R163" t="s" s="2">
-        <v>82</v>
+        <v>300</v>
       </c>
       <c r="S163" t="s" s="2">
         <v>82</v>
@@ -22271,7 +22277,7 @@
         <v>82</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>80</v>
@@ -22292,10 +22298,10 @@
         <v>82</v>
       </c>
       <c r="AM163" t="s" s="2">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="AN163" t="s" s="2">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="AO163" t="s" s="2">
         <v>82</v>
@@ -22306,10 +22312,10 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -22332,26 +22338,24 @@
         <v>93</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>115</v>
+        <v>215</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O164" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="O164" s="2"/>
       <c r="P164" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q164" s="2"/>
       <c r="R164" t="s" s="2">
-        <v>687</v>
+        <v>82</v>
       </c>
       <c r="S164" t="s" s="2">
         <v>82</v>
@@ -22393,7 +22397,7 @@
         <v>82</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>80</v>
@@ -22414,10 +22418,10 @@
         <v>82</v>
       </c>
       <c r="AM164" t="s" s="2">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="AN164" t="s" s="2">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="AO164" t="s" s="2">
         <v>82</v>
@@ -22428,7 +22432,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>635</v>
@@ -22439,7 +22443,7 @@
       </c>
       <c r="E165" s="2"/>
       <c r="F165" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G165" t="s" s="2">
         <v>92</v>
@@ -22454,26 +22458,26 @@
         <v>93</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="N165" t="s" s="2">
         <v>259</v>
       </c>
       <c r="O165" t="s" s="2">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="P165" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q165" s="2"/>
       <c r="R165" t="s" s="2">
-        <v>82</v>
+        <v>687</v>
       </c>
       <c r="S165" t="s" s="2">
         <v>82</v>
@@ -22515,7 +22519,7 @@
         <v>82</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>80</v>
@@ -22536,10 +22540,10 @@
         <v>82</v>
       </c>
       <c r="AM165" t="s" s="2">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="AN165" t="s" s="2">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="AO165" t="s" s="2">
         <v>82</v>
@@ -22550,10 +22554,10 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -22576,19 +22580,19 @@
         <v>93</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>275</v>
+        <v>215</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="O166" t="s" s="2">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="P166" t="s" s="2">
         <v>82</v>
@@ -22637,7 +22641,7 @@
         <v>82</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>80</v>
@@ -22658,10 +22662,10 @@
         <v>82</v>
       </c>
       <c r="AM166" t="s" s="2">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="AN166" t="s" s="2">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="AO166" t="s" s="2">
         <v>82</v>
@@ -22672,14 +22676,12 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="C167" t="s" s="2">
-        <v>691</v>
-      </c>
+        <v>640</v>
+      </c>
+      <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
         <v>82</v>
       </c>
@@ -22691,7 +22693,7 @@
         <v>92</v>
       </c>
       <c r="H167" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I167" t="s" s="2">
         <v>82</v>
@@ -22700,19 +22702,19 @@
         <v>93</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>225</v>
+        <v>275</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>226</v>
+        <v>276</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>227</v>
+        <v>277</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>228</v>
+        <v>278</v>
       </c>
       <c r="O167" t="s" s="2">
-        <v>229</v>
+        <v>279</v>
       </c>
       <c r="P167" t="s" s="2">
         <v>82</v>
@@ -22761,13 +22763,13 @@
         <v>82</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH167" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI167" t="s" s="2">
         <v>104</v>
@@ -22782,10 +22784,10 @@
         <v>82</v>
       </c>
       <c r="AM167" t="s" s="2">
-        <v>231</v>
+        <v>281</v>
       </c>
       <c r="AN167" t="s" s="2">
-        <v>232</v>
+        <v>282</v>
       </c>
       <c r="AO167" t="s" s="2">
         <v>82</v>
@@ -22796,12 +22798,14 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="C168" s="2"/>
+        <v>589</v>
+      </c>
+      <c r="C168" t="s" s="2">
+        <v>691</v>
+      </c>
       <c r="D168" t="s" s="2">
         <v>82</v>
       </c>
@@ -22813,25 +22817,29 @@
         <v>92</v>
       </c>
       <c r="H168" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I168" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N168" s="2"/>
-      <c r="O168" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="N168" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="O168" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="P168" t="s" s="2">
         <v>82</v>
       </c>
@@ -22879,19 +22887,19 @@
         <v>82</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH168" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI168" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ168" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK168" t="s" s="2">
         <v>82</v>
@@ -22900,10 +22908,10 @@
         <v>82</v>
       </c>
       <c r="AM168" t="s" s="2">
-        <v>82</v>
+        <v>231</v>
       </c>
       <c r="AN168" t="s" s="2">
-        <v>113</v>
+        <v>232</v>
       </c>
       <c r="AO168" t="s" s="2">
         <v>82</v>
@@ -22914,21 +22922,21 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E169" s="2"/>
       <c r="F169" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G169" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H169" t="s" s="2">
         <v>82</v>
@@ -22940,17 +22948,15 @@
         <v>82</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N169" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N169" s="2"/>
       <c r="O169" s="2"/>
       <c r="P169" t="s" s="2">
         <v>82</v>
@@ -22987,31 +22993,31 @@
         <v>82</v>
       </c>
       <c r="AB169" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC169" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD169" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH169" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI169" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ169" t="s" s="2">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="AK169" t="s" s="2">
         <v>82</v>
@@ -23023,7 +23029,7 @@
         <v>82</v>
       </c>
       <c r="AN169" t="s" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="AO169" t="s" s="2">
         <v>82</v>
@@ -23034,21 +23040,21 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E170" s="2"/>
       <c r="F170" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G170" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H170" t="s" s="2">
         <v>82</v>
@@ -23057,29 +23063,27 @@
         <v>82</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>239</v>
+        <v>141</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O170" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O170" s="2"/>
       <c r="P170" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q170" s="2"/>
       <c r="R170" t="s" s="2">
-        <v>243</v>
+        <v>82</v>
       </c>
       <c r="S170" t="s" s="2">
         <v>82</v>
@@ -23109,31 +23113,31 @@
         <v>82</v>
       </c>
       <c r="AB170" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC170" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD170" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH170" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI170" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ170" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK170" t="s" s="2">
         <v>82</v>
@@ -23142,10 +23146,10 @@
         <v>82</v>
       </c>
       <c r="AM170" t="s" s="2">
-        <v>245</v>
+        <v>82</v>
       </c>
       <c r="AN170" t="s" s="2">
-        <v>246</v>
+        <v>106</v>
       </c>
       <c r="AO170" t="s" s="2">
         <v>82</v>
@@ -23156,10 +23160,10 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -23182,24 +23186,26 @@
         <v>93</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>215</v>
+        <v>108</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O171" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="O171" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="P171" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q171" s="2"/>
       <c r="R171" t="s" s="2">
-        <v>82</v>
+        <v>243</v>
       </c>
       <c r="S171" t="s" s="2">
         <v>82</v>
@@ -23241,7 +23247,7 @@
         <v>82</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>80</v>
@@ -23262,10 +23268,10 @@
         <v>82</v>
       </c>
       <c r="AM171" t="s" s="2">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="AN171" t="s" s="2">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="AO171" t="s" s="2">
         <v>82</v>
@@ -23276,10 +23282,10 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -23302,26 +23308,24 @@
         <v>93</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>115</v>
+        <v>215</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O172" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="O172" s="2"/>
       <c r="P172" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q172" s="2"/>
       <c r="R172" t="s" s="2">
-        <v>697</v>
+        <v>82</v>
       </c>
       <c r="S172" t="s" s="2">
         <v>82</v>
@@ -23363,7 +23367,7 @@
         <v>82</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>80</v>
@@ -23384,10 +23388,10 @@
         <v>82</v>
       </c>
       <c r="AM172" t="s" s="2">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="AN172" t="s" s="2">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="AO172" t="s" s="2">
         <v>82</v>
@@ -23398,7 +23402,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>635</v>
@@ -23409,7 +23413,7 @@
       </c>
       <c r="E173" s="2"/>
       <c r="F173" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G173" t="s" s="2">
         <v>92</v>
@@ -23424,26 +23428,26 @@
         <v>93</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="N173" t="s" s="2">
         <v>259</v>
       </c>
       <c r="O173" t="s" s="2">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="P173" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q173" s="2"/>
       <c r="R173" t="s" s="2">
-        <v>82</v>
+        <v>697</v>
       </c>
       <c r="S173" t="s" s="2">
         <v>82</v>
@@ -23485,7 +23489,7 @@
         <v>82</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>80</v>
@@ -23506,10 +23510,10 @@
         <v>82</v>
       </c>
       <c r="AM173" t="s" s="2">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="AN173" t="s" s="2">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="AO173" t="s" s="2">
         <v>82</v>
@@ -23520,10 +23524,10 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -23546,19 +23550,19 @@
         <v>93</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>275</v>
+        <v>215</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="O174" t="s" s="2">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="P174" t="s" s="2">
         <v>82</v>
@@ -23607,7 +23611,7 @@
         <v>82</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>80</v>
@@ -23628,10 +23632,10 @@
         <v>82</v>
       </c>
       <c r="AM174" t="s" s="2">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="AN174" t="s" s="2">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="AO174" t="s" s="2">
         <v>82</v>
@@ -23642,10 +23646,10 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>590</v>
+        <v>640</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -23668,19 +23672,19 @@
         <v>93</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>215</v>
+        <v>275</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="O175" t="s" s="2">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="P175" t="s" s="2">
         <v>82</v>
@@ -23729,7 +23733,7 @@
         <v>82</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>80</v>
@@ -23750,10 +23754,10 @@
         <v>82</v>
       </c>
       <c r="AM175" t="s" s="2">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="AN175" t="s" s="2">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="AO175" t="s" s="2">
         <v>82</v>
@@ -23764,10 +23768,10 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -23790,19 +23794,19 @@
         <v>93</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>650</v>
+        <v>215</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>592</v>
+        <v>285</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>421</v>
+        <v>286</v>
       </c>
       <c r="N176" t="s" s="2">
-        <v>593</v>
+        <v>287</v>
       </c>
       <c r="O176" t="s" s="2">
-        <v>423</v>
+        <v>288</v>
       </c>
       <c r="P176" t="s" s="2">
         <v>82</v>
@@ -23839,17 +23843,19 @@
         <v>82</v>
       </c>
       <c r="AB176" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="AC176" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC176" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD176" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>594</v>
+        <v>82</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>591</v>
+        <v>289</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>80</v>
@@ -23867,31 +23873,29 @@
         <v>82</v>
       </c>
       <c r="AL176" t="s" s="2">
-        <v>595</v>
+        <v>82</v>
       </c>
       <c r="AM176" t="s" s="2">
-        <v>427</v>
+        <v>290</v>
       </c>
       <c r="AN176" t="s" s="2">
-        <v>428</v>
+        <v>291</v>
       </c>
       <c r="AO176" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP176" t="s" s="2">
-        <v>429</v>
+        <v>82</v>
       </c>
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="C177" t="s" s="2">
-        <v>652</v>
-      </c>
+      <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
         <v>82</v>
       </c>
@@ -23912,16 +23916,16 @@
         <v>93</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>653</v>
+        <v>419</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M177" t="s" s="2">
         <v>421</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>423</v>
@@ -23961,16 +23965,14 @@
         <v>82</v>
       </c>
       <c r="AB177" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC177" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="AC177" s="2"/>
       <c r="AD177" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>82</v>
+        <v>595</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>591</v>
@@ -23985,13 +23987,13 @@
         <v>104</v>
       </c>
       <c r="AJ177" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK177" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL177" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AM177" t="s" s="2">
         <v>427</v>
@@ -24008,12 +24010,14 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="C178" s="2"/>
+        <v>591</v>
+      </c>
+      <c r="C178" t="s" s="2">
+        <v>598</v>
+      </c>
       <c r="D178" t="s" s="2">
         <v>82</v>
       </c>
@@ -24031,19 +24035,23 @@
         <v>82</v>
       </c>
       <c r="J178" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>215</v>
+        <v>592</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>216</v>
+        <v>593</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N178" s="2"/>
-      <c r="O178" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="N178" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="O178" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="P178" t="s" s="2">
         <v>82</v>
       </c>
@@ -24091,7 +24099,7 @@
         <v>82</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>218</v>
+        <v>591</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>80</v>
@@ -24100,7 +24108,7 @@
         <v>92</v>
       </c>
       <c r="AI178" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ178" t="s" s="2">
         <v>82</v>
@@ -24109,38 +24117,38 @@
         <v>82</v>
       </c>
       <c r="AL178" t="s" s="2">
-        <v>82</v>
+        <v>596</v>
       </c>
       <c r="AM178" t="s" s="2">
-        <v>82</v>
+        <v>427</v>
       </c>
       <c r="AN178" t="s" s="2">
-        <v>113</v>
+        <v>428</v>
       </c>
       <c r="AO178" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP178" t="s" s="2">
-        <v>82</v>
+        <v>429</v>
       </c>
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E179" s="2"/>
       <c r="F179" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G179" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H179" t="s" s="2">
         <v>82</v>
@@ -24152,17 +24160,15 @@
         <v>82</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N179" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N179" s="2"/>
       <c r="O179" s="2"/>
       <c r="P179" t="s" s="2">
         <v>82</v>
@@ -24199,31 +24205,31 @@
         <v>82</v>
       </c>
       <c r="AB179" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC179" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD179" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH179" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI179" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ179" t="s" s="2">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="AK179" t="s" s="2">
         <v>82</v>
@@ -24235,7 +24241,7 @@
         <v>82</v>
       </c>
       <c r="AN179" t="s" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="AO179" t="s" s="2">
         <v>82</v>
@@ -24246,24 +24252,24 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E180" s="2"/>
       <c r="F180" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G180" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H180" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I180" t="s" s="2">
         <v>82</v>
@@ -24272,22 +24278,24 @@
         <v>82</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>653</v>
+        <v>140</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>660</v>
+        <v>141</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="N180" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N180" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O180" s="2"/>
       <c r="P180" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q180" s="2"/>
       <c r="R180" t="s" s="2">
-        <v>706</v>
+        <v>82</v>
       </c>
       <c r="S180" t="s" s="2">
         <v>82</v>
@@ -24296,10 +24304,10 @@
         <v>82</v>
       </c>
       <c r="U180" t="s" s="2">
-        <v>661</v>
+        <v>82</v>
       </c>
       <c r="V180" t="s" s="2">
-        <v>662</v>
+        <v>82</v>
       </c>
       <c r="W180" t="s" s="2">
         <v>82</v>
@@ -24317,31 +24325,31 @@
         <v>82</v>
       </c>
       <c r="AB180" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC180" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD180" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF180" t="s" s="2">
-        <v>663</v>
+        <v>222</v>
       </c>
       <c r="AG180" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH180" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI180" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ180" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AK180" t="s" s="2">
         <v>82</v>
@@ -24353,7 +24361,7 @@
         <v>82</v>
       </c>
       <c r="AN180" t="s" s="2">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="AO180" t="s" s="2">
         <v>82</v>
@@ -24364,54 +24372,48 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="C181" t="s" s="2">
-        <v>431</v>
-      </c>
+        <v>659</v>
+      </c>
+      <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E181" s="2"/>
       <c r="F181" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G181" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H181" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I181" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J181" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>198</v>
+        <v>592</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>592</v>
+        <v>660</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N181" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="O181" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>660</v>
+      </c>
+      <c r="N181" s="2"/>
+      <c r="O181" s="2"/>
       <c r="P181" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q181" s="2"/>
       <c r="R181" t="s" s="2">
-        <v>82</v>
+        <v>706</v>
       </c>
       <c r="S181" t="s" s="2">
         <v>82</v>
@@ -24420,20 +24422,22 @@
         <v>82</v>
       </c>
       <c r="U181" t="s" s="2">
-        <v>82</v>
+        <v>661</v>
       </c>
       <c r="V181" t="s" s="2">
-        <v>82</v>
+        <v>662</v>
       </c>
       <c r="W181" t="s" s="2">
         <v>82</v>
       </c>
       <c r="X181" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="Y181" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y181" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z181" t="s" s="2">
-        <v>597</v>
+        <v>82</v>
       </c>
       <c r="AA181" t="s" s="2">
         <v>82</v>
@@ -24451,7 +24455,7 @@
         <v>82</v>
       </c>
       <c r="AF181" t="s" s="2">
-        <v>591</v>
+        <v>663</v>
       </c>
       <c r="AG181" t="s" s="2">
         <v>80</v>
@@ -24460,38 +24464,40 @@
         <v>92</v>
       </c>
       <c r="AI181" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ181" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK181" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL181" t="s" s="2">
-        <v>595</v>
+        <v>82</v>
       </c>
       <c r="AM181" t="s" s="2">
-        <v>427</v>
+        <v>82</v>
       </c>
       <c r="AN181" t="s" s="2">
-        <v>428</v>
+        <v>82</v>
       </c>
       <c r="AO181" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP181" t="s" s="2">
-        <v>429</v>
+        <v>82</v>
       </c>
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="C182" s="2"/>
+        <v>591</v>
+      </c>
+      <c r="C182" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="D182" t="s" s="2">
         <v>82</v>
       </c>
@@ -24503,28 +24509,28 @@
         <v>92</v>
       </c>
       <c r="H182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J182" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="I182" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J182" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="K182" t="s" s="2">
         <v>198</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>600</v>
+        <v>421</v>
       </c>
       <c r="N182" t="s" s="2">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="O182" t="s" s="2">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="P182" t="s" s="2">
         <v>82</v>
@@ -24553,7 +24559,7 @@
       </c>
       <c r="Y182" s="2"/>
       <c r="Z182" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="AA182" t="s" s="2">
         <v>82</v>
@@ -24571,7 +24577,7 @@
         <v>82</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="AG182" t="s" s="2">
         <v>80</v>
@@ -24580,7 +24586,7 @@
         <v>92</v>
       </c>
       <c r="AI182" t="s" s="2">
-        <v>440</v>
+        <v>104</v>
       </c>
       <c r="AJ182" t="s" s="2">
         <v>105</v>
@@ -24589,41 +24595,41 @@
         <v>82</v>
       </c>
       <c r="AL182" t="s" s="2">
-        <v>82</v>
+        <v>596</v>
       </c>
       <c r="AM182" t="s" s="2">
-        <v>106</v>
+        <v>427</v>
       </c>
       <c r="AN182" t="s" s="2">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="AO182" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP182" t="s" s="2">
-        <v>82</v>
+        <v>429</v>
       </c>
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
-        <v>443</v>
+        <v>82</v>
       </c>
       <c r="E183" s="2"/>
       <c r="F183" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G183" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H183" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I183" t="s" s="2">
         <v>82</v>
@@ -24635,16 +24641,16 @@
         <v>198</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>444</v>
+        <v>602</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>445</v>
+        <v>603</v>
       </c>
       <c r="N183" t="s" s="2">
-        <v>446</v>
+        <v>604</v>
       </c>
       <c r="O183" t="s" s="2">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="P183" t="s" s="2">
         <v>82</v>
@@ -24669,13 +24675,11 @@
         <v>82</v>
       </c>
       <c r="X183" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="Y183" t="s" s="2">
-        <v>448</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="Y183" s="2"/>
       <c r="Z183" t="s" s="2">
-        <v>449</v>
+        <v>605</v>
       </c>
       <c r="AA183" t="s" s="2">
         <v>82</v>
@@ -24693,16 +24697,16 @@
         <v>82</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH183" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI183" t="s" s="2">
-        <v>104</v>
+        <v>440</v>
       </c>
       <c r="AJ183" t="s" s="2">
         <v>105</v>
@@ -24711,31 +24715,31 @@
         <v>82</v>
       </c>
       <c r="AL183" t="s" s="2">
-        <v>450</v>
+        <v>82</v>
       </c>
       <c r="AM183" t="s" s="2">
-        <v>451</v>
+        <v>106</v>
       </c>
       <c r="AN183" t="s" s="2">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="AO183" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP183" t="s" s="2">
-        <v>453</v>
+        <v>82</v>
       </c>
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
-        <v>82</v>
+        <v>443</v>
       </c>
       <c r="E184" s="2"/>
       <c r="F184" t="s" s="2">
@@ -24754,19 +24758,19 @@
         <v>82</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>83</v>
+        <v>198</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>605</v>
+        <v>444</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>606</v>
+        <v>445</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>503</v>
+        <v>446</v>
       </c>
       <c r="O184" t="s" s="2">
-        <v>504</v>
+        <v>447</v>
       </c>
       <c r="P184" t="s" s="2">
         <v>82</v>
@@ -24791,13 +24795,13 @@
         <v>82</v>
       </c>
       <c r="X184" t="s" s="2">
-        <v>82</v>
+        <v>437</v>
       </c>
       <c r="Y184" t="s" s="2">
-        <v>82</v>
+        <v>448</v>
       </c>
       <c r="Z184" t="s" s="2">
-        <v>82</v>
+        <v>449</v>
       </c>
       <c r="AA184" t="s" s="2">
         <v>82</v>
@@ -24815,7 +24819,7 @@
         <v>82</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="AG184" t="s" s="2">
         <v>80</v>
@@ -24824,32 +24828,154 @@
         <v>81</v>
       </c>
       <c r="AI184" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ184" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK184" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL184" t="s" s="2">
-        <v>82</v>
+        <v>450</v>
       </c>
       <c r="AM184" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AN184" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AO184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP184" t="s" s="2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="185" hidden="true">
+      <c r="A185" t="s" s="2">
+        <v>710</v>
+      </c>
+      <c r="B185" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="C185" s="2"/>
+      <c r="D185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E185" s="2"/>
+      <c r="F185" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G185" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K185" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L185" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="M185" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="N185" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="O185" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="P185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q185" s="2"/>
+      <c r="R185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF185" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="AG185" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH185" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM185" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="AN184" t="s" s="2">
+      <c r="AN185" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="AO184" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP184" t="s" s="2">
+      <c r="AO185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP185" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP184">
+  <autoFilter ref="A1:AP185">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -24859,7 +24985,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI183">
+  <conditionalFormatting sqref="A2:AI184">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-rv-biological-sex.xlsx
+++ b/output/StructureDefinition-rv-biological-sex.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7159" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7159" uniqueCount="712">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T15:03:50+02:00</t>
+    <t>2023-04-02T11:40:39+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1807,153 +1807,157 @@
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:code}
+</t>
+  </si>
+  <si>
+    <t>Slice basiert auf code</t>
+  </si>
+  <si>
+    <t>containment by OBX-4?</t>
+  </si>
+  <si>
+    <t>outBoundRelationship[typeCode=COMP]</t>
+  </si>
+  <si>
+    <t>Observation.component.id</t>
+  </si>
+  <si>
+    <t>Observation.component.extension</t>
+  </si>
+  <si>
+    <t>Observation.component.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.component.code</t>
+  </si>
+  <si>
+    <t>Type of component observation (code / type)</t>
+  </si>
+  <si>
+    <t>Describes what was observed. Sometimes this is called the observation "code".</t>
+  </si>
+  <si>
+    <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
+  </si>
+  <si>
+    <t>&lt; 363787002 |Observable entity| OR +&lt; 386053000 |Evaluation procedure|</t>
+  </si>
+  <si>
+    <t>Observation.component.code.id</t>
+  </si>
+  <si>
+    <t>Observation.component.code.extension</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding</t>
+  </si>
+  <si>
+    <t>Observation.component.code.text</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integer
+</t>
+  </si>
+  <si>
+    <t>Actual component result</t>
+  </si>
+  <si>
+    <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>363714003 |Interprets| &lt; 441742003 |Evaluation finding|</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x]:valueInteger</t>
+  </si>
+  <si>
+    <t>valueInteger</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>http://hl7.org/de/ValueSet/vs-biological-gender</t>
+  </si>
+  <si>
+    <t>Observation.component.dataAbsentReason</t>
+  </si>
+  <si>
+    <t>Why the component result is missing</t>
+  </si>
+  <si>
+    <t>Provides a reason why the expected value in the element Observation.component.value[x] is missing.</t>
+  </si>
+  <si>
+    <t>"Null" or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "test not done". 
+The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed.  Because of these options, use-case agreements are required to interpret general observations for exceptional values.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/de/ValueSet/vs-sentinel-conceptual-domain</t>
+  </si>
+  <si>
+    <t>Observation.component.interpretation</t>
+  </si>
+  <si>
+    <t>Observation.component.referenceRange</t>
+  </si>
+  <si>
+    <t>Provides guide for interpretation of component result</t>
+  </si>
+  <si>
+    <t>Guidance on how to interpret the value by comparison to a normal or recommended range.</t>
+  </si>
+  <si>
+    <t>Observation.component:male</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>Observation.component:male.id</t>
+  </si>
+  <si>
+    <t>Observation.component:male.extension</t>
+  </si>
+  <si>
+    <t>Observation.component:male.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.component:male.code</t>
+  </si>
+  <si>
+    <t>Masculine
+Männlich</t>
+  </si>
+  <si>
+    <t>Male sex</t>
+  </si>
+  <si>
+    <t>Biological male sex</t>
+  </si>
+  <si>
+    <t>Zusätzliche Codes, die diesen Code übersetzen oder abbilden, sind erlaubt. Beispielsweise ein granularerer LOINC-Code oder Code, der lokal in einem System verwendet wird.</t>
+  </si>
+  <si>
+    <t>Observation.component:male.code.id</t>
+  </si>
+  <si>
+    <t>Observation.component:male.code.extension</t>
+  </si>
+  <si>
+    <t>Observation.component:male.code.coding</t>
+  </si>
+  <si>
     <t xml:space="preserve">value:$this.code}
 </t>
-  </si>
-  <si>
-    <t>Slice basiert auf $this.code</t>
-  </si>
-  <si>
-    <t>containment by OBX-4?</t>
-  </si>
-  <si>
-    <t>outBoundRelationship[typeCode=COMP]</t>
-  </si>
-  <si>
-    <t>Observation.component.id</t>
-  </si>
-  <si>
-    <t>Observation.component.extension</t>
-  </si>
-  <si>
-    <t>Observation.component.modifierExtension</t>
-  </si>
-  <si>
-    <t>Observation.component.code</t>
-  </si>
-  <si>
-    <t>Type of component observation (code / type)</t>
-  </si>
-  <si>
-    <t>Describes what was observed. Sometimes this is called the observation "code".</t>
-  </si>
-  <si>
-    <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
-  </si>
-  <si>
-    <t>&lt; 363787002 |Observable entity| OR -&lt; 386053000 |Evaluation procedure|</t>
-  </si>
-  <si>
-    <t>Observation.component.code.id</t>
-  </si>
-  <si>
-    <t>Observation.component.code.extension</t>
-  </si>
-  <si>
-    <t>Observation.component.code.coding</t>
-  </si>
-  <si>
-    <t>Observation.component.code.text</t>
-  </si>
-  <si>
-    <t>Observation.component.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">integer
-</t>
-  </si>
-  <si>
-    <t>Actual component result</t>
-  </si>
-  <si>
-    <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>363714003 |Interprets| &lt; 441742003 |Evaluation finding|</t>
-  </si>
-  <si>
-    <t>Observation.component.value[x]:valueInteger</t>
-  </si>
-  <si>
-    <t>valueInteger</t>
-  </si>
-  <si>
-    <t>Observation.component.value[x]:valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>http://hl7.org/de/ValueSet/vs-biological-gender</t>
-  </si>
-  <si>
-    <t>Observation.component.dataAbsentReason</t>
-  </si>
-  <si>
-    <t>Why the component result is missing</t>
-  </si>
-  <si>
-    <t>Provides a reason why the expected value in the element Observation.component.value[x] is missing.</t>
-  </si>
-  <si>
-    <t>"Null" or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "test not done". 
-The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed.  Because of these options, use-case agreements are required to interpret general observations for exceptional values.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/de/ValueSet/vs-sentinel-conceptual-domain</t>
-  </si>
-  <si>
-    <t>Observation.component.interpretation</t>
-  </si>
-  <si>
-    <t>Observation.component.referenceRange</t>
-  </si>
-  <si>
-    <t>Provides guide for interpretation of component result</t>
-  </si>
-  <si>
-    <t>Guidance on how to interpret the value by comparison to a normal or recommended range.</t>
-  </si>
-  <si>
-    <t>Observation.component:male</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>Observation.component:male.id</t>
-  </si>
-  <si>
-    <t>Observation.component:male.extension</t>
-  </si>
-  <si>
-    <t>Observation.component:male.modifierExtension</t>
-  </si>
-  <si>
-    <t>Observation.component:male.code</t>
-  </si>
-  <si>
-    <t>Masculine
-Männlich</t>
-  </si>
-  <si>
-    <t>Male sex</t>
-  </si>
-  <si>
-    <t>Biological male sex</t>
-  </si>
-  <si>
-    <t>Zusätzliche Codes, die diesen Code übersetzen oder abbilden, sind erlaubt. Beispielsweise ein granularerer LOINC-Code oder Code, der lokal in einem System verwendet wird.</t>
-  </si>
-  <si>
-    <t>Observation.component:male.code.id</t>
-  </si>
-  <si>
-    <t>Observation.component:male.code.extension</t>
-  </si>
-  <si>
-    <t>Observation.component:male.code.coding</t>
   </si>
   <si>
     <t>Slice basiert auf $this.system und $this.code</t>
@@ -17667,10 +17671,10 @@
         <v>82</v>
       </c>
       <c r="AB125" t="s" s="2">
-        <v>575</v>
+        <v>623</v>
       </c>
       <c r="AC125" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AD125" t="s" s="2">
         <v>82</v>
@@ -17714,13 +17718,13 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>589</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D126" t="s" s="2">
         <v>82</v>
@@ -17838,10 +17842,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17956,10 +17960,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -18076,10 +18080,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18198,10 +18202,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18318,10 +18322,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18363,7 +18367,7 @@
       </c>
       <c r="Q131" s="2"/>
       <c r="R131" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="S131" t="s" s="2">
         <v>82</v>
@@ -18440,10 +18444,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18562,10 +18566,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18684,13 +18688,13 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>589</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D134" t="s" s="2">
         <v>82</v>
@@ -18808,10 +18812,10 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18926,10 +18930,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -19046,10 +19050,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -19168,10 +19172,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19288,10 +19292,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19333,7 +19337,7 @@
       </c>
       <c r="Q139" s="2"/>
       <c r="R139" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="S139" t="s" s="2">
         <v>82</v>
@@ -19410,10 +19414,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19532,10 +19536,10 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19654,7 +19658,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B142" t="s" s="2">
         <v>590</v>
@@ -19776,7 +19780,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>591</v>
@@ -19896,7 +19900,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>591</v>
@@ -20020,10 +20024,10 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -20138,10 +20142,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20258,10 +20262,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20287,10 +20291,10 @@
         <v>592</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" s="2"/>
@@ -20308,10 +20312,10 @@
         <v>82</v>
       </c>
       <c r="U147" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="V147" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="W147" t="s" s="2">
         <v>82</v>
@@ -20341,7 +20345,7 @@
         <v>82</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>80</v>
@@ -20376,7 +20380,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>591</v>
@@ -20498,7 +20502,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>601</v>
@@ -20618,7 +20622,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>606</v>
@@ -20740,7 +20744,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>607</v>
@@ -20862,13 +20866,13 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>570</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D152" t="s" s="2">
         <v>82</v>
@@ -20986,7 +20990,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>579</v>
@@ -21104,7 +21108,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>580</v>
@@ -21224,7 +21228,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>581</v>
@@ -21346,14 +21350,14 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>582</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E156" s="2"/>
       <c r="F156" t="s" s="2">
@@ -21375,10 +21379,10 @@
         <v>198</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="N156" t="s" s="2">
         <v>619</v>
@@ -21468,7 +21472,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>587</v>
@@ -21586,7 +21590,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>588</v>
@@ -21706,7 +21710,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>589</v>
@@ -21781,10 +21785,10 @@
         <v>82</v>
       </c>
       <c r="AB159" t="s" s="2">
-        <v>575</v>
+        <v>623</v>
       </c>
       <c r="AC159" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AD159" t="s" s="2">
         <v>82</v>
@@ -21828,13 +21832,13 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>589</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D160" t="s" s="2">
         <v>82</v>
@@ -21952,10 +21956,10 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -22070,10 +22074,10 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -22190,10 +22194,10 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -22312,10 +22316,10 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -22432,10 +22436,10 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -22477,7 +22481,7 @@
       </c>
       <c r="Q165" s="2"/>
       <c r="R165" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="S165" t="s" s="2">
         <v>82</v>
@@ -22554,10 +22558,10 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -22676,10 +22680,10 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -22798,13 +22802,13 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>589</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D168" t="s" s="2">
         <v>82</v>
@@ -22922,10 +22926,10 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -23040,10 +23044,10 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -23160,10 +23164,10 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -23282,10 +23286,10 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -23402,10 +23406,10 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -23447,7 +23451,7 @@
       </c>
       <c r="Q173" s="2"/>
       <c r="R173" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="S173" t="s" s="2">
         <v>82</v>
@@ -23524,10 +23528,10 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -23646,10 +23650,10 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -23768,7 +23772,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>590</v>
@@ -23890,7 +23894,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>591</v>
@@ -24010,7 +24014,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>591</v>
@@ -24134,10 +24138,10 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -24252,10 +24256,10 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -24372,10 +24376,10 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -24401,10 +24405,10 @@
         <v>592</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="N181" s="2"/>
       <c r="O181" s="2"/>
@@ -24413,7 +24417,7 @@
       </c>
       <c r="Q181" s="2"/>
       <c r="R181" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="S181" t="s" s="2">
         <v>82</v>
@@ -24422,10 +24426,10 @@
         <v>82</v>
       </c>
       <c r="U181" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="V181" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="W181" t="s" s="2">
         <v>82</v>
@@ -24455,7 +24459,7 @@
         <v>82</v>
       </c>
       <c r="AF181" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AG181" t="s" s="2">
         <v>80</v>
@@ -24490,7 +24494,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B182" t="s" s="2">
         <v>591</v>
@@ -24612,7 +24616,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>601</v>
@@ -24732,7 +24736,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B184" t="s" s="2">
         <v>606</v>
@@ -24854,7 +24858,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B185" t="s" s="2">
         <v>607</v>
